--- a/各分類(excel)/飲食料理.xlsx
+++ b/各分類(excel)/飲食料理.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="691">
   <si>
     <t>書名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,15 +263,9 @@
     <t xml:space="preserve">麵粉.水.鹽.酵母：頂級工匠麵包聖經 </t>
   </si>
   <si>
-    <t xml:space="preserve">呂昇達老師的甜點日記 </t>
-  </si>
-  <si>
     <t xml:space="preserve">精品紅茶學：「午後紅茶」顧問，40年紅茶研究心得 </t>
   </si>
   <si>
-    <t xml:space="preserve">日日湯療：中醫師的39道對症家常湯 </t>
-  </si>
-  <si>
     <t>餅乾研究室：搞懂關鍵材料！油+糖+粉，學會自己調比例、寫配方</t>
   </si>
   <si>
@@ -494,12 +488,6 @@
     <t>肯‧福克緒</t>
   </si>
   <si>
-    <t>呂昇達</t>
-  </si>
-  <si>
-    <t>磯淵 猛</t>
-  </si>
-  <si>
     <t>崔耕真</t>
   </si>
   <si>
@@ -552,24 +540,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N000885392</t>
-  </si>
-  <si>
     <t>E050020894</t>
   </si>
   <si>
-    <t>E050026069</t>
-  </si>
-  <si>
-    <t>E050023495</t>
-  </si>
-  <si>
     <t>E050013022</t>
   </si>
   <si>
-    <t>E050022752</t>
-  </si>
-  <si>
     <t>D020017757</t>
   </si>
   <si>
@@ -706,9 +682,6 @@
   </si>
   <si>
     <t>0010780251</t>
-  </si>
-  <si>
-    <t>0010699493</t>
   </si>
   <si>
     <t>0010780906</t>
@@ -1798,12 +1771,1903 @@
     <t>　以杏仁粉、椰子粉取代麵粉，赤藻糖醇代替精緻砂糖，　　做出口感風味極佳、並能減少醣質攝取的甜點。　　◎「低醣．生酮甜點」和一般甜點有什麼不同？　　∣一般甜點：市面上的麵包、蛋糕、餅乾，大多以麵粉、砂糖製作，高糖、高碳水、營養價值低，還可能含有反式脂肪，吃多了易導致身體發炎、發胖、危害健康。　　∣低醣．生酮甜點：以杏仁粉、椰子細粉、洋車前子細粉取代麵粉，碳水化合物含量低，不含麬質，是很好的低醣烘焙材料。加入赤藻醣醇、甜菊糖，代替精緻砂糖，甜度低，較不易造成血糖波動。　　◎本書適合哪些人？　　1.任何人都可吃「低醣．生酮甜點」　　2.力行減醣生活的人　　3.執行生酮飲食者　　4.對小麥麩質過敏者　　5.瘦身減肥者　　6.無經驗的烘焙新手　　◎備妥三大「低醣」粉材 × 五種「生酮」好食材，輕鬆做出低醣生酮甜點　　∣安心無澱粉的「低醣」粉材：準備杏仁粉、椰子細粉、寒天粉等三大粉材，就能製作出烘焙甜點及免烤的冰涼果凍。　　∣將「生酮」好食材融入甜點：利用好油（椰子油、草飼奶油）、雞蛋、藍莓、好的代糖（赤藻糖醇、甜菊糖）、堅果等等食材來製作，維持生酮體質不破功。　　◎精心設計，最簡易、即食的低醣生酮甜點　　︱3分鐘甜點，立即做、立即享用　1.攪一攪、拌一拌，放進微波爐加熱2分鐘，「檸檬酸奶馬克杯蛋糕」香噴噴出爐。　2.運用生酮好食材──希臘優格，再加入白乳酪、小紅莓，做出清涼小點心。　　︱自製低醣生酮「手搖飲料」　1.無法忘情Q彈口感的珍珠奶茶，就以奇亞籽代替珍珠，同樣能享受咀嚼滋味。　2.想喝果汁時，自製「生酮綠拿鐵」，自然輕甜，還能順便補充纖維質。　　3.每天都需要來杯咖啡，卻喝膩了防彈咖啡，來杯「生酮卡布奇諾」、「防彈椰奶可可」變換口味。　　︱特別研發的「無澱粉配方」，藍莓塔、千層派都能大口享用　1.以杏仁粉取代麵粉，就能做出有如市售風貌的派塔。　　2.以椰子粉取代麵粉，做出帶有清香風味的椰子餅乾。　　3.以馬斯卡朋起司為主角，不用添加任何粉材，就能做出口感相近的法式薄餅。　　︱無須專業烤箱，小家電就做得出的布丁、蛋糕　　1.寒天粉加入配料攪一攪放入冰箱，就能做出滑溜低卡的「莓果寒天凍」、「酪梨果凍」。　　2.放入電鍋、按下開關就完成的「古早味杏仁電鍋蛋糕」、「低糖布丁」。　　3.將麵糊放入平底鍋煎烤，法式薄餅、美式鬆餅、英式煎餅輕鬆上桌。　　︱辦一個專屬低醣生酮的下午茶派對　1.下午茶怎能少了豪華甜點，令人驚豔的「藍莓天使蛋糕」、「巧克力戚風蛋糕」，看起來、吃起來都像極了五星級下午茶。　2.小巧可愛的「迷你甜甜圈」、「蔓越莓瑪芬」、冰涼的「莓果寒天凍」、「奶蓋綠茶凍」，大人小孩都著迷。本書特色　　1、簡單易做，無烘焙經驗者也能輕鬆入門。　　2、收錄布丁、派塔、餅乾、蛋糕等65種甜點，豐富多元。　　3、備料輕鬆、製作簡單，享受低醣生酮甜點毫不費力。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>七年級生。二○一○年遠嫁陽光南法，享受生活，學習生活，現為兩個男孩的媽，分別是亞歷和肥安。二○一二年創立粉絲團，分享自己與孩子們的法國日常大小事，如文化異同、親子教養、美食旅行等等經驗與體悟，認真面對經歷過的點點滴滴，每一天都是人生新篇章， 主持FB「王君萍」累積近百萬追蹤粉絲、IG「王君萍」累積近百萬粉絲，部落格「亞歷一家」alexmom.tw近三百萬瀏覽人次，在網路上擁有超高人氣，在自己的日子裡認真呼吸。著有《亞歷、肥安這樣長大》。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232323"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本書收錄王君萍拿手的家常料理食譜，如魚香烘蛋、麻婆豆腐、絲瓜蛤蜊、筍乾焢肉、糖醋魚球等等，中菜西吃，即便為人熟知的傳統料理，亦不妨轉換心境來享用，從前菜、主餐到甜食，只要擁有對生活的美好想像，中菜一樣可以被賦予法式抒情，從備料、作法步驟到盛盤上桌，過程需要的心意比技術還得更多，和丈夫孩子的一餐、和摯友的一餐、給自己的一餐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232323"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232323"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>食物的真正美味來自於心。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾任　　台灣：　　1991~2000石牌福利麵包（現已更名為富莉麵包→麵包主廚 　　2000~2003五穀雜糧麵包→麵包主廚 　　2003~2010德麥食品股份有限公司→烘焙技師 　　2012~2013麵包舞曲→執行長 　　中國大陸：　　2010~2012超雅食品股份有限公司（福州→麵包部技術總監 　　2015~2017北京風物糧倉餐飲管理有限公司技術總監 　　麵包技術顧問　　台灣：聖保羅烘焙花園、布里王子的麵包廚房、掬園烘焙店、燒菓子烘焙坊、　　陳允寶泉食品股份有限公司、鹿港聖誕屋烘焙坊、手握幸福烘焙坊、　　綠洲香頌烘焙坊、巴貝多精緻烘焙美食……等。　　大陸：拉丁妮烘焙（湖北-武漢）、KK經典烘焙（雲南-瑞利）、凡谷先生（福建-福州）、　　美滋每客蛋糕店 ( 山西-太原 )……等。　　大專院校特聘烘焙講師　　國立高雄餐旅大學、高雄三民家商、嘉南藥理大學、台北市立松山工農、新北市立金山高級中學……等。　　證照　　1.台灣烘焙食品→麵包、西點蛋糕乙級合格證照。（2000年）　　2.台灣烘焙食品→麵包、西點蛋糕監評人員合格證照。（2008年）　　3.中華人民共和國→西點烘焙合格證照。（2004年）　　賽事　　1.榮獲2007年台灣區台北市烘焙展菠蘿比賽→亞軍。　　2.榮獲2008年樂斯福盃世界麵包大賽台灣區代表選拔總決賽→亞軍。　　3.榮獲2012年世界麵包大賽【法國麵包&amp;歐式麵包項】台灣區代表選拔總決賽→亞軍。　　榮獲2015年中國大陸永輝超市全國技能大賽烘焙麵包→季軍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想知道熱銷排隊的金牛角，口感為什麼這麼好？每家麵包店一定要有的鹽可頌，製作技巧到底在哪裡？除了基本口味，還有沒有更棒的配方風味……！　　就讓擁有30年專業的麵包教學與研發經驗，業界傳說中的「太陽之手」，武憲師傅來為大家解構這業界不傳的秘訣，公佈所有使用的廠牌與配方，讓配方更升級，風味更自然。　　․特色 1：不論在家自製麵包或烘焙師與麵包師都會想收藏擁有的夢幻配方→從經典不敗歐式麵包、排隊人氣日式麵包、道地傳統台式麵包、超級紅火內地麵包到師傅的創新演繹獨門麵包，內容應有盡有，配方精準，絕不藏私、毫不保留地分享給所有讀者，讓您一看就會！　　․特點 2：品牌配方全公佈，業界裡不能說的秘密→業界師傅都有屬於自己的粉類秘密配方，調出令人讚嘆的口感。同樣的法國粉，不同廠牌就會有不同的口感，各種餡料也因為廠牌關係，風味也天差地別，想知道大師級的師傅都用哪種粉？哪種內餡嗎？在這裡都能你一目了然！　　․特色 3：Step by Step超詳細圖解77款頂級麵包的做法→從材料、工具、製作過程、麵糰揉捏甩打、整形，至進烤箱烘烤，一步一步完整圖解每款頂級風味麵包的製作過程，讓您的麵包技術更高人一等！　　․特色 4：提供變化版的創意與技巧→同一個品項，利用不同的方式與技巧，衍生出各種不同型態的新產品，不論是口味、造型變化上，都讓您也能將自己的創意與想法，運用在麵包裡。　　․特色 5：每款麵包設計獨特的「烘焙流程表」，立即掌握要點→內含製作流程、攪拌時間、攪拌麵糰溫度、發酵溫濕度、基本發酵時間、分割滾圓、中間發酵時間、整型樣式、最後發酵時間、烤焙溫度、烘烤時間等，表格整理，提綱挈領，並加入配方百分比，讓您一眼就看懂每款麵包的製作重點，想營業使用或少量烘烤都沒問題，出讓人讚不絕口的美味麵包。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010770737</t>
+  </si>
+  <si>
+    <t>Brian Lin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來自台灣，目前定居加拿大，與製作人Pierre Blais合組Brian Cuisine Inc.。　　40歲之前從未動手做過一項甜點，40歲卻踏上另個國度，展開自學的烘焙人生。　　化工科畢業，也沒做過一天相關工作，卻在烘焙過程中，發揮所學的研究精神，將每道食譜拆解、深入研究，最後了解了烘焙世界的ABC；於是開始自創食譜、拍攝影片、架設網站，與全世界喜愛烘焙的人一起交流。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本書融合了蛋糕、塔派、餅乾，和軟糖等，是想要學習各種法式、美式蛋糕、甜點、精緻點心等的讀者，不可錯過的亮眼食譜書。這是一本以科學觀點解析甜點的烘焙書，提供精準的配方、鉅細靡遺的步驟圖文說明、搭配完整精緻的步驟影片，是台灣第一本全影音的食譜烘焙書，絕對值得珍藏、隨時閱讀，宛如一位虛擬導師隨身在旁指導，可立即跟著影片實做。　　→35道食譜精選+5道全新創作　　40道Brian實做甜點，其中有5道是特別為本書全新創作的隱藏版食譜，每一道除附有精彩詳盡的步驟圖片與文字說明外，更有烘焙成功的關鍵提醒，以及Pierre大師拍攝的優質實作影片。　　→12道烘焙必修基礎 製作甜點的基本工　　12道專為新手設計的〈烘焙的必修基礎〉，從派皮、塔皮、蛋白霜、奶油霜到卡士達醬等逐步解析、統統教會給你，由此延伸變化無窮，奠定製作美味甜點的功力！　　→2萬多字的自學烘焙基礎概念 設計食譜自己來　　超過50個〈關於自學烘焙你應該了解的基礎〉，以超過2萬字的扎實內容，集結眾多粉絲的提問、常犯的錯誤等，烘焙的科學原理等內容，仔細閱讀，讓你立刻晉級甜點熟手殿堂，想要自己設計食譜、變化風味再也不是難事！　　→進入不萊嗯的甜點世界　　從零開始的自學烘焙之路，記載了作者從台灣移居加拿大後的一路轉變，從他的生活觀察與一張張照片記錄，認識這個你所陌生、北美最重要法語區的生活風情；藉由每一張他親手拍下的食譜照片與創作記錄，感受書中每一道甜點的豐富滋味！本書特色　　近年最搶眼的烘焙素人、台灣 Youtube上最受歡迎的烘焙影音頻道，不到3年時間，影音播放已破500萬次！Brian用這本書娓娓道來他移居加拿大魁北克的喜怒哀樂，及自學烘焙的心路歷程，同時也收錄精彩的加拿大迷人四季之美，以一張張迷人的圖片，帶領讀者體驗更貼近自然生活步調的加拿大。　　每一道食譜，都擁有Pierre大師掌鏡的專業、完整的影音分享，流暢的節奏、加拿大電視規格的製作品質，絕無作假。QR碼輕輕一掃，Brian就在你身邊，跟隨他走進廚房，用清晰的Step by Step影片一起完成這些熱門食譜。　　春天的雪融與初綠、夏天迎接戶外盛宴、秋天品味色彩爭奇與凋零，冬天窩在壁爐前享受寧靜時光，本書以加拿大四季為食譜的設計概念，每一季均推薦10道食譜，隨著季節變化結合當令食材，品味原汁原味加拿大法式甜食的浪漫節奏！　　雙目錄設計，讓讀者可以搭配時令依四季或是以食譜主題來挑選想做的甜點，打破市面多以主題為分類方式，激起讀者的好奇，同時與節氣更為接近。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理營養師，低醣料理研究家。曾任出版社編輯和寫手，畢業於服部營養專門學校的營養師科系。現為大企業指定保健指導和營養顧問，更於臨床研究領域監修營養療法，指導6000多人減肥。提倡「利用飲食瘦身，重獲健康」的減肥法，溫和的指導方式也廣受好評。其料理部落格「食療限醣瘦身」的人氣，在各大減肥美體部落格中經常名列前茅。現有的資格分別為管理營養師、日本抗老化醫學會會員、日本機能性減重協會公認顧問、食育營養專業指導者。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">‧營養師親身實踐減醣生活的飲食心得，食譜內容營養均衡、提高代謝力、加速瘦身效果。
+　　‧收錄最多人想知道的減醣QA，營養師一一破解最常見的減醣飲食迷思。
+　　‧特別列出減醣飲食中的禁忌食品，避開地雷食物的基本原則一目了然。
+　　‧必須外食和聚餐、沒時間自炊的時候，營養師提供絕不破功的選擇祕訣。
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一輩子給了烘焙，當推出的產品成功了，是一種「愛」；反之，失敗了，便不停自省，是一種「恨」，構成了人生的「愛與恨」！　　這是愛與恨老師藝名的由來。而他也期待，透過他的教學，讓猶如一張白紙的新手全新上彩，烘焙畫布更美麗。　　國中畢業後，一腳踏入麵包的世界，從小學徒開始學習。一路走來，並不順遂，也曾做過烘焙界的逃兵，從事過許多不同的行業。但，也許冥冥之中註定，終究還是回到麵包的懷抱。而真正讓浪子返鄉的理由，是為了就近照顧生病的家人，開始在幼安教養院教導憨兒製作烘焙點心。　　沒有傲人的學經歷、沒有豐富的比賽經驗，卻有一顆願意分享的心，這是「愛與恨」老師，一個願意將他所會的麵包知道分享給大家的老師，一個期待透過他的分享，也讓你體會烘焙樂趣的暖男麵包師。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本書特色　　打敗天下無敵手的經典甜麵糰　　最棒的甜麵包配方，打出最經典、最受歡迎的甜麵糰，製作出受歡迎、耳熟能詳、經得起考驗的多款台式麵包，每款麵包成功率高、超級好吃。　　QR Code 掃碼影片完整教學　　經典5款台式麵包＋烘焙社團爆紅的奶香包＋粉絲讚不絕口的軟歐包＋12款整型手法的 QR Code，手機一掃，老師就在你身邊！　　天天做天天吃不重覆　　30款吃不膩的台式麵包口味，再熱情加碼奶香包與軟歐包，搭配12種整型手法，變化無窮。學會這款基礎麵糰，再依家中現有食材隨意變化內餡，即使天天做、天天吃、也吃不膩。　　新手&amp;老手的最愛　　這本書，是麵包初學者入門的必備書，是讓烘焙新手愛上做麵包的參考書；而即使是烘焙老手，也能從其中體會一種麵糰的無窮魅力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amy來自傳統客家的大家庭，從小就愛在廚房與菜園裡圍著大人打轉，道地的客家美食，在從小耳濡目染之下，信手拈來都是佳餚。而出嫁後，更從婆婆那習得一手道地閩南台式料理。加上居住的社居有許多駐台的外籍人士家庭，讓Amy也接觸了世界各國的料理方式，更曾遠赴法國學習廚藝……。　　大約五年前，愛吃又愛料理的Amy開始在FB上分享自己的料理食譜與創作理念，因為無私的分享與處處為閱覽者著想的細心，讓自己經營的「Amy的私人廚房」粉絲頁，目前已超過40萬人按讚。最高影音食譜瀏覽人數超過2百萬人次。單篇食譜分享更曾超過10萬人次分享的佳績。　　著作：2分鐘變大廚！100道全影音零廚藝料理－詳細步驟圖＋全影音食譜=隨選隨看，立馬上手！料理無死角，美味零技巧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要快速上菜，解決一家大小的晚餐，那就試試快速上菜的美味料理單元；燒煮料理最適合帶便當了，晚餐和隔天的便當就一起解決，請務必參考一鍋到底的燒煮料理。吃膩了中菜，偶爾想換換西式口味嗎？請不要錯過人氣爆棚的西式料理；又或是想要準備給心愛的家人或朋友一碗療癒溫暖的鍋煮湯品？還有簡單的各種甜、鹹醬，甚至想挑戰拿手功夫菜……。　　詳細的步驟圖，搭配Amy的招牌2分鐘影音教學內容，即掃QRCODE即看，所有技巧與訣竅都完整呈現。100道最完整的全影音食譜書，巧妙使用居家常用的鍋具，做出各式各樣美味有豐富的精彩料理，讓家裡的餐桌多采多姿。　　最後，附上Amy的美味小叮嚀與鍋具保養，讓料理更美味，滋味更豐富，做菜更能事半功倍，加倍輕鬆！　　★100道全影音教學，每道菜色均附上QRCODE，即掃即看。　★從快速上菜的美味料理到一鍋到底的燒煮料理，還有人氣爆棚的西式料理、療癒溫暖鍋物湯品，甚至拿手功夫菜、甜鹹醬料，應有盡有！　　★詳盡步驟一目了然，搭配影音，料理無死角。　　★健康美味，無添加！實實在在的美味料理！　　★Amy美味小叮嚀，充分說明可取代的食材與料理方式，料理更輕鬆，美味再升級！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1966年出生於日本岡山縣。於日本岡山縣『木村屋』開始學習麵包製作，之後在日本『DONQ東客麵包』大阪、岡山、廣島等分店服務。1991年來台長駐DONQ東客麵包台北分店。2000年在台中開設麵包坊。2006年出版『名店麵包大公開』2012年新增DVD版。2008年開設『野上麵包Boulangerie Nogami』南崁店，獲得『秒殺麵包』盛名。2012年開設『野上麵包Boulangerie Nogami』台北店，再度造成排隊風潮。2012年擔任『世界盃麵包大賽（Coup du Monde de la Boulangerie）』台灣隊總教練，奪得世界第三名。2013年 成立「野上烘焙工房」。2014年 與大陽製粉合作開發出『麥嵐綺法國粉Mélanger』與『麥嵐綺特高筋粉Super Mélanger』。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本書由台日韓重量級麵包職人---野上智寬大師所著。在『名店麵包大公開』獲得廣大好評與迴響，終於推出彙集野上大師30年經驗技術的最新中文版著作！以全圖解的方式讓所有讀者一窺秒殺麵包製作必備的知識與絕竅！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專業麵包職人　　麵包師傅・講師　　擁有24年專業麵包職人的經歷，堅持好還要更好，常於國內外見習新知。　　傾注真摯的熱情鑽研在地食材，尋味、探究每口感動背後的人情物意；以追究風味細節、有所堅持的麵團，開創風味自然的美味麵包為目標。　　現為專業麵包技師，並活躍於麵包研發、教學等各個專業領域，致力於麵包技術和麵包製作的研究分享。　　經歷　　聖瑪莉、亞都麗緻大飯店　　美國洛杉磯JJ BAKERY、開元食品、哈肯舖手感烘焙　　聯華實業、總信食品麵包講師、各大烘焙教室麵包教學　　理奇食品麵包技師　　2017成立一ㄡˋ麵包工作室　　出版　　手感烘焙 歐風×日系天然酵母麵包（橘子文化）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本書以吐司麵包為主題，打破「平凡」框架，結合在地穀物、蔬果農產的運用量身製作。從配方構思到製作的完整工序，大幅加強以圖解演示，精準傳授麵包製作過程。　　細說麵包美味的根源、天然菌種培養、麵團發酵工法，到獨家比例的自製內餡、用料搭配，將「吐司製法」的根基架構，完整傳授製作吐司的技巧，將其中看似簡單的操作、配方概念加強圖解，讓您學會烘焙技法的同時也能瞭解原理與麵團間產生的變化，有助於精進技術的啟發與依循，是一本專業麵包烘焙師的必備工具書。　　書中的每款吐司配方皆為精心調配，以麵粉原有風味為導引，加上附屬材料的比例搭配，運用不同的發酵工法，達到口感絕佳的獨特風味。此外，所有吐司配方都以適合家庭操作的份量設定，同時標示實際所需的重量以及烘焙百分比，不僅教您製作原理，更教您計算、看懂關鍵配方比例，輕鬆掌握製作的所有問題。本書特色　　★獨家配方！從人氣經典到創意變化的各式風味吐司製作。　　★傳授第一手專業技巧；成功培養「天然菌種」的秘訣分享。　　★完整圖解！將每款吐司的工序、配方與製法一一圖示。　　★無化學添加的內餡、用料公開自製流程，安心品嘗吐司的絕美風味。　　★清楚標示攪拌、發酵、整型、烘焙工序及精確配方與烘焙百分比，提高成功率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患上了一種愛上烘焙的病，至今無藥可醫。　　從小喜歡待在廚房看媽媽像變魔術般做出ㄧ道道美味料理，　　每回到市場或超市採購時總是流連忘返的好奇女孩。　　大學念的是國貿 但骨子裡的烘焙魂讓她鑽進了烹飪社，　　從此深陷其中。畢業後做了一年度日如年的OL，　　毅然決然放棄安定的工作，前往日本追尋甜點夢。　　沒有太多的祝福和支持，　　只能憑藉著對甜點的熱愛，靠著打工與身上少少的積蓄，　　咬著牙將製果學校念完，　　在繁重的課業與生活壓力中，　　所有的辛苦在看到美麗成品完成的瞬間就能消逝無縱。　　畢業後，在日本待了四年持續精進，期望能做出更美味的甜點。　　之後前往日本藍帶餐飲學校進修，　　學習更正統精緻的法式甜點，　　回台後開設了烘焙教室營運至今　　不久前才自法國甜點學校進修返台，　　現為Le paradis 魔法手作烘焙教室負責人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9萬人按讚＋9萬人追蹤　　網路人氣烘培教室的搶手課程一次網羅　　藍帶甜點師親自傳授名店與經典食譜，　　讓步驟更簡單，美味更加分，　　想吃的，想做的，全部教給你！　　★最憧憬的名店、經典甜點45種　　減糖不減魅力的黃金比例配方。　　★一書在手掌握美味關鍵　　不用上網搶限量限時課程，話題名師的壓箱招牌全收錄，自己在家享受製作甜點的樂趣。　　★省時省力不省美味　　掌握食材特色與烘焙技巧，即使是第一次動手，也可以輕鬆學會。　　★祕訣不藏私　　剖析每款食譜用料、圖解步驟示範，操作方式、材料混和後的狀態，都能一目瞭然。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早年廣受民間歡迎的中草藥，一度被視為「不科學」，近年來經諸多研究單位逐一檢驗，證實有許多種都具有療效，而且幾乎沒有副作用。　　臺灣中草藥研究中心因而特地重新蒐集草藥方，按照具公信力的研究報告增刪修定、編輯成書，希望能為讀者帶來中西醫藥之外的新選擇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒果咖啡創辦人，人稱芒果國王。高雄醫學大學藥學系畢業，現任芒果咖啡館烘焙師，從事烘豆已有12年經歷。專長咖啡調製及烘焙、吧台教育訓練、開業輔導、教育訓練規劃、咖啡烘焙教學。曾任103-106年行政院勞委會年度產業人才投資計畫咖啡班授課專任講師。目前經營MANGO ART、MANGO HOME 、MANGO MODERN、MANGO CULTURE 四間咖啡館、⼀間咖啡教室、⼀間咖啡烘焙廠。 放棄原本應該繼承家傳三代的老藥局，一頭栽進咖啡的世界。芒果國王笑著說～其實咖啡也算藥品的一種，所以嚴格來說～他還是有從事本業啊！王琴理芒果咖啡創辦人，人見人愛的芒果女王。輔英科技大學醫技系畢業，領有醫檢師高考執照，專長咖啡調製、吧台教育訓練、咖啡教學、創業輔導與規劃。曾獲2008、2009年台灣國際咖啡節花式咖啡創意競賽季軍、2009年世界盃咖啡大師台灣區選拔賽全國第五名、2015台灣國際咖啡節花式咖啡創意競賽季軍，並為2011～2018年世界盃咖啡大師台灣選拔賽專任主持人，是咖啡界的親善大使，業界許多活動的重要幕僚人員。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為什麼他們可以在鄉下地方賣一杯幾百塊的精品咖啡？不但賣得很成功還被左右鄰居喜歡？誰說咖啡館只能設在大都市，且都得文青風、工業風、北歐風？連咖啡圈都很好奇的芒果傳奇，首刷附贈烘豆師教戰手冊。從豆單、豆譜、店舖型態、客群滿足、到平日不與人言的烘豆經濟學，數字揭露、句句打點，是好看的故事，也是想開咖啡館/對咖啡館有興趣的你，不走冤枉路的快樂創業學！［關於芒果咖啡］2014年《商業週刊》報導：「芒果咖啡在種蒜頭的農鄉，賣一杯500塊錢的咖啡……」一間從雲林莿桐起家的咖啡館，16年來，從外帶店、平價咖啡館、快閃店到四間精品級的自烘咖啡店，逐步走出屬於自己的咖啡風格與在地性。對很多咖啡人來說，芒果咖啡是個奇杷，它的傳奇來自於它把精品咖啡館開在幾乎被認定為沒有咖啡文化的鄉下地方，不但跌破眾人眼鏡，成功經營，還穩健開了4間分店（其中有間還在高雄的孔廟裡。）芒果女王說，一旦抓到經營要訣，不管把店開在天涯海角，都有成功的機會。看芒果咖啡累積16年經驗，如何在扎實的商品定位下，將豆單、客群、服務、店舖形態整合思考，讓獨立咖啡館跳脫單一店面，朝向本土小型連鎖品牌邁進。這本突破想像窠臼的咖啡館經營學，融合經濟面向的思考與know-how，以及芒果咖啡企圖與在地文化結合的有趣案例，他們說：「直到有天咖啡成為台灣鄉下風景的一部份，而不再只是城市裡的配備，或許就是台灣咖啡文化真正勝利、生活化的時候了。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>師大英語系畢業，哥倫比亞大學人類學碩士。留學期間發展出做菜的第二專長，三十出頭放棄博士學位轉行入廚，先後進入麻州劍橋廚藝學校，歷經香港星級餐廳實習，並以部落格「廚房裡的人類學家」記錄學廚生活，移居上海期間更錄製一系列烹飪教學視頻，示範做菜技巧。煙薰火燎之餘勤寫作分享餐飲見聞，著有《廚房裡的人類學家》、《其實大家都想做菜》、《簡單．豐盛．美好》。婚後隨外交官夫婿四海為家，先後旅居台北、紐約、西雅圖、波士頓、香港、上海、華府、雅加達，再到目前的成都。育有兩子述海、述亞。隨遇而安的性格孕育獨特飲食見解，以飽覽群書，吃遍四方，並認真思考一切與飲食有關的課題為人生志業。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010745065</t>
+  </si>
+  <si>
+    <t>多年前，因為看到朋友收到自己親手製作的餅乾所流露出的幸福感動，而一頭栽進了烘焙的世界，雖然非科班出身，也沒有相關的經歷，但憑著對烘焙的熱情，總能將白白的麵粉與麵團，揉捏成令人驚喜的作品。從糖霜餅乾、馬卡龍、翻糖甜點到手撕造型麵包，都能以純熟的烘焙手藝，加上細膩的巧思與豐富的想像力，創作出既暖心又令人會心一笑的作品。「一起到80歲還為可愛的事物尖叫吧」，希望自己的烘焙作品能為更多人帶來滿滿的幸福感。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本書特色　　1、最可愛！收錄52款超乎想像的超萌造型，每一款都是Kokoma老師精心研發設計。　　2、最詳盡！700張步驟圖解，清楚示範，烘焙新手也能立即上手。　　3、最全面！圓模、方形模、長形模、陶鍋等模型示範，盡情玩出各種造型花樣。　　4、最無私！一開課隨即引領風潮的人氣課程，配方、製作方法全公開。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾赴法國藍帶廚藝學院研習糕點課程，回韓國後在淑明女子大學取得設計碩士學位。以筆名「悲傷哈欠」開設「悲傷哈欠的快樂家庭烘焙」部落格，運用在學時培養出的設計感，以及出國研修並不斷練習累積的烘焙實力，設計出種類多元的精美烘焙食譜，在部落格與烘焙愛好者分享，部落格訪客人數至今已超過1400萬人次，是韓國知名烘焙類部落格。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「甜點不僅只是為了飯後爽口而吃的點心，吃甜點也是一人獨享或與親友共享的甜蜜時光。那新鮮、柔順、甜蜜的滋味……比水果還甜美，令人捨不得讓它在口中融化，更比餅乾多了些手作的溫度。林蔭道、江南、弘大、梨泰院、三清洞等商圈有許多知名甜點，我一一發掘，呈現在我的甜點世界裡。」──本書作者 李智惠　　江南、弘大、林蔭道、梨泰院、三清洞，是韓國年輕人最喜歡的逛街、約會、用餐去處，這5大商圈中有許多知名甜點店。作者實地走訪、品嘗，將目前韓國最新、最有人氣的甜點編寫成食譜收錄在本書中，80道各式口味新穎、造型別緻的蛋糕、塔派、泡芙、馬卡龍、冰淇淋及飲品……完整公開各店招牌甜點食譜，讓你不必到首爾，也能在家自己烘焙出人氣甜點。　　本書以林蔭道、江南、弘大、梨泰院、三清洞5大商圈分為5個章節，每章都附有作者實地走訪並嚴選推薦的各商圈人氣甜點店所在位置地圖，還可當作旅遊首爾時踩點品嘗甜點的指南。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本書特色＊以直覺的圖解分析，帶你一探釀造的科普樂趣酵母在釀酒過程中扮演什麼角色？美妙的發酵風味後，是一連串酵母菌的化學變化，別擔心，書中將釀酒過程相關的科學知識，以容易理解的插圖加以說明，讓你輕鬆進入釀酒世界，一探發酵的各種為什麼。＊一起在家釀酒吧！就從水果與穀類的自釀技巧開始瞭解發酵原理後，當然要動手試試看！如何依照水果與穀物特性調整釀造工序？每種水果最適合什麼釀法？原來會做甜酒釀，就能自釀米酒？從原料的前處理到釀酒製程，皆有詳實的經驗分享與提醒，期待每個人都能享用釀酒樂趣，留下每一季的酒香。＊不懂的我們盡力解答！一次搞定關於發酵的似懂非懂釀酒的每個環節可能會預見什麼狀況？發酵多久才會有酒精呢？自釀酒會過期嗎？浸泡梅酒究竟糖要先加還後放？……說起釀酒，人人心中都有好多不明白，書中將竭力找出可能的問題，為你一一解說那些很想知道的釀酒小知識。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年春天，起始於農作播種、萬物生命力甦的季節。家釀，是每個家的故事，每當聊起釀造時，一定會分享到厝內的故事，然而，這樣的記憶在現代已逐漸消逝，這是四合院提案的初衷與動機。「阿嬤的釀酒法」對於不少人而言，是釀酒的起手式。四合院期許以「食科為載體，家感為發聲」，傳承釀造的手路，期待每個人都能透過理解發酵原理，探索釀造技巧與喜好，以年輕一代濃釀的酵念，發酵出屬於自家味蕾的記憶。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆救總職訓所烘焙班18期畢業。　　◆證照：乙級烘焙技術士證照、丙級烘焙技術士證照、中式麵食乙級證照、中餐丙級證照。　　◆曾任職薩比諾食品麵包房西點房、紅葉蛋糕福州部門麵包師傅、紅葉蛋糕西點房自組DIY西點工作室教室。現任職於開明高級職業學校餐飲科主任。吳美珠　　◆中華穀類食品工業技術研究所烘焙西點專科班、西點蛋糕班、實用麵包班、蛋糕裝飾班、中式麵食班結業。　　◆民國89年7月日本東京製菓學校短期研修結業。　　◆取得證照：乙級烘焙技術士證照、丙級烘焙技術士證照、中式麵食乙級證照、化學丙級證照、中國大陸高級麵點師檢定及格。　　◆現為飛訊烘焙材料公司負責人、飛訊烘焙DIY教室講師。　　◆著有《第一次做中式麵點》、《新手烘焙最簡單【不失敗法式甜點特選版】》。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>■本書已成為「烘焙食品技術士」乙、丙級麵包西點證照考照聖經，出版多年深受讀者肯定，因應104年度重修正考題改版，更新封面重新發行。　　■與一般坊間烹飪書最大的不同處是，本書內容詳實且圖例清楚，書中各項作品（依報考項目【乙、丙級】而有所區分）的編排大致分為十大項：成品照片、中英文對照品名、歷屆考題、烘焙計算、製作條件、配方及百分比、製作程序、評分要點、應考心得，以及烘焙技巧等等。　　■此外，對於檢定的應考須知和歷屆考古題也在書中詳列清楚。　　■本書是有志進入烘焙業並參加「烘焙食品技術士」乙、丙級麵包西點證照考試者的最佳工具書。不斷更新與修正，是這本書出版以來持續熱賣的原因。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教學經歷
+　　‧ 社團法人中華農特產品生產加工釀造協進會創會理事長兼專任講師
+　　‧ 社團法人桃園市技藝傳承學會創會理事長兼專任講師
+　　‧ 社團法人中華知識經濟推廣協會授課講師
+　　‧ 社團法人台灣職能發展協會授課講師
+　　‧ 中華國際技藝認證管理學會釀造講師
+　　‧ 新竹縣中餐服務人員職業工會釀造技能講師
+　　‧ 民國94 年至今，擔任勞動部勞動力發展署桃竹苗分署外聘訓練師
+　　‧ 桃園市原住民族部落大學講師
+　　‧ 桃園市新楊平社區大學講師
+　　‧ 國立龍潭農工食品加工科「酒醋醃釀發酵課程設計與研發」課程講師
+　　‧ 萬能科技大學生物技術系「結合產學合作精進實務專題」課程講師
+　　‧ 萬能科技大學生物技術系「雙師制度」實務與專題課程講師
+　　‧ 台北市身障者關懷協會專業課程講師
+　　‧ 各級農會、鄉村里「釀酒、釀醋、釀漬、米麵食、粄粿課程」教學講師
+　　‧ 中式米食、麵食丙級證照，輔導考照課程講師
+　　專業證照
+　　‧ 中式麵食發麵類，乙級證照
+　　‧ 中式米食米粒、米漿、一般漿糰、熟粉、一般膨發類，共3 張丙級證照
+　　‧ 中式麵食發麵類、水調（和）麵類、酥糕漿皮類，共3 張丙級證照
+　　‧ 烘焙西點麵包，丙級證照
+　　‧ 中餐烹調葷食，丙級證照
+　　‧ 四川省中國食品工業協會成都培訓基地培訓釀酒師
+　　‧ 貴州省第一屆台灣釀酒技師評酒員培訓釀酒師
+　　‧ 福建省食品工業協會釀酒行業分會培訓釀酒師
+　　‧ 福建省食品工業協會釀酒行業分會培訓省級評酒員證書
+　　近年獲獎紀錄
+　　‧ 102 年度桃園縣原住民族部落大學課程講師特優獎
+　　‧ 103 年度桃園縣原住民族部落大學課程講師績優獎
+　　‧ 103 年行政院農業委員會農糧署舉辦的2014 年中式米食產品創意大賽佳作
+　　著作
+　　2002.06 台灣民間釀酒實務、2006.04 台灣釀造醋釀造生產應用實務、
+　　2014.02 自己釀、2015.02 自己醃、2015.11 釀酒、2016.06 釀酒2、2017.05做粄粿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醋的保健效果眾所周知，醋在料理和飲品上也有增加風味的功能，但是市面上流通的醋，大部分是浸泡醋或合成醋，對身體的益處很有限。釀造醋的保健效果最佳，這是第一本可以自己學會釀造醋的書籍。跟著釀醋專家一點一滴地進入釀醋的世界，是素食者、保健者、熱愛美味的人都需要的最佳釀醋指南。
+　　釀造醋的製作訣竅很重要，往往是成功與否的關鍵，這也是很人知道的一門學問。要成功釀醋―――
+　　․必須選對釀醋季節
+　　․先學會釀酒，再學釀醋
+　　․找到好的醋酸菌種
+　　․預防及減少污染
+　　學會代表性的十三款純天然釀造醋，就能延伸釀製百種以上的醋――――
+　　․7種最受歡迎的水果醋 ：鳳梨醋、紅葡萄醋、葡萄酒醋、桑葚醋、檸檬醋、李子醋、橘子醋
+　　․3種最實用的榖物醋：酒糟醋、台灣家庭釀造米醋、紅麴醋
+　　․3種特殊的保健醋：蜂蜜醋、紅茶菇（茶醋）、椰果
+　　醋在飲食和保健上的功能不可不知――――
+　　․ 醋能開胃
+　　․醋能刺激胃酸分泌、幫助消化
+　　․醋能調和味道
+　　․醋能軟化肉質
+　　․ 醋能幫助易於攝取鈣質
+　　․醋能預防高血壓
+　　․醋能殺菌防腐
+　　․醋能提神、促進新陳代謝、消除疲勞
+　　․醋能調節和改善體內器官的運作
+　　本書公開所有釀造過程與訣竅，從醋的產生原理、使用功能、保健效果、釀造原理和方法，以及釀造步驟都有詳細的教學。以蔬果與穀物為原料，加上優質微生物、確實的釀造步驟，以及把握釀造醋培養過程時異常的解決之道，讓自己釀醋變得容易許多，不論是做為飲品或調味料都是生活中不可缺少的好食物。
+　　*什麼季節釀醋最好？
+　　*傳統釀造醋與新式釀造醋比較？
+　　*成功釀醋的基本條件？
+　　*浸泡醋沒有保健效果？
+　　*影響家用米醋的風味關鍵？
+　　*紅茶菇醋為什麼有很好的保健效果？
+　　*養生醋蛋怎麼做？
+　　*最有效的食醋法？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫的玫瑰、高雅的山茶花、奔放的牡丹、清新的波斯菊……
+　　調一點復古色調的灰藍、加一點溫潤宜人的橘粉，
+　　裱花是一場與自己的深度對談，而每朵花都代表獨一無二的自己。
+　　跟著Anna老師的甜蜜小宇宙，
+　　一起在層層花瓣中，感受靜謐的美好生活！
+　　用豆沙特有的色澤質地，呈現自然的擬真花感，
+　　以色彩學為基本原理，調出細膩的配色組合，
+　　超過800張多重視角圖解，清楚剖析各步驟的細節處理。
+　　從最好上手的杯子蛋糕，到達人級大蛋糕的裝飾技巧，完整收錄！
+　　讓初學者擠一朵花，就完成別出心裁的美麗創作；
+　　讓進階者盡情發揮創意，打造獨具特色的藝術作品，
+　　送給自己，也送給心裡最重要的人。
+本書特色：
+　　◎特色1. 精選30款最受歡迎的花型＋21種蛋糕組合，款款都是無與倫比的美麗。
+　　從簡易的玫瑰、薰衣草，到進階的蘭花、鬱金香，本書收錄30種花型，讓你一次學會各種平面花、立體花的擠製技巧。再教你運用這些花型、葉子以及莓果的裝飾，組合出21種杯子蛋糕。不論是一朵花還是一個蛋糕，都是獨特且唯美的藝術品。
+　　◎特色2. 最具韓國特色的豆沙擠花，色澤自然、口感不甜膩、質感再升級。
+　　在蛋糕上做擠花裝飾，不一定要用鮮奶油或奶油霜，本書的擠花材料是以白豆沙為基底，加入天然色粉調製出各色豆沙，不僅顏色自然逼真、延展性好，其獨特的色澤質地，可以呈現宛如真花的樣貌。而且口感上更綿密、清爽不甜膩，打破以往擠花只是「好看但不好吃」的印象。
+　　◎特色3. 第一本專為小尺寸蛋糕設計，最適合新手的韓式擠花入門書。
+　　當你從IG、FB看到別人秀出美麗的裱花蛋糕時，想嘗試看看但又擔心失敗嗎？Anna老師特別以小尺寸的杯子蛋糕做設計，讓初學者可以更快上手。即使不熟練多種花型也沒關係，就算只做一朵花，加上簡單的裝飾技巧，也能完成達人級作品；做為禮物送人，更是絕無僅有的心意。
+　　◎特色4. 多重視角的精準圖解，從最容易混淆的角度做拍攝，比影片教學更清楚。
+　　全書收錄超過800張步驟照片，從俯角、仰角到平視等，採用最容易理解的視角多方位呈現，一步一步解說各朵花的製作過程。除了實境照片的說明，並以繪圖、線條等做為輔助對照，讓你更容易確認自己的作法，帶領你成功做出每款花型。
+　　◎特色5. 擠花不失敗的關鍵細節完整公開，即便是初學者也能一看就懂。
+　　想要做出層次豐富的花朵，花嘴的角度該如何掌握？花蕊若要顯得生動不死板，擠豆沙的力道又該如何拿捏？製作每一種花型時，需要注意的「角度」、「方向」、「力道」等細節，以及容易犯的錯誤、讓花朵更細緻的技巧等，Anna老師全部不藏私地逐條說明。
+　　◎特色6. 從基本的工具介紹與使用技巧，到最難掌握的調色和配色，通通收錄。
+　　本書先說明如何掌握每項工具的使用技巧，幫助你擠花時更得心應手。再透過調色練習，讓每朵豆沙花都能呈現自然的擬真花感。再以色彩學為基礎，示範如何把大小不一、色彩多樣的花朵們搭配出協調感，組合出漂亮的裱花蛋糕。從基礎到進階，擠花時容易遇到的問題都能迎刃而解。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32歲前，她只是個喜歡烘焙的平凡女子，
+　　卻在第一次接觸裱花後，一頭栽入了美麗的花花世界。
+　　不惜放棄出發在即的法國藍帶課程，不惜花光攢存多年的積蓄，
+　　她在親朋好友無人看好的聲浪中，隻身前往韓國學藝。
+　　台灣沒人懂的專業技巧，親自到當地找最頂尖的專家請教；
+　　韓國老師不願教的私藏配方，花費無數日夜細細鑽研。
+　　抱持著不放棄的決心與毅力，她不僅成功取得多張證書，
+　　甚至受聘為韓國政府認證的KCDA協會台灣區經理。
+　　為了讓更多人感受裱花的美好，
+　　她回台開設「Anna Sweet Cake」工作室，
+　　學生遍布全台灣由北到南，甚至遠從海外慕名而來。
+　　講究細節的教學堅持，讓她一下午的課程，每每從白天上到黑夜，
+　　成了學生口中「最感人」的老師。
+　　儘管長時間過度施力導致雙手顫抖，
+　　滿檔的奔波行程幾度讓健康亮紅燈，
+　　但每當談起裱花，她的眼神始終堅定，
+　　她說她只是喜歡這件事，而且從沒變過，僅此而已。
+　　經歷：
+　　‧擁有KFCA（Korea Flower Cake Association）兩階證書。
+　　‧擁有RKFA（Republic of Korean Flowercake Association）米蛋糕證書。
+　　‧擁有KCDA（Korea Cake Design Association）兩階證書。
+　　‧通過教學認證，成為KCDA台灣區經理，也是台灣唯一授權擁有審核KCDA證書資格的教師。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010777986</t>
+  </si>
+  <si>
+    <t>JJ 5色廚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在香港出生的雙魚女(母親!)。
+某年跟著超馬先生瘋吃基隆小吃，舌頭瞬間被誘拐到台灣，當了XX年在港台妻。
+愛吃愛煮更愛寫。一年前跳離職場，擔起全職廚娘。
+美食料理文章見解獨特，是「愛料理生活誌」的人氣作者。
+JJ 5色廚堅持「0添加、5色搭配、10分用心」，為家人、朋友做出元氣健康的五色美食。
+JJ 5色廚 FB粉絲團
+https://www.facebook.com/jj5colorkitchen/info/?entry_point=about_section_header
+相關著作:《一鍋抵多鍋，每家必備的70道萬用鍋，零失敗美味提案》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做菜總是怕煮不熟？
+過熟，吃起來又柴柴的，如爵木炭？
+夏天做菜怕汗流滿面？全身臭烘烘？
+炒菜鍋爐太重，肩膀容易媽媽手上身？
+每次料理完，廚房像打仗？清理又花時間？
+其實你只要一隻萬用鍋就可以搞定以上所有事。
+跟著書裡的步驟，
+學會怎麼利用萬用鍋的
+蒸、煮、燉、滷、煎、烤、炒設定，
+透過一指神功，按鍵操作，
+任何食材到你手上都會變成美味料理，
+把廚房生手也能變成料理高手。
+要在家做菜，或回家有熱騰騰的飯菜快速上桌，只要有一台集壓力鍋、快鍋、平底鍋、燜燒鍋及電子鍋多種功能於一身的智慧型萬用鍋，蒸、煮、燉、滷、煎、烤、炒樣樣都會，而且只要一塊小小見方的地方，家裡處處都是廚房，也不怕把家弄得油水四濺。 
+看是要「密封」蒸滷燉，或是「無水」煎炒烤，一個按鍵搞定一切，還有應用同樣的食材及步驟，延伸出隱藏版料理，讓你生手變熟手。更有升級版的中途加料、收汁入味、自調壓力值的食譜教學，不但能做出更有口感及層次的料理，還把營養留住，不打折。而一次做兩道菜的雙層料理法，讓你早上出門上班前按下「預約」烹煮，下班回來就聞到飯菜香，省時省力有效率。
+＜重點訴求＞
+１。漂亮的圖片，以及詳細的步驟、食材比例，讓初學者Step By Step操作，零失敗做料理。
+２。運用相同的操作模式，可以延伸的食譜收錄。
+３。難易度指標，可以依自己程度，由簡至難地學習各種料理方式。
+４。以簡單易懂的菜色分類頁籤——早餐、主食、湯品、主菜、湯品、甜點等，可以快速找到並搭配，滿足需求。
+５。明確標示一鍋兩道的料理教學，不但充分利用萬用鍋特性，料理上桌更有效率。
+＜精選菜單＞
+寫在前面 智慧升級，新手上路不失敗的萬用鍋料理            
+Part1 活力早餐補元氣
+蜜紅豆土司 
+隱藏版—紅豆挫冰＆紅豆湯
+藍莓果醬
+　隱藏版—鳳梨果醬
+水煮蛋 &amp; 茶葉蛋
+　隱藏版—滷蛋
+起司活力蛋卷Omelette
+　隱藏版—蛋餅
+港式蘿蔔糕
+Part2 養氣滋補好湯品
+日式昆布柴魚高湯
+鮭魚味噌湯
+豬肝魚片粥
+　隱藏版—小米粥　
+牛尾蔬菜薏仁粥
+佛手瓜玉米腰果湯
+　隱藏版—蘋果水梨白木耳湯
+鮮菇芥菜干貝雞湯
+　隱藏版—鳳梨苦瓜雞湯
+冬瓜蓮子薏仁排骨湯
+竹筍豬軟骨湯
+　隱藏版—涼拌竹筍
+蒜味滴雞精
+　隱藏版—涼拌雞絲
+雞翅奶油燉菜
+韓國馬鈴薯排骨湯
+Part3 一鍋搞定全家胃
+紅燒番茄牛肉麵
+香菇素油飯
+隱藏版—高麗菜麻油雞飯
+鮭魚燉飯
+隱藏版—野菌燉飯
+客家炒板條
+白酒蛤蜊義大利麵
+隱藏版—塔香蛤蜊
+韓式泡菜鮪魚炒飯 
+吻仔魚三色飯
+隱藏版—三角飯糰
+炸醬麵
+隱藏版—炸醬茄子
+花素煎餃&amp;蒸素豆腐餅
+梅干扣肉＋蒸刈包
+Part4 家常料理速搞定
+素滷味大拼盤
+日式蒸蛋&amp;水煮玉米
+乾煎虱目魚
+隱藏版—滷虱目魚肚
+糯米椒小魚豆干
+番茄炒蛋
+隱藏版—滑蛋牛肉
+培根高麗菜
+梅子排骨
+馬鈴薯泥
+黑啤酒燉牛肉
+泰式打拋肉
+隱藏版—豆干肉絲
+涼拌松阪豬沙拉&amp;越南香茅豬肉
+隱藏版—香茅松阪豬肉飯
+Part5 親朋同歡宴客餐
+檸檬椒鹽花枝
+糯米丸子
+金銀蒜蓉粉絲蒸蝦
+隱藏版—樹子蒸鱈魚
+韓國生菜包水煮五花肉
+隱藏版—韓國蔬菜粥
+花生海帶豬腳
+隱藏版—豬腳麵線
+慢燉豬肋排
+印度坦都里烤雞
+隱藏版—薑黃飯
+西班牙鷹嘴豆牛肚
+手扒雞手扒雞佐焗烤彩蔬
+Part6 美味可口下午茶
+紅糖年糕
+花生湯
+隱藏版—牛奶花生湯
+芒果麻糬
+鳳梨小蛋糕
+洛神花茶
+隱藏版—水果花茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">結合現今最流行的飲食趨勢：
+　　『減醣瘦身＋常備料理』
+　　先花2週習慣減醣生活，培養易瘦體質，
+　　有效減低身體對碳水化合物的需求，
+　　用最符合自己身體狀況的方式瘦下來。
+　　體質好，氣色佳，皮膚彈滑有光澤！
+　　想吃就吃，瘦身不用餓肚子！
+　　日本營養師‧減醣達人親身實證的瘦身法
+　　【減醣常備菜的優點】
+　　◆充分利用盤菜計量方法
+　　一半放肉類，一半放蔬菜、海藻與蕈菇類，抓出適合自己的食物份量。
+　　◆善用優質蛋白質與油脂
+　　藉由充分攝取肉、魚與蛋等蛋白質以及油脂，攝取足夠熱量。
+　　◆最省時省力的料理形式
+　　冰箱常備健康減醣菜，材料與調味料一手掌握，想吃就吃，不怕胖。
+　　◆先花兩週測試飲食習慣
+　　瘦下來就在這關鍵14天！只要配合自己的身體狀態，正常吃也不復胖。
+　　◎蔬菜常備菜
+　　不管有多忙都能攝取大量纖維質和維生素。
+　　◎肉類常備菜
+　　大快朵頤卻零醣分，吃飽喝足還能瘦下來。
+　　◎海鮮常備菜
+　　吃下海洋的精華與養分，瘦身兼健身養腦。
+　　◎蛋奶豆腐常備菜
+　　最優質的蛋白質，給身體營養與體力來源。
+　　◎燉煮常備菜
+　　喝湯會胖？！錯！喝對湯，瘦身成功一半！
+　　◎醬料與基底常備菜
+　　富口味變化，讓人忍不住想大快朵頤一番！
+　　◎甜點常備菜
+　　零食也能做成減醣料理？甜點控一定要看。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本知名出版社，主要出版食譜、健康、育兒、室內設計等相關書籍，所製作的生活風格類叢書兼具品質與高實用性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要瘦得健康、瘦得輕鬆、又能同時大啖美食，無須讓家人一起陪著吃嚴格的減肥餐，料理研究家牛尾理惠親身試食的減醣低卡路里菜單，讓她邊吃邊享瘦！半年就減10公斤！
+　　書中介紹的170道主菜、配菜、湯品，從一週菜單到一個月，不論怎麼組合，都能讓醣不超過20克，熱量控制在500 大卡以下的套餐。而且，食用大量蔬菜且能攝取充足肉類、魚類的互搭食譜，不僅能減重，也能維持家人的健康。此外，還有減醣甜點、適合各種酒類（當然是低醣酒類）的下酒菜，讓你即使在減肥，依然能維持平常的飲食方式！
+　　★    170道減醣料理，任意搭配，醣類絕不會超過20克，卡路里也低於500大卡！
+　　★    一週菜單到一個月菜單，簡單輕鬆組合，時時品嘗各種料理製作的料理研究師6個月瘦10公斤。
+　　★    減醣、低卡路里，雙管齊下效果更佳！
+　　降低卡路里攝取和減少醣類是不同的瘦身法，不過醣類和脂質一樣都是不可偏重攝取過多。建議每日進行維持平衡且足夠的飲食生活。
+　　★    每餐簡單選三樣，營養健康又能瘦：
+　　●主菜輕鬆選：三大類主菜任意挑，每餐都有不同風味主食。
+　　●份量充足的配菜：搭配主菜的口味來挑選配菜。
+　　●飽足感滿點的湯品：再加一碗湯，或者，也可以用配菜替換。
+　　★    享受美食，同時還能自然瘦！
+　　只要記清楚食材選擇與烹調法則，就能做出分量十足、又能好好品嚐美味的減醣料理，簡單輕鬆能長久持續，讓瘦成自然。
+　　★    減重成功率高
+　　以碳水化合物為主食的人突然切換成低醣餐點，在剛開始幾天就容易出現效果。容易看到成果，所以能成為持續瘦身的動力。
+　　★    正確食用順序：
+　　食用順序是蔬菜（食物纖維）→ 肉、魚（蛋白質）→ 碳水化合物（醣）
+　　最後吃碳水化合物，可以讓吸收率平穩。
+　　★    成功享瘦3大重點
+　　1．晚上忍耐不吃碳水化合物！早、午也要節制。
+　　2．以肉、魚等蛋白質為主，用大量蔬菜補充食物纖維。
+　　3．仔細確認減醣的食材……注意調味料的醣量！
+本書特色
+　　★    170道減醣料理，任意搭配，醣類絕不會超過20克，卡路里也低於500！享受美食，同時還能自然瘦！
+　　★    一週菜單到一月菜單，簡單輕鬆組合，逐一嘗試各種料理製作的料理研究師6個月瘦10公斤。
+　　★    減重成功率高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅居台北的韓國人，以流利的中文能力，在網路上與大家分享可以在家輕鬆做、簡單容易的韓國料理食譜，她所經營的美食部落格「在台北的韓國餐桌」，至今已累積了逾六百萬的高點閱率，並擔任料理教室的示範講師，堂堂爆滿。
+　　她的食譜中，皆是使用在台灣就能買到的食材，加上清楚詳細的照片和步驟說明，讓大家知道怎麼樣做出真正的韓國味。
+　　藉由部落格和FB粉絲頁，她與網友們熱烈互動，了解到大家在做韓國菜時，常常會碰到的各種問題，或是容易出錯的部分，因此知道能如何從韓國人的角度、以明白易懂的方式親自為大家說明解答，並寫出本書，讓人人都能享受、擁有不會失敗的豐富美味餐桌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在超市時，你是否曾經對著一罐罐異國調味料心生嚮往卻又不知道該如何運用呢？或者是買了韓國調味料卻每次都只會作同樣一道料理呢？點閱數超越六百萬的超人氣部落格「在台北的韓國餐桌」，這次更加深入每日的料理，讓你在每天忙碌的生活中也能輕鬆享用各種韓式美味。
+　　本書以各種醬料來分類，從韓國辣椒醬、大醬、包飯醬、辣椒粉、芝麻油、泡菜，甚至是不用韓式醬料就能完成的各種常備菜及甜點，都能輕鬆料理，時常美味享用。
+　　菜色更是高達100道！從豐盛主菜，濃郁熱湯到清爽小菜，種類豐富，應有盡有，無論是想要好好犒賞自己與家人們，或是清爽無負擔又能滿足身心的美味小菜，都能在隨手翻閱書頁中，找到你心目中的理想天菜。
+　　書中更不僅只有一道道美味方便的常備菜，更配合不同情境準備了豐富的料理集，照著作就能輕鬆用常備菜來帶便當、宴客、出門露營。一本書就帶你做出一道道不可錯過的韓國家常好味道。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓國知名蛋糕工作室Ollicake經營者、資深擠花蛋糕老師。製作的擠花蛋糕因獨特優雅的唯美風格，而被譽為「仙女吃的蛋糕」。I
+　　視覺設計系畢業，曾擔任網頁設計師八年，過去曾向日本廚師與那國進（Susumu Yonaguni）以及其妻吳靜美（오정미）學習料理烹飪、食物造型。　　
+　　因緣際會下，接觸到擠花蛋糕，自此之後便著迷於鑽研擠花手藝，無法自拔，一腳踏進擠花蛋糕領域後。二○○八年，決定和已有十五年攝影資歷的丈夫鄭世權（同時也是本書攝影師），共同創立蛋糕工作室，並且定期開設擠花課程，將自己多年來的擠花技術與相關技巧傳授給學生。
+　　每每想到擠花蛋糕，就會感到無比幸福。不論是擠花技術或裝飾美感，都深受國內外人士的推崇與喜愛，說是開拓韓式擠花蛋糕領域的先驅也不為過。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instagram十萬追蹤者口碑瘋傳、韓國頂尖工作室「Ollicake」名師親授
+第一本全面解析擠花裝飾訣竅的重量級教科書
+出版至今盤據韓國教保文庫、yes24、Aladin網路書店暢銷榜Top10逾20週
+= 讀者盛讚「仙女吃的蛋糕」、「愛好者都該收藏的學習指南」=
+★ 40款花型、40種組合設計，從入門基礎到專業技巧，讓初學者立即上手，進階者完美應用
+★ 獨創系統化學習，歸納3大基本花卉型態，輕鬆掌握花朵構造；4大裝飾組合原型，延伸多樣設計表現 
+★ 具挑戰性的難易度分級，附完整步驟，超過700張詳盡圖解
+★ 明瞭易懂的重點提示，深入解說調色比例、配色概念
+﹊﹊﹊﹊﹊﹊﹊﹊﹊
+So cute手作 林芷伊 老師｜貓罐罐不要停擠花蛋糕工作室 張芷翎 老師｜莉莎甜點手作教室 莉莎 老師 ｜ paipai sweets烘焙藝術坊Jasmine老師　驚艷推薦
+﹊﹊﹊﹊﹊﹊﹊﹊﹊
+在蛋糕表面以擠花進行裝飾的技術，不僅是一道手工，更可說是一門藝術。
+所謂的「韓式擠花」，是韓國的烘焙愛好者以經典惠爾通（Wilton）擠花為基礎，精進昇華而成的細膩技法。立體擬真的花瓣花型，融入獨特的韓式色彩搭配概念與造型創意，在近年一躍成為風靡烘焙界的強勢韓流，學習熱潮席捲全亞洲，甚至在歐美引起關注。
+作者宋慧賢秉持著對擠花的熱愛，十年來持續鑽研擠花手藝，並與從事攝影工作的丈夫鄭世權（同時也是本書攝影者）共同經營蛋糕工作室「Ollicake」為顧客製作擠花蛋糕，以優雅清新的設計獨樹一幟。而以工作室名稱開設的Instagram帳號（https://www.instagram.com/ollicake），更在短時間內累積近十萬追蹤者，在眾多粉絲的期待矚目下，遂開課教授擠花技法。除了韓國國內的愛好者，更有許多從亞洲各地前往學習朝聖的學生，至今仍持續不斷開課中。
+　　在書中 ——
+◆ 深入解析擠花蛋糕裝飾時須掌握的順序和訣竅，將奶油霜和擠花蛋糕學習者應了解的所有知識逐一說明。
+◆ 多達四十餘種的花朵構造，以三大基本型態歸類，使讀者更快速熟悉花卉特徵，隨即能運用相似的原則，順利製作出各式各樣的花朵。
+　　◆ 配合花朵大小、配色原理，將複雜的裝飾組合法以四大基本型呈現，延伸示範四十種設計，並依製作難易度的不同，將成品分為三階段，更有利於系統化學習。
+　　全書集結作者多年經驗結晶，以極細膩的擠花工法與花藝設計功力，讓花朵生動地在蛋糕上盛開。同時，設計擠花蛋糕時，除了專注於展現設計感，作者認為，如何表現出更栩栩如生的花束或花環，是更需要思考和把握要領的環節。如此一來，就能創作出洋溢著幸福感的蛋糕，為製作者和觀賞者都帶來更美好的時光。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很愛吃吐司，但是卻擔心市面販售的吐司有化學添加物？
+　　想要品嚐更多吐司口味卻不知該如何掌握烘焙技巧？
+　　每次烘焙吐司都失敗，是哪個步驟出問題？
+　　吐司可能是一天的開場，以早餐的形式呈現給家人；可能是休息的間奏，以午餐的形式填飽機餓的腸胃；可能是結束的終場，以消夜的形式溫暖疲憊的身心。書中收錄42道吐司食譜，紅豆杏仁捲吐司、野生藍莓吐司、小浴缸吐司、超起司藍紋吐司和咖啡核果吐司……等，吳克己師傅打破你對吐司的既定印象，拋開無趣的白吐司、拒絕添加人工香料的調味吐司，或是偷工減料的全麥吐司，將吐司技法大公開，配方比例、桿捲手法與烘烤時間等，在家就能做出專業等級精緻吐司，帶你遠離食安風暴，迎向安心美味。
+本書特色
+　　1.麵包職人吳克己遠赴日、法習得烘焙技巧，書中大公開！
+　　2.第一本以吐司為主的烘焙書，共42道吐司食譜，麵包店超人氣吐司製作方法一次收錄。
+　　3.近700張步驟圖，一個步驟一張圖，參考專業師傅麵團整型手法、烘焙細節和，跟著做就能掌握成功率！
+　　4.製作吐司所需器具、各式麵粉等詳細介紹，提升吐司質感的祕法就在這哩！
+　　5.提供精準配方與烘焙百分比，解決新手難以掌握的材料比例問題。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國立高雄餐旅烘焙管理系畢業，曾任年營業額4千萬的知名烘焙坊總監。現任昂舒巴黎烘焙坊執行長、統一企業生技中心專案經理、國立高雄餐旅大學講師。
+　　對麵包製作的投入程度可以「一生懸命」來形容的克己老師，希望每一位對烘焙有興趣的讀者都能從這本書中啟發出自己的麵包魂。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車勝元10分鐘白菜泡菜、燉雞湯飯、辣炒年糕、海鮮煎餅、石鍋拌飯、蘿蔔泡菜、辣燉雞、韓式炸雞、韓式烤五花肉……讓你家餐桌，韓味十足！
+　　✽韓劇、韓綜當中，有些料理讓人看了實在很想嚐嚐……
+　　這時候，想不想要自己挑戰試做看看？
+　　✽常常想吃韓國料理，但又不能老是跑餐廳花大錢……
+　　這時候，想不想要自己在家動手做？
+　　✽去韓國玩了一趟回來，好多美食懷念不已……
+　　這時候，想不想要在家重現旅行的回憶？
+　　作者以個人的成長背景及經驗，在本書中，精選收錄了59道韓國人餐桌上最常見的日常料理。除了大家熟悉的菜色，也有像是糖餅、韓式炸雞、起司排骨、餐廳蒸雞蛋等令人垂涎的小吃或餐廳美食，一本書就帶你做出一道道不可錯過的韓國在地好味道。
+　　書中的每道菜，都有詳細清楚的步驟說明，以及料理小技巧，即使是新手也都能輕鬆地跟著學習和製作。
+　　內容以四季來安排，讓你一整年都能夠盡情享受下廚的趣味；而大量運用了健康自然的豐富食材，更讓你在不同的季節裡，都享用得到對身體最好的美味搭配。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010773884</t>
+  </si>
+  <si>
+    <t>正港台妹前西希嫁做日本人妻後，為排解人在台灣的日本先生思鄉之情，開始鑽研老公家鄉味，期望能完美復刻出和風好料。她的料理取用台灣方便取得的食材與調味品，不需置身日本也學得會，打造出既和風又家常的各式好味道。
+　　晉升人母後，有感於媽媽們總是手忙腳亂、時間短暫，還特別蒐羅或創造各式「縮時」煮食法，不僅讓家人吃飽吃滿，更讓煮婦煮夫們都感到輕鬆、省時、省荷包！甚至研究各種安心食材的自製法，讓全家吃出美味又不傷身。
+　　除了食譜方便好用，也順帶告訴你一些身為日本人妻的有趣小故事以及和風料理的精神喔。
+　　※來學學這些好味道！
+　　◎居酒屋人氣料理，在家小酌配菜超療癒！
+　　唐揚雞、炸豬排、比目魚握壽司……
+　　各種人氣料理其實不難做，
+　　家中餐廳也可以化身居酒屋。
+　　◎電子鍋超便利料理，上菜不煩，一鍵到底美味上桌！
+　　番茄奶油燉牛肉、馬鈴薯燉肉、海南雞飯……
+　　耗時費工的工夫菜，
+　　善用電子鍋也可以輕鬆完成，
+　　不用在瓦斯爐前攪到手痠、站到腳痠。
+　　◎超美味家庭料理，一家吃飽吃好真放心！
+　　蛋沙拉三明治、香草嫩煎雞肉、和風冷麵……
+　　各式好吃易學的家常美味，
+　　還有不浪費食物的料理大變身法，
+　　不只吃飽飽也省荷包。
+　　◎幸福手作好滋味， 安心食材自己也hen會！
+　　自製味噌、鹽麴、納豆、叉燒肉……
+　　食材製作自己來，
+　　無添加、簡便步驟，
+　　大人小孩吃了都安心。
+　　◎滿足味蕾創意小料理，獨門食材搭配激出美味小火花！
+　　剩飯仙貝、豆腐甜甜圈、坦督里風味烤雞……
+　　意想不到的食材搭配，
+　　竟能迸發出獨特美味，
+　　一起來試試小希的創意無限料理！
+　　◎特別想學：各種廚房小撇步，料理成就感滿分！
+　　傳承自日本婆婆的廚房智慧，
+　　加上許多主婦經驗分享的實用小技巧，
+　　是煮夫煮婦都該學會的省時祕技。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前西 希（Nozomi M. ）
+　　正港南台灣人。嫁給日本人後成為日本人妻。儘管從小愛做菜，料理似乎不算難事，但為了讓派駐在台灣工作的先生思鄉病不要太重，花了許多時間學習煮出道地日本味。
+　　喜歡與大家分享成為日本主婦後學到的實用生活小妙招和日本流行事物。 育有一子二貓。
+　　目前除專職人妻人母外，也不定期為《愛料理生活誌》與《Japaholic》以及《All About Japan日本旅遊大小事》網站撰寫美食料理生活專欄。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前西 希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現任
+　　․「禾沐生活學院」創意總監
+　　․「Qo'eat蔻食手創立體造型饅頭」主廚
+　　․「立體造型饅頭」專業講師
+　　經歷
+　　香港、澳門、上海、越南、新加坡、馬來西亞 海外巡迴授課 
+　　台灣、中國、香港、澳門、韓國、越南、新加坡、馬來西亞、奧地利、南非、美國、澳洲 全球粉絲瘋狂追課 
+　　2017台北國際烘焙展 現場示範 
+　　TVBS新聞台 節目專訪
+　　兩岸電視 節目專訪
+　　三立新聞台《文創Life》節目專訪 
+　　東森新聞台《海峽拼經濟》節目專訪 
+　　美味生活 HowLiving 《大師來上菜》節目直播 
+　　中國時報、自由時報、旺報、民視新聞、東森新聞、壹電視、TVBS 採訪報導 
+　　廣播金鐘主持人獎林利專訪
+　　《世界上最有力量的是夢想9：不妥協的創業人生》出版日期：2017/09 收錄採訪創業歷程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全程無添加，純手工也能做出美味又有彈性的饅頭包子！
+　　天然蔬果製作配方，健康滿分，美味滿點！
+　　不需繁複工具，高深技巧，也能讓人驚艷。
+　　詳細步驟照片，加註重點說明，一目了然，各種造型技巧都能上手！
+　　失敗交給別人，成功我來就好！美姬老師小饅頭問診信箱！讓人茅塞頓開！
+　　在一窩蜂追求華麗西式甜點與麵包的時候，有人默默的在為傳統中式麵點努力著，為了讓孩子可以喜歡中式的饅頭包子，為了讓孩子吃下不喜歡吃的蔬果，於是美姬老師發揮了媽媽的本能，創作出令人驚艷的造型饅頭，讓這個逐漸被大家遺忘的饅頭與包子，逐漸展露頭角，有了全新的生命。
+　　本書從最基礎的饅頭技巧開始，先培養能做出光滑外表，細緻口感的饅頭主體技巧後，再從基礎造型、創意造型而至最後的高階3D造型，以循序漸進方式，帶領讀者入門，而至讓人能隨心所欲的做出完美外型又討喜的各色包子饅頭。
+　　基礎饅頭單元，除了介紹五種基本材料的特性與詳盡的揉製麵糰的技巧之外，更加入了使用天然蔬果的技巧，運用這樣的方式，就可以做出許多天然顏色的麵皮，讓造型饅頭除了擁有豐富的色彩變化之外，也能讓成品帶有淡淡的蔬果香氣。
+　　接著，運用基礎技巧，做點變化，衍伸出簡單的基礎造型，並且在每個步驟旁都細心提點訣竅重點，讓饅頭包子畫龍點睛的呈現美妙姿態，初學者可以從此處獲得巨大的成就感與信心。
+　　基礎工扎實的建立後，就可以開始按步就般的跟著書中的創意單元，練就各種造型功夫，運用這些技巧，開始玩出屬於自己的造型饅頭！
+　　在信手拈來都是完美之後，是否有更有趣的挑戰呢？當然沒問題！最後呈現給大家的是藝術品等級的高階3D立體造型饅頭教學，如何在有限的時間（因為麵糰會一直發酵長大）內完程繁複功絮的3D立體造型饅頭，絕對讓人大呼過癮。
+　　最後，成功必須從失敗開始，作者匯整自己多年教學經驗，以Q&amp;A方式提供參考，讓失敗變成別人的教訓，自己直接踏上成功之路就好。   
+本書特色
+　　★從基礎饅頭技巧開始，再循序漸進學習各種造型技巧。
+　　★使用純天然蔬果製作，顏色天然又增添風味。
+　　★6種自製內餡，當紅飯店流沙內餡也包含在內。
+　　★技巧深入淺出，新手老手，都能上手！
+　　★書末美姬老師小饅頭問診信箱，失敗毋須在我，第一次嘗試，就能成功！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為什麼做出來的蛋糕每次都東倒西歪、奇形怪狀，和原先預想的狀態總是不一樣？當下或許會安慰自己「管他的，又不是要擺在店裡賣的」、「只要好吃就沒關係了吧」，但是心頭的小小疙瘩還是揮之不去。
+　　有辦法做到更好，為什麼不去嘗試？
+　　如果遇到要將手工蛋糕作為禮物贈送他人的場合又該當如何呢？漂亮的外觀絕對會大大地加分吧！
+　　要將蛋糕基底完美堆疊的方法其實很簡單，但是多數製作甜點的中級愛好者養成自己的習慣後，經常會忽略。魔鬼就隱藏在細節之中！只要在製作過程中把握住訣竅、細心留意，就能完成足以媲美蛋糕店的手工成品。
+　　【組裝蛋糕的訣竅】
+　　訣竅1：填滿模具的角落
+　　製作偏硬的慕斯或巴伐利亞奶凍時，小心不要讓食材出現氣泡，使用湯匙背面確實將慕斯塗滿模具。若邊緣與角落都能確實塗滿，就能打造出符合模具造型的外觀。
+　　訣竅2：確實舖滿海綿蛋糕
+　　需要在模具側面舖上海綿蛋糕時，若蛋糕與模型之間出現空隙或蛋糕舖得太鬆，就會導致失敗。因此，務必確實測量模具的尺寸，再依照尺寸裁切海綿蛋糕。裁切的訣竅在於尺寸需比模具稍大，才能完整舖滿側面。
+　　訣竅3：仔細脫模
+　　就算入模很完美，一旦脫模失敗就會前功盡棄。請參照第20頁的作法，仔細進行脫模。不過根據蛋糕款式不同，脫模的方法可能和平常不一樣，請務必確認各食譜之指示再進行操作。
+　　本書重點
+　　★ 基底是否層次分明、平整紮實，將會大大影響蛋糕整體的美感
+　　★ 製作基底時，細心地製作、把關每一道工序，是提高成功率的重點
+　　★ 平常不會在意的技巧、經常忽略的動作，本書為您一一解說
+　　★ 兼具口感與美觀性，讓蛋糕的價值大幅提升。達人的技巧，帶來味覺與視覺的高級饗宴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自青山學院大學畢業後，於葉山的「聖路易島」、橫濱的「Region」、世田谷區的「Le Patissier Takagi（高木康政甜點店）」等歐式甜點店修行9年。2002年開始經營位於神奈川縣中央林間地區的甜點教室「Craive sweets kitchen」。2011年在文京區的千石開辦「Atelier LeKADO」之課程。兩者皆為小班制教學，課程採實習與示範的教學形式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010699493</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　Mojito 承載一段黑暗的歷史？
+　　Margarita的由來在七十間店有七十種說法？
+　　Daiquiri和香蕉反應世代淘金潮？
+　　調酒從來不在吧檯，而在世界。
+　　調酒這門飲嚥藝術雖然只有一百年不到的歷史，但每一杯調酒都各自有它獨特的故事。一名好的調酒師，除了會調和酸甜、會品選廠牌，還要在求真求全的前提下，徹底理解調酒典故裡的意義與時代背景，然後尋思在調製的過程中，是否還有可以改進或修正的目標：哪些材料是可以替換更動的，哪些不行，在這一取一捨之間，斤斤計較，則美感渾然自成，不假矯飾。
+　　作者侯力元Dior，大學念的是中文系，從研究東西方神話的歷程中，逐步開拓出對酒文化的認知，進而成為專業調酒師，並立志發揚調酒與品飲文化。這本調酒散文，既寫酒、也寫酒客、又寫自己成為調酒師的心路歷程，以及酒客與調酒師之間，從陌生到熟悉若有似無的關係。未婚懷孕的媽媽來借酒澆愁；出外打拼卻失意落魄的男人，靠著酒精提振了返鄉安老的勇氣；不成熟的徬徨學子，憑藉著一杯星點閃爍的酒尋著夢……。
+　　侯力元說，調酒師是面相師、牧師，也如古代社會中洞悉眾事、控制眾人狂歡節奏的巫師。酒客要喝多少酒，並非任憑己意，應該由調酒師來制約限縮，以維持一個美好的夜晚為首務。從酒架上拿取一瓶酒，這麼簡單的一個動作裡，蘊含了一個調酒師對酒文化的總體認知、味覺催眠術法的熟捻、酒客需求的觀察與掌握……看似信手搖來，但實非隨意，更多了精準的美學、智識及同理心。而在那之後，才能去談如何藉由各種調酒來引導酒客敞開心懷玩樂、訴苦、解放身心，把夜，實實在在地過成一種有態度的生活。
+　　◆聖誕節狂歡版：
+　　32篇散文+32款Dior自創調酒酒譜，在家就能調出好喝雞尾酒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1987年生於高雄市，高中開始打爵士鼓，就讀世新大學中國文學系時，發表論文研究閃靈樂團的神話思維，對流行音樂與文化有深刻的見解。因為論文研究之需，頻繁出入幾間老字號的搖滾酒吧，漸漸地對調酒產生興趣。陰錯陽差應徵了酒吧的外場工作人員，又被逼得以兩個禮拜的速度，迅速成為吧檯擔任調酒師助理，從此踏上了立志成為調酒師，亦不忘發揚調酒與品飲文化的傳道者，宛如羅馬時代晃蕩在草原上的巴克斯們之一員。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對我來說，果醬是個人的創作，一本書、一場電影、一段旅行都是觸發，讓我迫不及待將這些想法熬為甜甜的果味放進瓶中與人分享。為了製作果醬，挑選水果，我重新踏在土地上，跟著節氣過生活，感受陽光風雨的更迭轉變，更加打從心底感謝農人的辛勤付出，讓島上四季都有豐饒物產。「好果醬，讓生活發光！」因為熱情，我走到這裡，發出溫暖的光，並持續往前邁進。－－柯亞
+　　這是一場最華麗的舌尖旅行。作者柯亞不只煮果醬，也研究甜點，她選擇有機無毒的食材，每開發一種新口味都從最源頭的食材開始研究，了解食材與在地文化，並重新認識食材的選擇與搭配。讓果醬不只是早餐時塗抹麵包的配角，而是能延伸做成沙拉、飲品、甜點，甚至藝術品的豐美點綴。柯亞將用天馬行空的創意、無比敏銳的味覺和靈巧精緻的手藝，帶領大家進入果醬世界！
+　　一、50款最in風味果醬：堅持使用在地農產品製作果醬，不辭辛苦跑遍台灣大小農園尋找，只為了使用無毒或有機食材熬出最原始且純粹的一抹果醬。自己做果醬，用新鮮水果，用健康食材，不用化學原料，沒有人工色素，一切天然無毒，吃得安心，多好；自己做果醬，步驟簡單，即便是新手也能作出令人驚艷的好味道，成就感十足。    
+　　二、30種幸福好食光美味提案：介紹30種與果醬最速配的方法，讓大家開心玩果醬。除了搭配吐司、餅乾、抹司康，還可以淋奶酪、做沙拉、泡茶、煮咖哩，或做成冰棒都沒問題，千變萬化的玩法，您一定要試看看。
+　　三、零失敗宣言：如何選材料，如何選工具，才能不失敗！製作果醬的三元素、如何保存美味果醬、製作果醬的成功必備鐵則，本書通通告訴您！
+本書特色
+　　◎七種風味分類，漿果類果醬7款＋低果膠果醬7款＋柑橘類果醬7款＋花香調果醬7款＋茶香調果醬7款＋酒香調果醬7款＋香料調果醬8款＝由淺入深、循序漸進，果醬愛好者的第一選擇
+　　◎1200張照片＋每款果醬step by step完整圖解＋做法詳盡，毫無保留＝告訴您如何細火慢熬，煉出一瓶瓶引以為傲的美味果醬
+　　「我保證毫無保留將所有心得與大家分享！絕不留一手。果醬不是千篇一律的切完熬煮，而是經過如此繁複的處理過程才能成就好吃的果醬！－－柯亞」
+　　堅持使用台灣在地的純天然無毒有機水果製作，擁有頂級果醬做法，以果醬難易及風味分門別類， 1200張照片step by step完全圖解，讓您一年四季都可嘗到自製美味的健康果醬。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靈魂裡揉合雙魚座的浪漫、台灣傳統家庭長女的海派、南北城鎮衝擊後的獨特美學。
+　　中文系文藝創作組畢業的柯亞，因為突發的罕見疾病和偶然的療癒過程，意外地全然投入手工果醬的研製，並成為了返鄉創業青年，創立了「好食光 生活廚房」。
+　　她濃縮台灣風土結成的果實，以無人工添加物、手工精製的純粹，讓視覺、嗅覺與味覺重新體驗「好吃」，也嘗試將人文精神與生活靈感融入手工果醬與其延伸出的甜點，分享「好食材、好信念、簡單烹調，一起擁有美味好食光」的初衷，期盼以廚房為基地的強大療癒力、食物撫慰人心的魔力、飲食生活品味的影響力能如漣漪般擴大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓劇發燒！韓食旋風來襲〜韓式烤肉、炸雞、煎餅、泡菜鍋……
+　　不用在外面大排長龍，在家自己作，小菜無限續！
+　　韓國媽媽每天端上桌的家常菜，就是這一味！
+　　2013年出版至今，銷售高達13萬冊！
+　　長期盤據食譜排行榜，維持在TOP10以內。
+　　學一道基礎料理，就能延伸百百款變化，超簡單！
+　　100位料理新手試做掛保證，照著做你也能大成功！　
+　　新嫁娘&amp;料理初學者，必備！
+本書特色
+　　&lt;特色1&gt; 精心嚴選，貼心提點：
+　　專為料理新手量身打造的食譜專書！挑選100名初學者，共同精心嚴選的菜色。下廚時最容易失誤的地方，每道料理詳載防範失誤的小撇步。
+　　&lt;特色2&gt; 內容完美，無需增減：
+　　經過數次實際試做，正確標示材料分量、火候大小與烹調時間，讓初次下廚的料理新手跟著做就一定成功。
+　　&lt;特色3&gt; 超過360道多樣變化：
+　　基本菜色加上延伸菜色，完整收錄360餘道佳餚食譜！提供多樣的調味選項，無論是醬油味、麻辣味還是味噌風味，用來涼拌、燉煮還是煎炒，都可以隨喜好自由變化。
+　　&lt;特色4&gt; 圖解超詳細，新手也通：
+　　最讓料理新手們摸不著頭緒的食材處理法，也以詳細照片圖示說明，並介紹各式能夠舉一反三的基本料理。從食材挑選要領，到剩餘食材的保存方法，所有料理新手們想知道的訣竅，通通一網打盡！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一本專為料理初學者所設計的韓國料理雜誌，以「料理成敗取決於食譜好壞，而非廚藝本身」、「料理初學者照著做也一定會成功」等精神為目標，每道食譜並經過內部所屬的試作小組們（負責研發、企劃、驗證食譜的專門料理研究員），幾番的研究試做，歷經千辛萬苦才誕生。而本書正是沿襲《Super Recipe》的製作精神，企劃出一本全是基本菜色的料理食譜書。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★史上第一本！手作天然蔬果乾好簡單
+　　台灣一年四季盛產美味蔬果，但因氣候較潮濕而不易保存，用來製作蔬果乾，不需額外調味，就能將水果、蔬菜自然的甜份被濃縮起來。以鳳梨來說，烘乾之後，不僅保留原有的纖維質，果香也完整被封存在一片片的果乾裡，甜味更加突顯，還能保有原本的金黃色素。如此一來，即可延長水果壽命，也不會浪費食物。
+　　★食安問題多，自己做才安心
+　　為家人、小孩做蔬果乾，可以選用無毒或有機的健康的四季食材，隨時可補充纖維質、維生素，不失為兼顧營養與美味的好方法喔！
+　　★無添加防腐劑的健康零食
+　　坊間的零食為了看起來美味、保存長久，大部分都添加了防腐劑、色素、調味劑，所以香味濃烈，但加工食物吃多了，身體容易累積毒素，味覺也變得遲頓。乾燥果乾是將水果一片一片切好之後，直接用低溫烘焙的方式，不添加化學製品或過多的糖來調味，讓家人吃得美味又安心。
+　　★    蔬果乾料理多變化，下廚好幫手
+　　烘焙方式保存的蔬果，可幫你的料理加分，比如：新鮮香菇、洋菇、山藥，可趁盛產季時多買一些來烘乾，保存期可長達數月，平常煮雞湯或排骨湯時就能增添風味，美味而且便利。甚至是家中常常用不完的辛香料，像是辣椒、薑、蒜頭…，烘乾之後，隨時做為調味料提味，是下廚時的好幫手！
+　　★優雅、迷人的時尚零食
+　　果乾料理也是目前最時尚的零食，充滿創意和美觀，每一種都能擄獲愛甜點人的心，當作零食不但健康不發胖，對於年輕OL來說，健康的果乾加上茶飲就能當悠閒的午茶，還是一種時尚的追求。　　
+　　★旅遊、露營、登山時方便攜帶
+　　蔬果乾攜帶方便，重量又輕、保存較久，非常適合旅遊的人，尤其是登山或露營，烘乾好的水果乾可直接補充纖維質之外，蔬菜乾則適合加入湯品中，不用特意攜帶新鮮的蔬菜，即能吃到新鮮濃縮的食物精華。
+　　★肉乾、魚乾，是寵愛毛小孩的低敏健康食物
+　　無調味的自製肉乾和魚乾，最適合家裡最可愛的毛小孩們，不用擔心添加物和卡路里。為了家中毛小孩的健康，花一個晚上，將南瓜泥和雞肉泥混合，烘乾之後，就是毛小孩最營養的零食，適時的補充蛋白質和維生素，讓他們吃得安心又吃的健康。
+　　自己手作果乾、蔬菜乾、肉乾，美味又安心
+　　這本書的概念是以時尚零食和食譜為出發，根據自己的口味自己健康的休閒零食，家人從老到幼，爸爸下班後拿罐冰涼啤酒，搭配果乾、蔬菜乾、肉乾，就是很好的下酒菜；小朋友討著吃零食的時候，就拿健康甜的果乾當點心吃；媽媽下班後急忙要做菜，用蔬菜乾、果乾、肉乾就可以能搭配新鮮蔬菜一起做成美味的佳餚，連家裡最可愛的毛小孩們也都可以吃，不用擔心添加物和卡路里。
+　　開Party、生日慶祝或是朋友聚餐，都可以做成開胃小菜或是主菜，美麗的色澤和香氣，讓人食指大動。
+　　不管是當零嘴還是正餐，喜歡甜的還是微微的鹹，還有對於健康營養特別講究的人，可以擁有這樣的生活方式和品味。
+　　自製烘焙蔬果乾的優點
+　　★無防腐劑
+　　★無香料
+　　★無人工色素
+　　★無漂白劑
+　　★無糖精
+　　★原汁原味營養不流失
+　　★自己做最安心
+　　★可選用有機水果
+　　★當零食，吃的營養又健康
+　　★外出旅遊時，方便攜帶，隨時補充纖維質</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左手轉生活、右手護健康，美好生活編輯室是一個專業出版又熱愛生活的團隊，專職各類出版書籍，不管是生活工作書、健康養生知識、瘦身美容或是美味料理….等，都致力蒐集並用心呈現，期待讓大家的生活都能一日一日更好、更健康。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一本由國人自製的韓式裱花書，深受韓國裱花大師Kim的認可，全書超過 500 張清晰裱花步驟圖、40 支完整裱花影片，以及作者不藏私的完美配色秘訣、調色方法大公開，是裱花新手入門的最佳工具書，也是裱花好手教學的最棒參考書。
+　　全書分為五大部分：
+　　Part1精彩的韓式裱花Q&amp;A20
+　　想知道韓國花嘴和惠爾通花嘴的差別？想明白透亮奶油霜怎麼打出來？裱花袋、裱花剪、百合花釘怎麼用？想了解韓國米糕、希拉姆蛋糕的做法，甚至是配色、調色等，都在這個單元為你解密。
+　　Part2韓式裱花─奶油霜作品
+　　一朵朵美麗的奶油霜花，是韓式裱花最令人心動的色澤。那栩栩如生的作品，直教人分不清誰真誰假！
+　　從奶油霜開始，一步一步進入韓式裱花的透亮世界吧！
+　　Part3韓式裱花─多肉盆栽
+　　超可愛、超療鬱的多肉作品，讓你一見就完全離不開。容易上手又超級吸睛，是現在最火紅的韓式裱花作品。
+　　Part4韓式裱花─豆沙霜作品
+　　以健康訴求為出發點的豆沙裱花，提升了韓式裱花的另個境界！它獨特的質感與色澤，讓更多裱花者趨之若鶩。
+　　Part5為平凡的蛋糕裱畫出最美的裝飾
+　　教你如何在6吋蛋糕及杯子蛋糕上，裝飾上最迷人的韓式裱花。
+　　附錄：裱花難易度一覽表
+　　想開始學韓式裱花不知從何開始？透過這個列表，可以知道哪個花最容易做？哪朵花的花語是什麼？哪朵花最有挑戰性！
+　　現在！開始一起來裱花吧！
+本書特色
+　　☑40 種必會的韓式裱花手法＋ 40 支完整的裱花影片。
+　　韓式裱花最常見的40種花朵，本書全部教給你！還附上作者親錄的40支裱花影片，一看再看，看到學會為止。
+　　☑韓國米糕、希拉姆蛋糕製作方式，呈現最原汁原味的韓式裱花蛋糕。
+　　想要做出最道地的韓國米糕及希拉姆蛋糕，書中有詳細的製作方式，讓你的韓式裱花作品更加原汁原味。
+　　☑製作透亮奶油霜的秘笈，讓你的裱花硬是比別人漂亮。
+　　想要裱出美麗的韓式裱花，打出透亮奶油霜是基本工。作者詳細解說打奶油霜的秘訣及小技巧，你也可以成功的將奶油霜打出透亮的光澤感。
+　　☑完整的配色秘訣、完美的調色技巧，教你做出超擬真花朵。
+　　裱花學員最困擾的配色問題及調色方法，作者毫不藏私明白告訴你！跟著作者的秘訣與技巧，你也能配出最美麗的顏色。
+　　☑6 吋蛋糕、杯子蛋糕裝飾法，送禮高雅又大方。
+　　想要知道如何在6吋蛋糕或杯子蛋糕，利用韓式裱花裝飾？你千萬不能錯過這個單元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一個對於甜點裝飾與創作充滿熱情的前金融界業務，堅信只要努力付出就會有應得的收穫。
+　　在裱花創作的學習路上一路奮鬥，為學習最道地的韓式裱花，不惜多次前往韓國進修，學習奶油霜及豆沙裱花的製作技巧。
+　　為了讓韓式裱花在國內能夠讓更多人學習，經過不斷的練習與嘗試，終於為對韓式裱花有興趣的學員找到適合的替代原料以及製作流程，也開始能創造出獨具自我風格的裱花作品，賦予裱花創作新的生命力。
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Youtube超人氣料理頻道女主人Vivian，
+　　融合各家料理絕活，懷著為家人製作健康美食的初心，
+　　不藏私分享簡單易上手的料理方法。
+　　懷著為家人親手製作健康料理的初心，
+　　如同名家手把手教學，如實傳遞輕鬆優雅的主食秘訣！
+　　★超安心：全手作好食在！是食品也是食材
+　　★超美味：各種時刻好菜難不倒！家常或宴客料理
+　　★超方便：一道料理吃飽還吃巧！多樣化主食
+　　★超窩心：充滿媽媽愛的名點！自製鹹甜點心
+本書特色
+　　‧每道食譜歷經多次試作實驗才整理上線。只要照著做，做出美味料理，也做出成就感！
+　　‧純天然手作食材，通通自己來。
+　　‧復刻名店美味好食，在家安心吃。
+　　‧食材進化夢幻料理，從家常菜、宴客菜到點心，滿足家人想吃的各種口味。
+　　‧每道食譜搭配影音QR code，如同名師手把手教學。
+　　‧廚房好物與省力小撇步分享給大家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡江大學保險系畢業。在學期間曾入選中國古典美女，畢業後因任職新加坡航空空服員而常駐新加坡。由於工作關係遊歷世界各地，吃遍各國美食，最大願望就是把生活中的一切幸福與美好，透過無遠弗屆的網路與全世界的朋友們分享。
+　　無師自通學會攝影、燈光、影片剪輯、後製配音、配樂，並將影片上傳Youtube「夢幻廚房在我家」頻道與Facebook粉絲團，目前為全球華人影音食譜教學產量最多之創作者，全球累積觀看次數超過3000萬次。2015年曾為美國最大美食聯播網Tastemade亞洲VIP合作夥伴，2016年榮獲Youtube十萬訂閱戶獎項（100,000 Subscribers Award）。目前Youtube訂閱戶超過20萬，Facebook粉絲超過30萬，粉絲們來自世界各地，包括美國、歐洲、加拿大、中國大陸、新加坡、馬來西亞、澳洲……等。下一個目標為全球百萬訂閱戶。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繼人氣暢銷書《職人手感吐司》後，
+　　吳克己再度提出30天的日常提案，
+　　《小家庭麵包》陪你度過幸福時光！
+　　每一天的早晨，用麵包香氣將家人喚醒，看著他們咬一口熱騰騰麵包的幸福模樣，這絕不會只是美好幻想！麵包職人吳克己提出了30天的幸福提案，讓每個家庭都能做出專屬自己家的小麵包。
+　　吳克己不僅有麵包職人的身分，在家更是兩個可愛女兒的好爸爸，對於家人他永遠給予最好的。開設「安德尼斯烘焙坊」，便是希望可以讓更多人能吃到美味而安心的麵包，而這本書目的是想為每個小家庭提出在家輕鬆做麵包的可能，因為明白手作的溫度和情感，才是家人最需要的！
+　　‧最受歡迎的小麵包，作法簡單且材料易得。
+　　精心挑選30款日常麵包，從日式麵包、法式麵包、台式麵包到可頌、貝果和吐司等，甚至還有超人氣的比利時鬆餅。不僅作法簡單，材料也容易取得，一天一道麵包，連續一個月就能完全掌握麵包的烘焙技巧！
+　　‧以麵團做分類，有節奏的練習烘焙技巧。
+　　細心分類9種麵團作法，學會之後，選擇喜歡的小麵包，便能輕易變化數種不同口味，絕對能滿足全家大小的味蕾！想要做多份量麵包的話，也有烘焙百分比可以迅速作換算。
+　　‧步驟圖清楚明瞭，作法說明簡單易懂。
+　　每張步驟圖都是以第一人稱角度拍攝，不擔心看不懂製作的手法。在作法說明上，將每個環節清楚劃分，隨時都知道你目前進行到哪個步驟；同時也有貼心的Tips，提醒新手該注意的事項。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國立高雄餐旅烘焙管理系畢業，現經營桃園中壢「安德尼斯烘焙坊」。曾赴日本與法國進修專攻麵包技術，對麵包製作的投入程度可以「一生懸命」來形容的克己老師，希望每一位對烘焙有興趣的讀者都能從這本書中啟發出自己的麵包魂。
+　　著作
+　　《Chef手感烘焙》、《職人手感吐司》、《Chef手感烘焙2》
+　　經歷
+　　台北昂舒巴黎烘焙房 主廚
+　　深山裡的麵包店 主廚
+　　國立高雄餐旅大學 技術講師
+　　Boulangerie  K 創辦人
+　　莎士比亞烘焙坊 總經理
+　　2011年香港國際美食大賽 銀牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近非常流行減醣料理，而我自己攝取食物時注意澱粉的份量。
+　　這本書也用到了以蒟蒻與多種蔬菜設計出來的健康米飯料理，請務必參考一下！
+　　米飯並非減肥時就不適合吃，重點是要注意份量、吃法。因為這種食物是生活上不可或缺的。如果想要享受美味的米飯料理，希望各位好好參考這本書！——MASA真心小叮嚀
+　　最完整的各國米飯大集合！台式、中式、日式、韓式、西式與東南亞風味，應有盡有！
+　　100道炒飯、丼飯、拌飯、炊飯、燴飯、燉飯、焗烤飯、雜炊、飯糰與粥任君挑選！
+　　好吃簡單又不麻煩，只要一盤，美味立即上桌！你想吃的，你想做的，MASA全部教給你！
+　　準備好了嗎？我們要開飯囉！
+本書特色
+　　․1,100張照片完整圖解+QRcode真人影片示範教學，史上最強食譜，即使是第一次下廚，也可以輕鬆學會100道米飯料理。每道料理都分享了MASA的設計理念與堅持，讓您不只學會做菜，更能體會、感受他的用心與貼心。
+　　․各國米飯大集合，食譜豐富多樣化，除了常見的台式炒飯、日式丼飯、韓式拌飯等，還有西班牙、義大利與墨西哥等各國著名的米飯料理。每道菜皆標示烹調時間、難易度、份量、材料與做法等，還有作者的貼心小叮嚀喔！
+　　․晶瑩剔透的白米飯搭配千變萬化的食材，是所有家庭餐桌上最最溫暖的美味。書後附有食材與相關料理一覽表，閱讀容易、貼心超實用，讓您一目瞭然，馬上就可以找到想要學習的各式料理，而且不會浪費任何食材。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛開始在日本是法國料理餐廳的廚師，後來在加拿大學習英文與商業管理並開餐廳，數年前搬來台灣，在知名日本料理餐廳擔任行政主廚一職。住在國外十幾年，MASA觀察到不管哪一國人都覺得，煮菜＝很累＋很辛苦＋很麻煩……所以他想要修正這個方程式，讓煮菜＝好玩＋快樂＋幸福！於是，他以20年的廚師經驗＋（初級的）超可愛中文，（so-so的）英語＋（一點點的）電腦知識＋（還好的）料理攝影技術，開始在部落格教導料理新手如何做菜。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>∥保證不失敗的糕點20種
+　　超過10次革命、試作再試作，
+　　精選出保證不失敗且美味非常的黃金比例配方，
+　　帶你直登成功烘焙的山頭！
+ 　　∥麵粉食驗～麵包+中式麵食20種
+　　抱著電腦守著蒸籠，第N次實驗的饅頭出爐。
+　　解開各種麵食為什麼容易皺皮塌陷的秘密，
+　　照著琳達公主傳授的SOP，輕鬆與麵粉打交道！
+　　∥一鍋煮到底17道
+　　能少洗一個鍋子絕不多用一個！
+　　超級簡單卻能獲得高度稱讚的各種料理，
+　　省時省力就是不省美味。
+ 　　∥中西韓泰餐桌聯合國15道
+　　以廚房中最精簡的調味料，
+　　帶著家人在餐桌上暢遊，
+　　不保證道地，但肯定吃光光！
+　　∥特別情商：上流珠來上菜
+　　禮聘40年開店廚藝經驗，
+　　練就一身快速辦桌功力的上流珠女士，
+　　為新書獻出獨家配方！
+　　∥特別收錄：不藏私的廚房小秘密
+　　再也不必花大把銀子換新家電，
+　　就能獲得嶄新閃亮亮的廚房好幫手，
+　　祕訣全收錄！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">昔日廚房白癡今日烘焙料理雙棲的－琳達公主
+　　未婚前在台灣過了幾年朝九晚五的OL生涯，婚後跟著老公歪嘴雞先生移居美國洛杉磯，生子前生子後，依然過了幾年的OL的生涯，以為人生從此就這樣了，平靜的心拒絕再有浪潮。
+　　但無奈人在江湖身不由己，踏進婚姻的墳墓，不是平躺就能解決，在外食不方便的他鄉只能挽起袖子努力洗手做羹湯，結果越挫越勇，越做越有心得，但因人在國外也越住越寂寞，於是在2012年4月開始寫部落格排遣，分享烘焙與料理筆記，順便發老公牢騷達到身心平衡。
+　　2015年3月不敵網友要求開了粉絲專頁，用更接近網友的方式分享我的食譜筆記和家庭生活點滴，希望大家可以在我的食譜撇步中走最少的路做出最美味的佳餚，在我的生活日記分享中（罵老公愛小孩）得到身心靈的舒壓與療癒。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超人氣台灣小吃一網打盡，從南到北、從東到西，收錄各式麵飯、羹湯、鹹點、冰品、飲料、甜食。品項琳瑯滿目，包含宜蘭卜肉、淡水阿給、彰化肉圓、擔仔麵、滷肉飯、白糖粿、地瓜球、大腸包小腸、蚵嗲、潤餅捲、排骨酥湯、薑母鴨、沙茶魷魚羹、珍珠奶茶、涼圓、豆花、芋包芋，一本書吃遍台灣101道特色美味。
+　　大廚親授各種沾醬、紅蔥酥、蒜頭酥、純豬油、風味高湯，讓你一次學會小吃的精髓，做出最道地的美味；並站在初學者角度教學，Step by Step步驟圖1600張完整記錄烹調過程，免出門、免排隊，在家就能輕鬆做出正港台灣好味道！
+★新舊美味傳承、異國風味融合，讓小吃更多樣化！
+　　為什麼稱「小吃」呢？小吃在台灣早期也是「點心」，屬於份量不多、價格便宜，並且是當地的盛產食材加以烹調而成，所以形成「地方特色小吃」，也因為味道家常，所以嘗起來特別熟悉與動人。後來商人逐漸往廟口、夜市發展，其品項琳瑯滿目，甚至隨著飲食多元化，異國餐廳紛紛進駐，在新舊美味傳承、異國風味融合，讓小吃更多樣化，連外國觀光客來台灣遊玩，也都指名一定要品嘗幾道小吃，才不虛此行。
+★成敗重點提醒，輕鬆複製小吃美味！
+　　本書由長期深耕台菜與小吃的兩位主廚合作，以實務和教學經驗書寫，原汁原味配方、利用家庭器具烹調，並採Step by Step步驟圖記錄烹調細節，與烹調火候、成敗重點提醒，甚至傳授大腸包小腸的糯米腸、香腸灌製法，讓大家輕鬆複製市面上小吃的美味。
+　　書中101道食譜，分為七大單元「各地經典好味」、「飽足主食麵飯」、「吃巧甜鹹點心」、「暖心暖胃羹湯」、「消暑飲料冰品」、「嘗鮮創意小吃」、「醬汁高湯餡料」，包含：宜蘭卜肉、淡水阿給、彰化肉圓、擔仔麵、滷肉飯、牛肉麵、白糖粿、地瓜球、大腸包小腸、蚵嗲、潤餅捲、排骨酥湯、薑母鴨、沙茶魷魚羹、珍珠奶茶、涼圓、豆花、芋包芋、醬爆豬排等；以及小吃的靈魂沾醬、紅蔥酥、蒜頭酥、純豬油、基礎高湯全部一次學會，讓大家不必出門就能享用安心的小吃！
+◎特色1：超人氣台灣小吃一網打盡 
+從南到北、從東到西一網打盡所有在地美味，共101道，包含：淡水阿給、彰化肉圓、擔仔麵、滷肉飯、蚵仔麵線、炒米粉、拔絲地瓜、胡椒餅、大腸包小腸、臭豆腐、四神湯、薑母鴨、沙茶魷魚羹、木瓜牛奶、黑糖粉粿、雞翅包飯、醬爆豬排等，應有盡有，千萬別錯過。
+◎特色2：小吃美味的祕密武器
+增加香氣的紅蔥酥、蒜頭酥、豬油可以自己做，還有許多實用沾醬、高湯，靈活運用於適合的料理，只要全部學會，你也有機會成為小吃大廚。
+◎特色3：烹調過程Step by Step步驟圖1600張
+每道食譜皆標示適合食用的人數，以及透過Step by Step步驟圖詳實記錄烹調過程與重點，保證看圖就能完成道地美味小吃。
+◎特色4：小吃基本功樣樣通
+教你挑選調味料與應用、判斷油溫、認識火候、計量單位換算等，廚藝更上一層樓。
+◎特色5：耐人尋味小吃典故真有趣
+除了學習製作台灣小吃之外，主廚也要說明小吃的命名由來與自古相傳的故事，讓大家越吃越有味、越吃越開心。
+◎特色6：附食材與相關料理索引
+附食材與相關料理索引，閱讀容易、貼心超實用，讓大家一目瞭然，立刻找到想要學習的各式小吃，並且不會浪費任何食材。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">台南是小吃之都，也是我從小成長的故鄉，每當嘴饞之際第一個念頭就是故鄉的小吃。美食不僅滿足自己與家人的口腹之欲，更深入的成就感來自享用者的喜悅臉龐。個人在餐飲美食研究與教學方面已十多年，一直保有烹調熱情（樂在廚中），特別感興趣地方小吃，並將美食從個人廚房推向大學教育的課堂上，讓熱愛傳統料理的人有更多的機會認識此美味，更希望藉由圖文並茂的食譜書，燃起大家對台灣小吃與文化的熱情，並讓大家吃得更健康與幸福。
+　　【現職】
+　　正修科技大學餐飲管理系講師級專業技術人員
+　　中華文化交流協會理監事
+　　大古鐵器代言主廚
+　　【經歷】
+　　國立高雄餐旅大學餐飲創新研發碩士學位學程碩士    
+　　大華科技大學講師級專業技術人員
+　　2016年加拿大海外廚藝傳統料理示範巡迴演出
+　　電視節目《新唐人廚娘香Q秀》人氣特約主廚
+　　【證照】
+　　中餐烹調（葷食）乙級
+　　中式麵食加工（油酥皮糕漿皮）乙級
+　　烘焙食品（西點蛋糕麵包）乙級
+　　中式米食加工（米粒米漿類）丙級
+　　【得獎】
+　　中華民國衛福部食藥署民國105年度優良廚師金帽獎
+　　中華民國教育部第十二屆技職之光技職傑出獎
+　　高雄市政府106年度社會優秀青年
+　　2014年韓國國際料理烹飪大賽現場烹飪競賽金牌
+　　2015年加拿大國際泛亞廚藝大賽金牌
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　★【讚！獨家揭開，台式麵包成功密技】
+　　‧如何保持蔥麵包，蔥花不烤焦？
+　　關鍵→油脂和蔥花比例很重要。
+　　‧菠蘿皮要包到多少才漂亮？
+　　關鍵→要擀平、厚薄平均並包覆麵團9分滿。
+　　‧夾心奶油麵包的奶油餡無法把麵包黏起來？
+　　關鍵→麵包冷卻後再塗。
+　　★【棒！麵包職人20多年經驗大公開】
+　　本書由20年經驗的麵包師傅，部落客等聯合著作，
+　　蒐集大家製作台式麵包時，最容易失敗的原因，
+　　從做法、口味和技巧，用經驗和技術逐一破解，
+　　讓你不再盲目亂做。
+　　 ★【專訪：福利麵包食品有限公司】
+　　創立於民國 38 年，公司前身為上海法租界區著名之百貨公司。
+　　早期成為美軍顧問團之主要供應商。
+　　為第一個引進最先進烘焙設備、原料的麵包店。
+　　因法國麵包品質相當優異，並囊括中點製作技術精華，在早期無人能出其右，相繼成為許多地方主要供應商。近年來陸續引進各國之烘焙產品，但最出名的奶油大蒜麵包，仍舊是最用心且不變的美味。舉凡國際知名之產品皆可在福利麵包找到，故有麵包聯合國美稱。
+本書特色
+　　特色1：
+　　超強卡司—名店師傅密技不私藏！
+　　知名烘焙師─小胖老師（王勇程）：示範麵團製作過程撇步，說清楚！
+　　莊敬高職烘焙專任老師─劉美妤：解析常見的失敗關鍵，最專業！
+　　巴洛克手作坊版主─王淳鈺：分享自己在家做的技巧，零失敗！
+　　特色2：
+　　成功率高—麵包名師以QA方式，解密失敗率最高的原因！
+　　回憶起兒時的台式麵包，鹹甜滋味難以忘懷，想要自己在家做卻總是失敗！
+　　麵團發酵沒成功？整形技巧就是不完美？美味程度總是差一點？
+　　本書網羅最多「烘友」最常出現的失敗關鍵，讓麵包名師親上火線直接解答，
+　　一次搞懂就能挑戰成功，不再苦吞失敗的成品！
+　　特色3：
+　　加值收錄！7款古早味點心的美味關鍵及新手入門小知識！
+　　除了30款經典的台式麵包外，附有7種大家最愛吃的古早味點心的成功秘技，
+　　譬如：牛力（台式馬卡龍）、杏仁酥等。並貼心附有剛入門做麵包的「烘友新生」正確的烘焙小知識，
+　　更能快速上手，操作順利不失敗！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>師承麵包大師莊鴻銘、文世成，擁有近二十年的實作經驗及深厚功底。
+　　至今「小胖老師」一名在業界占有一席之地。
+　　善於挑戰各式麵包的可能，打造又有趣又美味的烘焙殿堂。
+　　個人著作
+　　1.「 私房特級人氣麵包」／2014年9月（膳書房）
+　　2.「 做麵包不失敗的15堂關鍵必修課：世界杯麵包大賽優勝得主小胖老師教你一堂價值5000元的專業級烘焙課」／2015年6月（台灣廣廈 ）
+　　3.「地表上史無前例的烘焙寶典」／2017年6月（上優文化）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《絕對好吃！的100道奶蛋素料理》重版再出擊，內容好康升級！
+　　新增10道全家都愛吃的營養蛋料理，補充最佳蛋白質能量看這裡。
+　　素料理達人江豔鳳：「做素料理其實和普通菜一樣，美味的訣竅就在於：
+　　盡量少用素料加工製品，多多以當季、當地產的蔬果、
+　　菇類、豆類、穀類等自然食材來烹調。」
+　　許多人對素食都有「不美味、菜色少、口味過油過重、食材都是素料或豆類加工製品」的刻板印象，其實並非完全如此。作者江豔鳳以多年烹調素食的經驗，分享讀者不用（或少用）素料或加工品，也能烹調出健康又美味素料的訣竅，就是「盡量以當季、當地產的蔬果、菇類、豆類」等自然食材烹調。
+　　為了提升素料理的口感、風味，以及幫助許多吃素的人解決「每天不知要變化什麼菜來吃」的困擾，江豔鳳在書中提供110道素食家常菜，像是簡單的小菜、家常菜、湯品，以及飯、麵等主食料理、中西式的甜鹹小點心等，讓吃素食的人不再只能吃「燙青菜」，更能吃得飽、健康、安心。
+　　本書的內容分為：〈part1新手必備迷你小菜和醬汁〉、〈part2輕鬆搞定家常便利菜〉、〈part3口味多變的飯麵和湯〉、〈part4中西風味甜鹹點心〉和〈Plus好康新增！全家都愛的營養蛋料理〉五大單元。料理種類除了中式料理之外，更推出一些異國風味的素食料理，像義大利麵、焗烤、披薩、煎餅、濃湯等等，將米飯、麵、冬粉和五穀等搭配各式蔬果，烹調出風味多變的料理。此外，除了110道食譜的配方和做法，同時也介紹多種萬用方便醬汁、迷你小菜，以及轉換不同器具的烹調法，讓大家在忙碌的生活中更添便利與實用。當然，書中110道料理絕非吃素的人獨享，一般人也能大快朵頤。
+本書特色
+　　本書6大特色：      
+　　◆用真食材，拒絕素料 → 嚴選高纖蔬果、高蛋白質等食材，吃出好氣色且更安心。
+　　◇110道菜，選擇超多 → 配菜、小菜、點心、湯、飯麵種類豐富，吃素也能選擇多。
+　　◆基本鍋具，家家都有 → 不用特殊器具，只要一個炒鍋、電鍋或湯鍋就能做好。
+　　◇難易標記，新手能做 → 每道菜都有標示難易程度，新手好選，高手盡情發揮。
+　　◆兩種目錄，菜色易選 → 特製難易程度、料理種類雙目錄，迅速找到想吃想做的好菜。
+　　◇快速完成，小菜醬汁 → 做法超簡單，可當自家常備菜或便當菜，不再煩惱每天吃什麼！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因為喜歡吃媽媽做的菜，無師自通學會台灣小吃、麵食、米食等中式料理。從事烹飪教學工作多年，個性開朗活潑、認真負責和細心，加上耐心的教學態度，廣受學生歡迎，一直是補習班裡最受歡迎的人氣烹飪老師。
+　　在朱雀的其他著作：《意想不到的電鍋菜100》、《人人都會做的電子鍋料理100》、《這樣吃最省》等書。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「美食並不一定要很多食材，只要用心烹飪，加上巧妙的搭配，以極簡單的食材，也能做出一道最美味的食物。」─ 依照法師
+　　佛教叢林素菜向來名聞遐邇，一般在地隨手可得的食材，就是叢林菜的主要佳餚。沒有太多華而不實的烹調方式，依著各道食材的特性，用著最省時簡易的方式調理食材，徹底展現自然食材的原汁原味，吃到最健康滿分的營養。
+　　本書作者依照法師，即是掌握烹煮叢林素菜要訣的佼佼者！
+　　放眼世界，全球日益暖化，面對生態空前重大浩劫的問題，吃素也是愛護地球的表現。依照法師心懷「推廣素食救地球」的精神與理念，把多年來在佛光山全球各道場烹煮素食料理的經驗，彙整成一道道的素菜食譜，調理出色香味俱全的菜根香，每道家常菜讓人回味無窮，更期望烹飪新手能不畏懼走入廚房，煮得輕鬆上手，吃得歡喜健康。
+　　《原汁原味照食譜》，期待大家照著食譜烹調都能快速上菜，吃出自然食材的好味道！
+本書特色
+　　★食材天然！
+　　以四季常見的蔬菜瓜果為主，輔以隨手可購的食材，富有營養又充滿能量。
+　　★圖說完整！
+　　詳列每道菜餚的材料與作法，教您拿捏各食材的特性，讓新手也能煮出美味佳餚。
+　　★簡單易學！
+　　作法簡單、明瞭，一看就懂，讓您快速掌握技巧，輕輕鬆鬆上菜。
+　　★菜色多變!
+　　一份食材，多種變化，６０道精選料理，無論煎、煮、炒、炸，一次上手！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依照法師
+　　1953年出生
+　　1972年到佛光山
+　　1975年禮佛光山開山星雲大師座下，披剃出家
+　　現任法務視察
+　　曾任：
+　　香海旅行社執行長
+　　美國西來寺都監
+　　佛光山歐洲總住持
+　　法國巴黎佛光山住持
+　　荷蘭荷華寺住持
+　　美國三寶寺住持
+　　美國西來寺監院
+　　佛光山朝山會館管理主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通話的「粿」「ㄍㄨㄛˇ」，閩南族群稱為「ㄍㄨㄟ\」，而客家族群則稱為「粄」，都是指以米做成的米食。
+　　早期農村普遍經濟困苦，客家婦女刻苦勤儉，時常會利用空閒時間，利用米作出其他不同的米食加工食品，除了作為日常年節敬神、送禮、祭祀之用，也是最好的伴手禮。
+　　隨著社會現代化，幾乎被遺忘的年節粄粿，隨本書將重新回味：
+　　․舊曆新年(正月)：甜粄(甜年糕)、發粄(發糕、發粿)、發包(發財粄、gahe)、鹹粄(鹹年糕)、菜頭粄(蘿蔔糕)、紅豆粄(紅豆年糕)、菜包(豬籠粄)
+　　․清明節(四月)：艾草粄(青草粄、鼠麴草粄)、水發粄(發包、gahe)
+　　․端午節(五月)：粳粽(鹼粽)、米粽(鹹米粽)、粄粽、粢粑仔、紅豆粽
+　　․冬節(十二月)：湯圓、水粄(碗粿)、轆湯粢(甜大湯圓、牛汶水)
+　　․平日(正月~十二月)：粳粄(鹼粄)、九層粄(多層水粄)、米包(紅豆包)、芋粄(芋頭糕)、鹹糯飯(鹹米糕)、甜糯飯(甜米糕)、新丁粄、紅粄、桃粄、丁仔粄、錢仔粄、水粄、米篩目(米苔目)
+　　為了找回古早的米食滋味，釐清粄粿的操作觀念，本書利用炊蒸前的三種原料型態分類：米粒類、米漿類及漿糰類。從最簡單的米粒類粄粿開始，逐一示範步驟，加上作者獨有的份量公式算法，隨需求任意調整，更加容易上手。
+　　如果覺得三十種粄粿的傳統製作材料太麻煩，書中以現成米穀粉為原料的新作法，不僅縮短烹調時間，成品也比較Q彈好消化。
+　　至於，發糕發不發？粢粑(麻糬)Q不Q？艾草粄的餡料香不香？完全靠經驗的累積。作者將秘訣化為文字與步驟，藉由新舊製作技術，重新闡釋粄粿的節慶意義，傳承古早的美味與文化。
+本書特色
+　　*新舊做法都收錄，一種粄粿有兩種以上的做法，共六十餘種以上的食譜，價值更提升。
+　　*以材料型態分類，從最簡單的米粒類開始→米漿類→米糰類，助於釐清粄粿的製作概念。
+　　*以米穀粉取代米原料更快速簡便又易消化，提供現代人的另一種選擇。
+　　*作者獨有的份量公式試算法，隨需要任意調整，不必受限於單一份量，製作更容易。
+　　*專屬一個章節的公開粄粿製作的葵花寶典，成功機率大大提升。
+　　*重新喚起古早米食的節慶文化，藉由更多的民家之手傳承下去。
+　　*附錄丙級米食考試食譜，跟著作者的成功經驗，事半功倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教學經歷
+　　‧社團法人中華農特產品生產加工釀造協進會創會理事長兼專任講師
+　　‧社團法人桃園市技藝傳承學會創會理事長兼專任講師
+　　‧社團法人中華知識經濟推廣協會授課講師
+　　‧社團法人台灣職能發展協會授課講師
+　　‧中華國際技藝認證管理學會釀造講師
+　　‧新竹縣中餐服務人員職業工會釀造技能講師
+　　‧民國94年至今，擔任勞動部勞動力發展署桃竹苗分署外聘訓練師
+　　‧桃園市原住民族部落大學講師
+　　‧桃園市新楊平社區大學講師
+　　‧國立龍潭農工食品加工科「酒醋醃釀發酵課程設計與研發」課程講師
+　　‧萬能科技大學生物技術系「結合產學合作精進實務專題」課程講師
+　　‧萬能科技大學生物技術系「雙師制度」實務與專題課程講師
+　　‧台北市身障者關懷協會專業課程講師
+　　‧各級農會、鄉村里「釀酒、釀醋、釀漬、米麵食、粄粿課程」教學講師
+　　‧中式米食、麵食丙級證照，輔導考照課程講師
+　　專業證照
+　　‧中式麵食發麵類，乙級證照
+　　‧中式米食米粒、米漿、一般漿糰、熟粉、一般膨發類，共3張丙級證照
+　　‧中式麵食發麵類、水調（和）麵類、酥糕漿皮類，共3張丙級證照
+　　‧烘焙西點麵包，丙級證照
+　　‧中餐烹調葷食，丙級證照
+　　‧四川省中國食品工業協會成都培訓基地培訓釀酒師
+　　‧貴州省第一屆台灣釀酒技師評酒員培訓釀酒師
+　　‧福建省食品工業協會釀酒行業分會培訓釀酒師
+　　‧福建省食品工業協會釀酒行業分會培訓省級評酒員證書
+　　近年獲獎紀錄
+　　‧102年度桃園縣原住民族部落大學課程講師特優獎
+　　‧103年度桃園縣原住民族部落大學課程講師績優獎
+　　‧103年行政院農業委員會農糧署舉辦的2014年中式米食產品創意大賽佳作
+　　著作
+　　2002.06台灣民間釀酒實務、2006.04台灣釀造醋釀造生產應用實務、
+　　2014.02自己釀、2015.02自己醃、2015.11釀酒、2016.06釀酒2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009年tecona bagel works誕生之際，貝果專賣店尚不多見，不如現在這麼廣為人知。
+　　宛如甜甜圈的圓形外觀、發酵後的麵團經過一次水煮與烘烤而打造出Q彈有嚼勁的獨特口感，
+　　這些都是貝果的特色所在。
+　　tecona有「鬆軟」、「Q彈」以及「扎實」3款口感各異的基本貝果。
+　　在種類不一的麵粉中，調配了不同比例的酵母或天然酵母。
+　　另外還推出風味貝果，裡頭都添加了和3種麵團契合的餡料，上面所撒的配料以及口味組合都相當受到喜愛，也扭轉了大家至今對貝果的印象。
+　　為了能輕鬆製作貝果，本書在材料上做了調整，改用在家裡也能方便製作的速發乾酵母，有自信每一道食譜帶給大家的味道都和店裡的沒有兩樣。
+　　貝果所用的材料相當簡樸，酵母也只用少許。
+　　未添加一滴油所以很健康，而且還帶有Q彈的獨特口感，就算天天吃也不會膩。
+　　希望能讓大家邂逅自己喜歡的味道，並感受到貝果的美味。
+　　依本書製成的貝果之特色
+　　1.口感與風味各異
+　　Tecona的貝果分為「鬆軟」、「Q彈」以及「緊實」3款。口感與風味各異的貝果已成為基本款。
+　　為了帶出美味，並且更接近店裡貝果的味道，本書中改變了麵粉的種類、水量與發酵方法，並在食譜上費了番功夫，以求在家也能輕鬆製作。
+　　「鬆軟」款的口感軟綿，連吃不慣貝果的人都很喜愛。也很適合製成夾大量餡料的貝果三明治。「Q彈」款的貝果具備恰到好處的嚼勁，且因添加少許全粒粉而散發著鮮明的香氣。「緊實」款的魅力則在於如德國麵包般分量扎實的嚼勁。繞圈扭轉的塑形方式也展現出麵團的韌性。
+　　備好3種類型的貝果，即便是初嚐貝果的人，或是不喜歡吃麵團緊實的麵包的小孩子，應該都能從中找到喜歡的味道吧？請務必嚐嚐看3款貝果的口感與麵粉的風味，找出自己中意的類型。
+　　2.使用速發乾酵母即可輕鬆製作
+　　Tecona店裡也有天然酵母。但如果對天然酵母不夠熟悉，在用法與管理上都不容易，因此本書一律使用速發乾酵母。貝果發酵只需1/3或1/2小匙的乾酵母，用量極少。計量時使用量匙並且確實抹平，是零失敗的訣竅。
+　　3.以冷凍保存貝果
+　　貝果放到隔天吃起來依舊美味，但如果想長期保存，天天都想吃到貝果的話，請以冷凍保存。用保鮮膜1個個包覆起來裝進保存袋中，再放入冷凍庫，可保存2週左右。要吃的時候先自然解凍，再用烤箱加熱2～3分鐘，外皮就會恢復脆脆的口感，美味十足。另一方面，如果想縮短解凍時間並一點一點慢慢享用不同的味道，建議切半後再冷凍。
+本書特色
+　　3種麵團、55道食譜，千變萬化的滋味讓人天天吃也不膩！
+　　從可作為甜點的甜貝果，到適合作為正餐的鹹口味、貝果三明治及各種抹醬搭配，種類豐富，應有盡有。不論是自己享用或開店販售都適用的貝果聖經！
+　　用一點點酵母，就能烘焙出鬆軟、Q彈、扎實3種口感，即便是孩子或討厭硬麵包的大人也能愉快享用。
+　　材料簡樸，且未加一滴油，為健康和美麗把關！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tecona bagel works的二三事
+　　tecona bagel works是料理家高橋雅子女士於2009年開設的咖啡館，並販售貝果。自開店起，貝果就分為「鬆軟」、「Q彈」以及「緊實」3種基本款。本書中一律使用速發乾酵母，然而店裡唯有「鬆軟」款才使用這種酵母。「Q彈」款是使用自製的天然酵母，「緊實」款則是用星野天然酵母，製作出口感各異的貝果。身為現任店長的小林女士，一面堅守著基本的作法，一面掌管這家店的大小事。希望這家貝果專賣店能成為讓顧客天天上門的街邊麵包店，因此開店之初總是密密麻麻地並排許多剛出爐的貝果。
+　　一般對貝果的印象是：正中央有個洞，形狀近似甜甜圈。而tecona的貝果則是樣貌豐富，上面會擺放大量的餅乾薄片、粗糖、乳酪等。顧客在開店的同時到訪，還沒到關店時間就售完，這樣的情況也不算罕見。當天就把最後1個貝果送到顧客手中──就是3種麵團的口感，以及每天吃也吃不膩的各式口味，支撐著這股人氣。
+　　必能遇到自己中意的風味貝果
+　　店長小林女士原本是西點師傅。她活用了製作甜點的經驗，以每2週1次的步調不斷打造出新口味，有重視季節感的產品、配合貝果將人氣素材加以變化製成的產品等。tecona的貝果會放入大量的配料，因此個個都飽足感十足。添加水果乾、奶油乳酪、臘腸、和風家常菜等，從甜的貝果到適合作為正餐的貝果，種類豐富應有盡有。小林女士相當重視每種素材的味道與口感之間的組合，若要發揮這個素材必須搭配鬆軟貝果，換做另一種素材則搭配Q彈款，因此，製作貝果時，她堅持同一種口味要避免使用不同的麵團。
+　　此外，除了風味貝果外，另有原創貝果三明治與抹醬，這也成了貝果美味吃法的新提案。滿滿夾餡的貝果三明治，份量大到根本無法一口塞進去，很受大人小孩的喜愛。此外，抹醬也是品嚐貝果時不可缺少的，無論甜食系或鹹食系皆可輕鬆備齊。始終如一的經典口味，再加上挑選的樂趣以及與新口味邂逅的雀躍感……這些都成了tecona的魅力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◎老覺得外面賣的造型甜甜圈既甜又油膩，吃了讓人罪惡感十足嗎？
+　　→本書收錄的甜甜圈配方不需油炸，
+　　只要依照步驟喇一喇，再放入烤箱等聽到叮一聲就OK！
+　　成品少了油炸的油膩肥胖感，多了蛋糕般的鬆軟輕盈感，
+　　讓人不禁一口接一口吃個沒完，嗯？你說罪惡感？那是什麼？
+　　◎專程跑去甜甜圈名店，卻發現沒有／買不到自己喜歡的造型嗎？
+　　→有時候命運是很看人的，若是遇到上述情況請不要氣餒，
+　　這時只要轉個彎去最近的食品材料行或超市買齊材料，
+　　回家看書自己做，想做什麼造型就有什麼造型，
+　　還可以做一大堆冰在冰箱，天天拍照打卡、吃甜甜，
+　　保證幸福到覺得上班日也沒那麼糟。
+　　◎常常只是想買個解解饞，但選擇障礙越買越多，花了錢卻又吃不完嗎？
+　　→所謂的選擇障礙的困擾，就是這個想吃一點那個想吃一點，
+　　最後結果就是毫無節制買了一堆，邊吃邊怨嘆自己買太多怎麼吃得完。
+　　有此症頭的孩子，小編打從心裡強烈推薦買本書回家自己做吧！
+　　吃不完還可以冰冰箱，隔天配上一杯咖啡和一本書，文青的一天就從早上開始。
+　　◎【隨書附贈】無花紋全圓形6連甜甜圈模
+　　SGS檢驗合格，安心使用、健康無虞
+　　模具尺寸：長26.5×寬18.5×高2.5cm，每個甜甜圈直徑6.5cm
+　　→通常買了食譜有100個理由不動手做，而眾多關鍵的原因之一就是「沒有器具」，
+　　雖然出版社沒有預算可以送烤箱，但是小小烤模還是可以為讀者爭取的，
+　　如此有誠意，就只是期盼讀者拋棄那100個不想做的理由，
+　　一起來做讓親朋好友、同事同學羨慕萬分、瘋狂點讚的造型甜甜圈啊！
+本書特色
+　　→全書共收錄40個可愛造型食譜，光看就讓人躍躍欲試
+　　不要看96頁好像品項很少，裡頭可是紮紮實實收錄了40種造型，每個造型都是經由作者絞盡腦汁、費盡心思、想盡辦法使之簡易化又不失可愛，光是翻閱書本就被可愛到心花怒放，跟著動手也不會覺得難以操作。
+　　→食譜附有多張分解圖，操作步驟簡單明瞭，一看就懂！
+　　造型甜甜圈基本上就是用各式各樣顏色的巧克力來上色，但該如何上色？光看文字可能沒辦法完全理解，所以內文貼心附上多張步驟圖，讓讀者簡單理解，順利做出屬於自己的造型甜甜圈！
+　　→1書+1模，立馬跟著做不是問題！
+　　雖然標榜沒有模具的人可以馬上動手做，但就算家裡已經有模具的人也不用覺得好像不划算，看看贈品6連甜甜圈模所散發出來的金光閃閃，質感好到根本物超所值啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">為「Brenda玩烘焙」部落格的經營者，2013年開始記錄、分享自己的烘焙經驗、成果，至今已超過66萬人次瀏覽。
+　　接觸烘焙的契機是由於一連串的食安風暴，當時為了讓家人吃得安心、健康才開始研究各種烘焙食譜。且因為過去在學專業為幼保科，所以對可愛的造型點心非常有興趣，於是陸陸續續開始製作一些可愛的手創小點心讓孩子帶去學校與同學分享，結果大受小朋友的喜愛，許多朋友們紛紛詢問作法，因而開始在部落格中分享食譜。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超人氣角色「角落小夥伴」的第一本造型便當食譜。
+　　便當作家akinoichigo老師的食譜不僅美味，更是可愛滿分！
+　　書中以照片詳盡解說角色的製作法，讓你第一次製作就零失敗！
+　　不但有原寸大小紙型提供描圖使用，
+　　更有豐富飯桌上的各種點子和最新的便當商品情報，絕對讓你滿載而歸！
+　　請把便當的每個角落塞得滿滿的唷！
+　　一次網羅你熟悉的白熊、企鵝？、貓、炸豬排、炸蝦尾……
+　　好吃又簡單的15款角色造型便當、13種角色造型配菜！
+本書特色
+　　★超人氣「角落小夥伴」終於推出可愛造型便當食譜！
+　　★讓角落小夥伴塞滿便當的每個角落吧！
+　　★附錄包含初學者也能做得很可愛的原寸紙型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以角色造型為首，創造可愛又好吃的造型便當而廣受好評的人氣便當作家。著有《角落小夥伴的可愛料理時光》」、《リラックマのごはん&amp;スイーツ》、《akinoichigoの毎日かわいいキャラ弁232》（主婦與生活社發行）等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本書共介紹吃了會幸福的52道起司蛋糕，
+　　包含有「烤乳酪蛋糕」、「舒芙蕾乳酪蛋糕」、「紐約乳酪蛋糕」、
+　　「生乳酪蛋糕」、「平底鍋烤乳酪蛋糕」、「低熱量乳酪蛋糕」等六大類，
+　　每款都是由日本頂尖甜點達人的私藏配方所製作而成的起司蛋糕，
+　　不但作法簡單而且都非常美味，
+　　只要跟著書中所刊載的材料分量、步驟，就一定不做失敗。
+本書特色
+　　◎重量級日本甜點達人們的「美味起司蛋糕祕方」破天荒全收錄！
+　　包含有：なかしましほ、飯塚有紀子、石橋かおり、荻田尚子、
+　　小黑きみえ、黑川愉子、桑原奈津子、八田真樹、
+　　『MATSUNOSUKE N.Y.』平野顯子、本間節子、柳瀨久美子等，
+　　各自擁有一片天的料理家們無私傳授甜點祕技！
+　　◎種類豐富×配方分量＆作法講解詳盡×重點作法照片提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「地中海飲食」是被世界公認且推祟已久的健康飲食法，長期實行地中海飲食，不僅能塑造健康、輕盈、有活力的良好體態，而且還能嚐遍大自然的豐饒味美。地中海料理並不是距離很遙遠的異國菜色，而是一種健康飲食概念，只要把握「地中海飲食金字塔」的要點，加上突顯原味的烹調法，即便在台灣家庭裡，也能輕鬆實踐地中海廚房與餐桌佳餚。
+　　－地中海飲食金字塔是什麼，在台灣怎麼吃？－
+　　1．天天吃大量新鮮蔬果、豆類種籽與堅果類、植物油與橄欖油、五穀根莖類
+　　2．每週選擇海鮮和魚類、乳製品、蛋與禽類肉品做替換
+　　3．少量的紅肉
+　　4．適量飲用紅酒
+　　－地中海飲食有什麼好處？－
+　　1．大人小孩都適用的飲食法，能保持體態並預防老化提早到來
+　　2．不僅對於心血管有好處，更能降低癌症與糖尿病…等風險
+　　3．研究報告中發現，能減少失智症的發生、對於大腦有正面影響
+　　4．製備食材與烹調方式簡單不複雜，菜色豐富且不用瘋狂節食
+　　熱愛地中海原味的安安老師，要帶你從廚房食材備製開始、重新檢視冰箱，也分享她的省時烹調法，並以地中海飲食金字塔的飲食頻率來設計「每天吃、每週吃、偶爾吃」的食譜，讓想嘗試地中海飲食的人更方便下廚，只要有烤箱、平底鍋、鑄鐵鍋就能一一完成書中菜色。
+　　本書更請到知名營養師－李婉萍說明地中海飲食的好處與實用知識，讓大家正確地嘗試地中海飲食；而在地中海料理中很常用到的橄欖油，其實有著說不完的驚人學問，特別邀請台灣在地的「人良油坊」創辦人－葉旭榮不藏私分享橄欖油的奧秘、如何挑好油、用對油於日常飲食中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">曾擔任過LE CREUSET前料理講師多年，熱愛美味又多變的環地中海料理，目前在宜蘭社區大學、窩們工作室開班教學地中海料理課。本身是「地中海飲食」實踐者的彭安安老師，將在書中分享在家簡單就能做的豐盛菜色與點心，更從關心妳的廚房開始到備料下廚教作，天天吃出輕盈的健康體態非難事。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★烘焙業界公認製作頂級工匠麵包和披薩必讀經典。
+　　★如同本書書名，作者決志要向世人展示，僅僅使用麵粉、水、鹽、酵母四項基本元素，所做出來的麵包有多美味。
+　　★市面的書架上早已堆滿烘焙書，但似乎總缺少一本，而這本書就是你要尋找的答案。書裡沒有各式各樣花俏的麵包和裝飾，卻有滿滿的關鍵步驟、知識和訣竅，告訴你如何在家中也能完美重現市售頂級麵包的風味。
+　　世上沒有幾件事情比一口咬下一片新鮮現做、外酥內嫩的麵包還要更幸福了，對於波特蘭烘焙師肯‧福克緒(Ken Forkish)來說，做出好吃的麵包已經不只為了自身喜悅，而是受到自身熱情驅動而不斷創造出最優良、廣受好評的高品質麵包。
+　　在「麵粉、水、鹽及酵母」中，福克緒把自己如著魔般習得的技藝，轉換成文字食譜，讓大家都可以在自家廚房重現鄉村法式圓麵包及拿坡里風格的披薩；書中所有的食譜都是由福克緒親自開發並且在他自家廚房試驗成功，跟著書中清楚的配方及指示，你一定也可以做出頂級工匠麵包及披薩，足以媲美各地一流烘焙坊。
+　　不論你是全然初學者或是經驗老道的烘焙師，書中一定可以找到適合你能力水準以及日常生活步調的食譜：一開始可以從直接發酵麵團做起，一早揉麵糰，當天傍晚烘烤，晚餐時段上桌享用；或是嘗試使用預發酵種麵，如液種及硬種酵頭。如果你準備好要進入進階烘焙領域的話，可以跟著福克緒分解步驟指南，一步步由麵粉及水開始製作魯邦種麵，然後準備享受自然發酵麵包多元、豐富的美味。對於披薩愛好者來說，可以試驗不同麵團與醬料及頂料搭配，嘗試運用披薩石板或鑄鐵平底鍋烘焙，看看結果如何。
+　　「麵粉、水、鹽及酵母」這本書絕不僅僅是一本記載驚艷麵包及披薩的食譜集，更提供完整的烘焙教學知識，仔細解釋使用工具及技巧，讓讀者順利理解為何工匠麵包與其他麵包不同；書中還有許多特殊的安排，如烘焙百分比的解釋、客製化麵團的原料調整建議、因應生活日程變化調整烘焙時程的秘訣，還有一整個章節為魯邦種麵製作過程大揭密，烘焙師如果想要讓每天平淡無奇的麵包提升成滋味獨到的麵包，「麵粉、水、鹽及酵母」就是你不可或缺的絕世寶典。
+　　本書的主要對象針對烘焙初學者，也同時適用烘焙老手。作者一方面針對廣大讀者群撰寫，希望能夠吸引烘焙新手加入。書內所寫的初階食譜，只要跟著指示完成所有步驟，就可以在自家廚房烘焙出媲美世界一流烘焙坊的高品質麵包，以及拿坡里風格的披薩，甚至可以讓義大利老奶奶露出微笑。只要一點點進度規劃以及添置一些新器材，你離專業高品質麵包以不遠矣。
+　　另一方面，本書也適合有烘焙經驗的好手，藉由嘗試不同的麵粉配方、精進自己塑形技巧或者只是透過每一次重複工序改善每一個環節，提升麵包風味、麵團體積或者外皮成色及酥脆程度等，進而提升本身做麵包的藝術。
+本書特色
+　　1.僅僅使用麵粉、水、鹽、酵母4種元素，然後以時間和溫度為變因，就能創造出數十種不同口感、味道層次的麵包。
+　　2.不論初學者或是經驗老道的烘焙師，書中一定可以找到適合你能力水準以及日常生活步調的麵包食譜。
+　　3.經過作者親身研究及調整配方，初學者只要利用鑄鐵鍋、烤箱和簡單器具，跟著步驟操作，就可以在自家廚房做出頂級的工匠麵包和披薩。
+　　4.書中有無數關鍵步驟、知識和訣竅，讓烘焙好手精進原本已經純熟的做麵包技術。
+　　5.作者肯‧福克緒個人戲劇性的人生故事和創業過程，為繁複的麵包製作步驟增添更多閱讀的趣味，而書中穿插幾篇專論，更為這本烘焙食譜書增加知識深度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打滾於高科技產業二十餘年，肯‧福克緒毅然決然離開矽谷及美國頂尖企業，轉行當個烘焙師傅，搬往奧勒岡州波特蘭市，於2001年開設了「肯的工匠麵包烘焙坊(Ken’s Artisan Bakery)」，2006年再開「肯的工匠披薩店(Ken’s Artisan Pizza)」，2013年再開特立菲克塔小酒館餐廳(Trifecta Tavern)。
+　　肯曾經於舊金山烘焙學院、美國烹飪機構、義大利托斯卡尼料理學校及法國保羅博古斯廚藝學院等處學習麵包製作技藝，訓練扎實。
+　　本書更榮獲詹姆斯比爾德基金會圖書(James Beard Foundation Book Award Winner)和國際專業烹飪協會食譜書(The IACP Cookbook Awards Winner )兩項大獎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯‧福克緒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+　　近年來屢屢發生的食安問題，讓消費者漸漸失去「吃得健康、買得安心」的本錢，希望藉由這本書，帶領新手或是專業的朋友，朝著「簡單、天然、手作、美味」的方向前進。呂老師為「誠實而可口的甜點」全力以赴，強調不脫離基本、樸實又親切的作法，並且努力開創獨特性，期待讀者們能夠透過這本著作，做出豐厚的質感、閃耀自信光澤、並且令人難以忘懷的動人滋味。
+　　25個精彩的甜點主題，烘焙老師的113道無私分享
+　　◎本書收錄果醬、棉花糖、飲品的果凍、鮮奶酪、布丁、布蕾、盆栽、乳酪蛋糕、情人點心、薄片餅乾、美式餅乾、雪球餅乾、杏仁蛋白脆餅、鑽石餅乾、甜味/鹹味司康、甜味/鹹味瑪德蕾、法式鹹蛋糕、蜂巢蛋糕、打發小西點、英式奶油蛋糕、甜塔、甜/鹹派，不管是什麼天氣，什麼日子，用甜點記錄生活的每一個幸福時刻。
+　　◎詳盡的步驟及圖片製作方法，跟著做就可以成功！
+　　◎本書設計以日記為概念，讓您每天無論好心情壞心情，都能有不同甜點點綴生活的每一刻，與您一起分享意義深遠的動人故事。
+　　◎加碼收錄全省烘焙材料行聯絡資訊，讓您在採買食材時更得心應手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">呂昇達老師的甜點日記 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呂昇達</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學歷
+　　芬蘭國立Aalto University EMBA
+　　國立高雄餐旅大學 烘焙管理系
+　　經歷
+　　統一麵粉 烘焙技術顧問
+　　元寶實業isigny白乳酪講習會 烘焙講師
+　　晶華酒店 口福堂 服務經理
+　　BakingDream夢饗烘焙坊 技術總監
+　　豐盟麵粉 烘焙技術顧問
+　　高雄餐旅大學 烘焙講師
+　　著作
+　　呂老師的甜點日記～典藏版
+　　手揉麵包教科書：呂老師的86款超手感麵包全集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磯淵 猛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1979年開設紅茶專賣店DIMBULA，於1994年創辦Tea ISOBUCHI Company株式會社，專門進口斯里蘭卡、印度與中國紅茶，並開發出數百種原創茶譜。平日會舉辦研討會，提供相關諮詢與企劃服務，以紅茶研究家與散文作家的身分活躍。著作包括《極品紅茶》（楓書坊）、《紅茶瘋：從中國、英國到全世界》（麥田）等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本書特色
+　　◎日本紅茶第一人．磯淵 猛40年紅茶研究心得。
+　　◎從產地、製作、沖煮、品飲，不輟實證的紅茶知識。
+　　◎混合紅茶、原創紅茶私房茶譜。
+經典內容
+　　◆第1章 紅茶的特色依產地而異：紅茶的產地、茶園與特徵
+　　◆第2章 認識決定紅茶價值的要素：紅茶商品學
+　　◆第3章 介紹沖出美味紅茶的祕訣：引導出紅茶的美味
+　　◆第4章 紅茶帶來的新風味：紅茶的茶譜
+　　◆第5章 將紅茶混在一起的理由與方法：打造出原創茶譜
+　　◆第6章 紅茶能夠襯托出其他食物的滋味：紅茶與食物的搭配組合
+　　◆第7章 為什麼紅茶能夠傳到世界各地：解析紅茶的歷史與文化
+　　磯淵 猛對紅茶的迷戀自28歲起始，
+　　人稱日本研究紅茶的第一把交椅，引領「午後の紅茶」品牌長銷30年之久。
+　　於此期間內，紅茶不落青茶、綠茶之後，精緻形象開始在人們內心扎根，
+　　《精品紅茶學》為作者40年來潛心於紅茶世界的分享，
+　　涵蓋歷史、產地的調查，以及沖泡、研發原創口味的心得報告。
+　　難得的是在此書中，除了刊頭需分辨茶色、鑑定茶葉的頁面外，
+　　作者盡可能減少照片，期待用文字描寫關於紅茶的美味，為讀者預留想像空間。
+◆◆由庶民飲品登堂入室，逐漸席捲世界的精品紅茶風潮◆◆
+　　如今，越來越多茶園工廠附有專門的評茶室，能夠立即辨識製成的紅茶特徵。
+　　負責人在確認滋味、香氣與顏色之後，下達微調相關的指示，
+　　使紅茶的風味更顯真醇，躋身精緻飲品之列。
+　　．【茶葉的等級標示】：紅茶茶葉包裝袋上標示的OP與BOP等字眼，即代表茶葉的「等級」，共BOP、OP、F、CTC四種。
+　　．【紅茶的製造方法】：茶葉主要分成「傳統製法」與「CTC製法」，茶葉形狀會隨著製造方法而異，須根據萃取出的紅茶特徵選擇適當的製造方法。
+　　．【紅茶的鑑定方式】：取3g茶葉，放進評茶專用的杯子裡，以150㎖的熱水沖泡，蓋上杯蓋，精準計算3分鐘。
+◆◆辨識紅茶特徵，以合適的製造、沖泡法，喚醒沉睡芬芳◆◆
+　　東方自數百年前，便自成一套完整的泡茶方法，並流傳至今，
+　　其中包括點茶方法、沖泡技巧、飲用禮儀等等，
+　　茶道已經成了一種哲學，茶人講究的不再只是泡出美味的茶，
+　　而是如何在過程中還原茶葉的本性：
+　　．【辨識茶葉與茶色】：除了茶葉種類，生長環境與收穫時期也會造成茶色的細微差異，無論澄澈或深濃，都反應了茶種獨特的個性。
+　　．【紅茶的沖泡方法】：要讓紅茶仿若復甦般「跳躍」，理想溫度是95～98度，沸水要從茶壺上方30㎝高處，以強勁的力道地注入。
+◆◆流芳百世的紅茶茶譜◆◆
+　　紅茶可說是最為隨和的飲品，
+　　添入新鮮水果、果汁、辛香料、香草植物、奶茶與酒精等，
+　　皆會為滋味與香氣帶來豐富的變化。
+　　．【水果紅茶】：檸檬皮上的檸檬油，會與紅茶內的成分形成澀味，以柳橙皮代替檸檬，就能夠營造出帶有低苦味的柑橘類香氣。
+　　．【辛香料紅茶】：肉桂能夠去除紅茶的澀味與苦味，帶來微甜的滋味；小荳蔻與肉豆蔻可以營造出清爽感，丁香與堅果類則可以強調香氣。
+　　．【香草紅茶】：香草植物圓潤且柔和的口感，與滋味深遠強烈的紅茶混合調配，具有緩和的效果。斯里蘭卡的坎地紅茶、印度的尼爾吉里紅茶與肯亞的CTC茶等都能相互凸顯特點。
+　　．【烈酒紅茶】：天寒地凍的俄羅斯，使用果醬與伏特加打造俄羅斯紅茶，愛爾蘭的愛爾蘭奶油茶則添加了威士忌。還有許多茶譜添加白蘭地與紅酒，是寒冷國家特有的飲用方法。
+◆◆原創混合紅茶茶譜◆◆
+　　由專業鑑定師調配紅茶，是英國品茗文化中的一項必備程序，
+　　運用不同茶葉的特性，截長補短，打造出別具特色的混合紅茶，又更具一番樂趣。
+　　倫敦、紐約等城市也逐漸出現依個人喜好調配紅茶的專門店面，
+　　你也可以以紅茶的三大要素──色香味的強弱為基準，
+　　改變紅茶的性質，打造出豐富的風味。
+　　．【大吉嶺混合紅茶】：大吉嶺春摘60％＋ +坎地30％＋努瓦拉艾莉亞10％
+　　．【大吉嶺秋摘混合紅茶】：大吉嶺秋摘40％＋祁門20％＋ +阿薩姆20％＋盧哈娜20％
+　　與紅茶攸關的故事不計其數，搭配比司吉、奶油酥餅，
+　　與至親好友，追溯自中國武夷山開始的紅茶足跡，
+　　在甘甜清爽的香氣、溫柔的風味中療癒心靈，
+　　創造一段屬於你的紅茶奇遇記。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書食譜經過反覆試驗試作，不管是分量、時間，甚至是烤箱溫度都精準記載，
+　　學會基本的麵糊與麵團後，依照材料、填料、配料的不同，可變化多樣應用口味。
+　　即使是今天才開始學習烘焙的新手，也能成功上手。
+　　書中更特別規劃所有新手最想知道的材料特性和保存方法，以及工具選擇和收納等介紹。
+　　新手最容易出錯的關鍵處，一定放大圖片並附上提醒小祕訣，讓人一目了然不失敗！
+　　‧你會正確使用「泡打粉」、「小蘇打」、「乾酵母」嗎？
+　　‧烘焙時，你分得出到底要用「塊狀奶油」、「軟化奶油」，還是「融化奶油」嗎？
+　　‧不多花錢，你相信只用2款花嘴，就能擠出超多變化款的「鮮奶油裝飾」？
+　　‧你知道同一種麵糊，能做「瑪芬」也能做「磅蛋糕」嗎？
+　　‧麵糊和麵團一次做太多，你知道要如何妥善保存嗎？
+本書特色
+　　★101位讀者實證
+　　針對書中食譜，從材料、工具到步驟，一一實作，調整配方到最佳呈現！
+　　★美味兼顧健康
+　　降低奶油和糖的用量，並添加堅果、果乾、蔬菜等食材，設計出不過甜且受大眾喜愛的烘焙。
+　　★111道各式甜點
+　　餅乾、點心、瑪芬、磅蛋糕、塔、派、蛋糕、麵包、吐司，想學什麼一本就夠！
+　　★2000張詳細圖解
+　　Stepbystep照著做，一定成功！關鍵步驟圖貼心特寫，該注意的小祕訣不錯過！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一本專為料理與烘焙初學者所設計的韓國食譜雜誌，以「料理成敗取決於食譜好壞，而非廚藝本身」、「料理初學者照著做也一定會成功」等精神為目標，每道食譜除了專門廚師研發外，會邀請讀者一同試做，用心研擬配方與調整才誕生。而本書正是沿襲《Super Recipe》的製作精神，企劃出一本全是基本烘焙的料理書。著有《道地韓國媽媽家常菜360道》。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10分鐘搞定的「快速早餐提案」
+　　「吃不飽、沒創意、匆忙解決」的早餐時刻，從此不再上演！
+　　◆　拯救「沒時間做早餐」的上班族，120道滿足早餐快速上桌！
+　　本書是作者為了改變每天趕時間，總是狼吞虎嚥解決早餐的混亂早晨，為寶貝女兒設計的「快速愛心早餐食譜」，運用各式食材儲存撇步及烹調方法，在短短時間就能準備一整週的早點，讓全家人每天都好想早起吃早餐，充滿活力的迎接新的一天！本書適合以下四種族群：
+　　．每天早上匆匆忙忙梳洗、總是狼吞虎嚥解決早餐的「學生」。
+　　．沒食慾、沒時間、不愛吃早餐的「上班族」。
+　　．想要每天都能吃到不同口味早餐的「單身貴族」。
+　　．總是為早餐內容想破頭的「家庭主婦」。
+　　◆早餐是一天活力的開始，怎麼做才能快速又好吃？
+　　【10種好吃、好準備的早餐食材】早餐菜色以5天為單位，每天都有不同的變化，新手下廚也不用怕，像是西式的早午餐、麵包搭配濃湯、熱湯的韓式早餐、做點簡單小變化的飯類、三明治等，豐富又多樣，絕對吃不膩！
+　　【善用現成食材的好吃訣竅】媽媽偶爾也會起不來，為了保險起見，可以在家裡囤積一些市售的現成食材，和新鮮食材搭配料理，也能變身魔法般的別具風味的多元早餐。
+　　【把「晚餐變早餐」一樣好吃】只要花點小巧思，將前一晚吃不完的炒菜或飯，就可以變身成「米飯煎餅」或「什錦粥」、「韓式拌飯」，零碎的蔬菜水果還能做成美味的「歐姆蛋」，不費吹灰之力就能做出美味早餐！
+　　【4大料理撇步，從此再也不手忙腳亂】只要將大部份的準備都在前一晚完成，例如將鍋子放在顯眼好拿的地方、事先將米、蔬果等食材洗好、切好，利用周末時間切好一個禮拜份量的菜，每天都能從容的料理早餐給家人吃。
+　　◆滿足全家的味蕾、一個人、二個人吃都很幸福的10分鐘早餐！
+　　【星期一 簡單吃】我的早晨幸福提案──21道快速早餐隨你變化
+　　渡過了一個輕鬆周末，星期一總是捨不得起床，要在禮拜一早起變成格外辛苦的事，而且也會特別沒有食慾，所以，作者特別設計讓星期一的早餐具備「食材簡單」、「好做」、「方便吃」三大特色，充分利用悠閒周末準備未來一周早餐的所需材料，事先將材料切成適口的大小，像烤肉、咖哩、漢堡排也事先做好，分成一小包一小包裝，這樣未來一周就能輕鬆應付早餐了。
+　　【星期二 吃韓菜】挑戰味蕾，偶爾也換換新口味吧──26道全新感受的式早餐
+　　「早上煮韓國料理」很麻煩費事吧？其實，一點都不麻煩！作者整理出快速做好韓式湯品跟配菜的方法，打破韓國飲食傳統，不用麻煩端出好幾碟小菜，只要把食材通通裝進一個碗裡也能打造出讓人滿意的韓式早餐！
+　　【星期三 吃好料】不失敗不費時，家裡就是人氣餐館──16道經典義式&amp;日式料理
+　　家中若有大食量的爸爸及還在發育中的孩子，早餐菜色該如何設計呢？只要用一點點小撇步，用烤箱就能作出酥脆口感的日式炸豬排，用調理機就能快速煮出濃郁的馬鈴薯濃湯，可吃到各種蔬菜與肉類的紐奧良雞肉沙拉、西班牙歐姆蛋、法式蔬菜濃湯等，輕鬆端出餐廳的人氣餐點，不僅滿足全家人口腹，在視覺上也能擁有頂級享受！
+　　【星期四 吃得巧】專為「職場媽媽」設計的早餐食譜──18道當早餐、帶便當都適合的食譜
+　　專門為「職場媽媽」準備的早餐食譜，將「白飯」做出各種不同變化的「手指早餐」，孩子最愛的一口豆皮壽司、三角飯糰、四角壽司等，還有雞蛋飯捲、米飯煎餅等創意早餐，不僅能處理剩飯，外出郊遊、帶便當都很適合喔！
+　　【星期五 吃三明治】變化「麵包」的無限可能！──15道大人小孩都超愛的三明治、土司料理
+　　令人的振奮的Friday！吃膩了飯食，就來份省時又美味的三明治吧！只要下點功夫，傳統三明治也能做出不同的變化，一早就能用好心情來面對忙碌的一天，迎接週休二日的到來。不需動用很多食材，就能做出內餡豐富的餐包，另外像法國棍子麵包、義大利拖鞋麵包、佛卡夏麵包等，每次使用不同麵包，便可做出不同風味的三明治和迷你漢堡。
+　　【週末的幸福早午餐】用「美味早餐」揭開悠閒假期吧！──18道令人興奮的假日早午餐
+　　睡到自然醒的週末早晨，就和家人來頓幸福的早午餐吧！有澎派的美式早午餐食譜、滿滿的海鮮蔬菜做成的炒烏龍麵，特製的調味醬比例，做出媲美餐館的韓式炸雞和部隊鍋，突然想吃滑膩香濃的義大利麵也沒問題！跟家人一起上超市選購食材吧！享受親子同樂的樂趣，也慰勞自己一週的辛勞。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對於料理有極大的熱忱，93年從廣告公司離職轉為家庭主婦後，利用時間考取各種料理師的資格證，即便是完成了烹飪課程，她仍繼續拜專業的廚師為師，學習中式、日式、義式等各國料理。她在女性社群網站上的料理分類中，以Jasmine的ID建立了「82 cook」的部落格，在她的部落格裡，提供許多不失敗的料理食譜以及精彩的文字敘述，因而得到網友的喜愛，進而打響了名氣。
+　　對料理有一股異於常人的好奇心與自己的一套料理哲學，從家常菜到時下流行的餐點都很有研究，喜歡找出獨特與眾不同的料理方法。最近專注於如何做出令家人及孩子滿意的早餐，反應現實潮流的早餐食譜獲得了廣大網友的推崇。
+　　《宮廷美食研究院》宮廷美食研習課程研習結業。
+　　擔任EBS Radio節目《父母時間》中「料理生活的美味故事」單元的來賓。
+　　新世界百貨公司、Grand百貨公司文化中心的歷任講師。
+　　著書有《Jasmine的料理百科》、《職場女人的俐落料理》。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★隨書搭配【10入鳳梨酥長方烤模】，回家就能馬上做！★
+純天然手作，居家創業、自製送禮兩相宜
+最適合送給烘焙友人的鳳梨酥全書
+33種內餡×18款酥皮×40種造型示範
+收錄人氣月餅實作
+★達人級創業配方，烘焙解密不藏私！★
+※台灣烘焙億萬傳奇
+鳳梨酥－是台灣最具代表性的伴手禮點心首選！是台灣人佳節送禮的熱門選項，也是中外觀光客的必買伴手名單～它的魅力，展現了台灣水果讓人難以拒絕的美好滋味，也代表著台灣烘焙產業驚人的軟實力，年年銷售百億的經濟奇蹟，實在不容小覷。
+※從內餡熬煮開始
+因為對鳳梨酥的熱愛，我們從熬煮內餡開始，變化出香草系、水果系以及茶酒系的鳳梨餡變化，也介紹了改變內餡口感的食材類別，讓你的內餡種類更多元。
+※最天然的彩色酥皮
+鳳梨酥的外皮變化，除了五色基底外，還有針對麩質過敏者設計的「全米酥皮」，以及純素者可享用的「綜合堅果穀物酥皮」，滿足大眾的需求外，也讓大家都能享受自己做得快樂與安心！
+※繽紛可愛的造型變化
+其實，鳳梨酥的面貌除了一般的方形或長條形外，也能利用各種模具和裝飾技巧，做出千變外化的可愛造型。酥香的外皮也能變換成馬卡龍、達克瓦茲、一口酥、雪球，誰說鳳梨酥只能是一種模樣呢？！趕快翻開這本佳穎老師的鳳梨酥寶典，一起動手做吧！
+【本書特色】
+★隨書附【TRIARROW黃金比例長方形鳳梨酥烤模】10入
+尺寸：長6.7×寬3.4×高2cm
+材質：鋁合金（陽極處理）
+通過台灣SGS檢測
+符合中華民國食品器具容器包裝衛生標準
+檢驗證號CT/2016/60459
+【推薦人】
+洽發企業股份有限公司．陳澄漳副總經理
+台灣荷康乳品公司．陳慶峰總經</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ 烘焙甜心－杜佳穎 ]
+「做甜點是我很喜歡做的一件事情，甚至是事業了，在這行15年，每天都很開心，心情好或不好都會做點心，希望每次做甜點都成功，這樣才能把甜蜜的喜悅分享給更多人。」
+■獲獎
+2007年台北市鳳梨酥文化節＜創意鳳梨酥競賽金選獎第三名＞
+2011年以&lt;五行元寶旺來餅&gt;榮獲紅點red dot、IF Package Design 等設計大獎
+2013年世界廚王台北爭霸賽職業團體組冠軍
+■現任
+黎明技術學院助理教授
+■經歷
+順成蛋糕、宏亞食品、華福食品、郭元益研發專員
+■證照
+行政院勞工委員會烘焙食品麵包&lt;丙級&gt;
+行政院勞工委員會烘焙食品西點蛋糕麵包&lt;乙級&gt;
+行政院勞工委員會中式麵點酥油皮類&lt;乙級&gt;
+烘焙食品乙丙級監評人員
+■獲獎
+2007年台北市鳳梨酥文化節＜創意鳳梨酥競賽金選獎第三名＞
+2011年以&lt;五行元寶旺來餅&gt;榮獲紅點red dot、IF Package Design 等設計大獎
+2013年世界廚王台北爭霸賽職業團體組冠軍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★日本讀者盛讚，本書絕對是鑄鐵鍋的料理聖經★
+　　★如果還沒買過鑄鐵鍋料理書，絕對該優先購入這本★
+　　★出版即登上日本amazon料理書排行榜，讀者好口碑快速累增★
+　　料理過程不加一滴水，美味UP。「無水料理」就是利用食材本身水分進行烹調的嶄新料理概念，將食材放入鑄鐵鍋，只需一丁點調味料，屏棄多餘不必要的材料，蓋上鍋蓋用中火加熱，再邊斟酌時間邊調整火候便能輕鬆完成菜餚。
+　　無水料理能將美味封存於一鍋中滲透深入食材，不僅健康、飽含水感、滋味濃郁而食材也能維持完好，盛裝於食器時也更美觀。這樣的料理方式即便是道簡單家常菜，也會變得更多汁，轉化為全新的美味料理。
+　　以往只散見在各種料理書中或網路上分享的少數無水料理概念及作法，透過本書作者傾盡全力設計菜單，不管是「燉、煮、煎、炸、燻」方式，還是「肉類、海鮮、蔬菜、甜點」等類別，都一一收錄進書裡，讓讀者們從此不必再四處收集作法，開心吃又放心的照顧自己及全家人的健康。
+本書特色
+　　．第一本鑄鐵鍋無水料理書出版品。
+　　．肉類、海鮮、蔬菜、甜點共83道，品項豐富完整。
+　　．燉、煮、煎、炸、燻，鑄鐵鍋能完成的料理方式全收錄。
+　　．調味料單純，備料容易，提高動手作的意願。
+　　．每道料理清楚標示鍋子口徑，料理份量清楚明白。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料理研究家
+　　定期於料理教室開辦料理課程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★透過烘了幾千鍋咖啡豆的經驗，不斷記錄其中的變化，逐漸將咖啡豆的烘焙科學化、系統化★★
+　　咖啡是科學、是藝術、是技能、是品味、是創作，
+　　發掘每一顆咖啡豆裡的驚嘆號！
+　　每一顆咖啡豆看起來形狀、顏色都差不多，但其中蘊藏著風味祕密。咖啡豆散發出的香、醇、濃、甘風味，都是出自烘豆師的創作之手，再透過沖煮，將咖啡豆裡令人驚嘆的風味祕密完全釋放出來。
+　　尋豆師的精選咖啡豆、烘豆師的完美烘豆曲線，到咖啡師的精湛沖泡技巧
+　　咖啡豆因採集、後製處理、烘焙方式及沖泡技巧展現出不同的風味，幾度的溫差、時間的細微變化，即大幅影響成品質感。帶你了解咖啡豆產地特色、咖啡烘焙技法、咖啡沖煮器材使用、咖啡杯測到經典咖啡沖煮指南，完全實用咖啡豆百科。
+　　►►咖啡生豆烘焙前的工序，影響咖啡風味與口感的關鍵之一
+　　咖啡櫻桃變咖啡生豆須經過許多繁複程序，從咖啡產區的栽種、採收的方式、各種後製處理法、到分級和交易，每個環節都決定了一顆咖啡豆的好壞，追溯手中那杯咖啡的源頭，便能了解其中蘊含的香氣。
+　　►►感受咖啡深度層次，咖啡豆烘焙風味學！你知道你喝到的咖啡到底是花香、水果香，還是酒香？
+　　看似小小咖啡生豆，烘焙成熟豆的過程，就好像將食材煮熟的過程一樣，透過水分含量的變化、梅納反應與焦糖化反應的熟成進展，將咖啡豆由生變成熟，由食材變成芳香，產生千變萬化的香氣，前、中、後段又有不同的韻味。讀懂烘焙履歷，深入了解每一顆咖啡生豆，就能了解咖啡的風味轉折，累積一段品飲經驗，就能培養出辨識香味的直覺！
+　　►►認識萃取原理，沖泡出香氣十足的咖啡！
+　　只要掌握萃取咖啡的基本原則，趕走空氣、飽和、溶解、擴散，並了解咖啡粉和水溶液濃度占比，以及咖啡粉被萃取出多少的比例，就能達到口感平衡的風味。
+　　►►咖啡師不會教你的咖啡實用知識！
+　　你喝到的咖啡源頭是從哪裡來的？
+　　你喝到的是商業豆？莊園豆？精品豆？
+　　淺、中、重烘焙到底有什麼不同？
+　　如何品嘗出一杯好咖啡？
+　　溫度、溼度、時間對咖啡香氣的影響？
+本書特色
+　　★咖啡豆烘焙科學，釋放出99%相似的迷人香氣！
+　　烘豆只有原則而沒有規則，幾度的溫差，就會大幅影響咖啡成品，生豆的含水量和密度、入豆烘焙溫度、一爆和二爆以及出豆的溫度和時間點，從烘焙曲線圖看溫度的變化，創造出相似度99%的咖啡香氣，完美複製一杯咖啡。
+　　★圖解烘焙曲線與風味雷達圖，推展出咖啡風味層次變化
+　　看懂咖啡烘豆曲線圖了解各種影響咖啡風味因素，並從雷達圖的分布，辨識出這款咖啡的風味強度和屬性，品嘗出咖啡的甘、香、酸、醇，找出適合自己的咖啡風味。
+　　★萃取的研究室，理解沖煮參數對咖啡風味的影響！
+　　研磨、時間、溫度、溼度、粉水比、烘焙度、水質、使用的器材等，都是影響最終萃取風味的沖煮參數，了解其中變化，不斷做紀錄，以達到預定的萃取目標，找出適口的咖啡香氣。
+　　★沖煮機具和使用步驟介紹，沖煮出香濃的咖啡
+　　本書介紹了各種烘豆和沖煮咖啡器具的功能，以及手沖壺、濾壓壺、聰明濾壺等各式沖煮咖啡機具沖泡步驟和特色風味描述。
+　　★跟著咖啡師精準地評價一杯咖啡，尋找適合自己的風味
+　　尋找一杯適合自己咖啡，是不斷摸索與品味的過程。跟著書中的咖啡風味描述，了解咖啡風味語言，找出最適合自己的咖啡品味，學習精準評價一杯咖啡香氣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡達人，Vita Café總經理
+　　首創台灣咖啡烘焙履歷，其「智能雲端烘焙履歷系統」獲得發明專利。身為喜愛研究咖啡的人，也是把關進口咖啡豆、烘焙流程及品質控管的Vita Café總經理，希望藉由這本書帶給大家完備的咖啡知識，並推廣鼓勵讀者也能輕鬆嚴選自己喜愛的咖啡風味。
+　　資歷：
+　　旭晶餐飲創辦人兼負責人
+　　「智能雲端烘焙履歷系統」開發負責人
+　　Vita Café智能雲端烘焙履歷系統負責人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日日湯療：中醫師的39道對症家常湯 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要學正宗韓式裱花，入門與精華技術通通都在這一本！
+韓式裱花創始大師的終極私房課程──
+【極美復古調色秘方 ╳ 零失敗的豆沙擠花技巧 ╳ 多變的立體造型組合手法】
+她的學生來自世界各地，不遠千里只為了參加她的私房課程
+她是老師的老師，旗下工作坊訓練出眾多知名裱花蛋糕講師
+掀起全球熱潮，韓式裱花創始人&amp;亞洲裱花大師──柳河榮的第一本教學專書　
+IG詢問度最高的裱花技法秘方，首次詳盡公開！
+★最專業的超值課程內容──
+韓式裱花創始人柳河榮：「我將這段時間以來所有技術與訣竅，無微不至地寫進本書中！」
+書中100%還原其工作室超人氣課程內容，
+讓讀者不用飛至韓國，即可學習大師第一手最專業的韓式裱花技法！
+★極美復古調色秘方──
+IG詢問度最高：人人都想知道，如何做出優雅又帶有一點復古感的極美時尚配色？
+教主自成一流的獨門調色配方：
+只用10種純天然色粉，不使用色膏調色，本書首度公開其製作秘訣！
+★內容最扎實──
+全書共收錄700張以上步驟圖，
+從工具、材料，配方的調製、基礎韓國米糕的製作方式、裱花的基礎入門開始，
+12款韓式健康米糕 ╳ 27款裱花花型教學 ╳ 8大類型裝飾技巧
+示範出組合17款最受歡迎的韓式裱花蛋糕。
+★最清晰易懂──
+共27款人氣花型step by step的擠花教學，每一步驟都配以高畫質照片與細膩的解說，
+花嘴擺放的角度、手的力量收放時機、花瓣重疊多寡的拿捏……等
+TIPS重點提示，如同教主一對一的真人教學指導。
+★示範豐富多變的裱花裝飾技巧──
+花束型、花環型、新月型、豆沙翻糖、豆沙蕾絲圍邊、
+迷你蛋糕裝飾、餐桌中心擺飾、雙層蛋糕風格。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳河榮You ha young
+引發全韓國各地豆沙裱花蛋糕風潮，創造出數萬名粉絲的人氣Instagram作家。現為韓式裱花蛋糕專家協會Rice Edu Lab (라이스에듀랩) 的代表，訓練出全韓國各地的眾多裱花蛋糕講師。
+育有兩名孩子，專注在育兒上的作者，平時喜歡親手做東做西，並將這個特長發揮出來，開始經營兒童廚藝教室。以家為教室教導孩子們，忙碌於事業上。之後正式開始學習平常關注的宮廷料理及糕點類，深深為這些技藝的魅力所傾倒。在裱花蛋糕工房「떡바람（糕之風）」中進行米蛋糕教學。將自己獨有的色彩與技巧活躍展示在Instagram上，現為最熱門的韓式裱花專家。
+從2016年起，在泰國、印尼、中國、新加坡、香港等地的知名烘焙工作室進行裱花蛋糕教學，盛況空前，為宣傳韓式裱花蛋糕的先驅。將來也預計活化韓國國內課程，讓世界跟隨「糕之風」的腳步。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　您知道巧克力原生的味道嗎？
+　　您知道製作巧克力甜點精確的溫度嗎？
+　　生巧克力、調溫巧克力的區別為何？
+　　原來白巧克力的可可含量這麼低？
+　　巧克力一定要經過調溫處理嗎？要如何調溫呢？
+　　巧克力是由研磨可可豆而成的可可膏，及從可可膏分離出的可可脂和砂糖組合而成。
+　　是一種非成接近可可本身味道的高品質巧克力，
+　　本書所介紹的點心皆使用調溫巧克力製作而成。
+　　調溫巧克力依成分的不同，可分為黑巧克力、牛奶巧克力、白巧克力。
+　　利用這些巧克力的特性，動手作出「極上巧克力蛋糕」吧！
+　　．綿密濃厚・巧克力派
+　　．輕盈潤澤・蒸烤巧克力蛋糕  
+　　．酥脆爽口・巧克力夾心餅乾
+　　．絕妙的蓬鬆滋味・巧克力瑞士卷
+　　本書收錄NHK TV人氣講師　小山進的自信之作──巧克力瑞士卷的私房食譜，
+　　對於國際認定的巧克力權威小山進老師而言，
+　　瑞士卷是不僅是巧克力對烘焙人技巧的進階考驗，
+　　也是烘焙人對麵粉、蛋、奶油等食材的運用課程。
+　　就讓小山進大師帶領我們
+　　從巧克力餅乾、蛋糕、可可飲、巧克力磚……一步步學習運用巧克力的基本功，
+　　最後完成「小山卷」這個令烘焙人嚮往不已的極上美味里程碑吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>講師
+　　甜點師傅・巧克力職人
+　　1964年出生於京都。從大阪阿倍野的辻調理師專門學校畢業後，隨即進入神戶洋菓子店工作。2000年獨立創業，並於2003年在兵庫縣三田市展店。以「小山卷」在日本掀起了小山瑞士卷的風潮，並活躍於各個專業領域中。自2011年開始，在巧克力料理世界嶄露頭角，而後連續6年奪下法國權威比賽的最高榮譽。2015年，於米蘭萬國博覽會內召開巧克力研討會，以世界級巧克力職人的身份倍受矚目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　累積15年美食書暢銷經驗的薩巴蒂娜
+　　這次要為料理新手、上班族、外食族、懶人帶來「超簡單的料理縮時法」
+　　下廚不再是揮汗如雨、不再是費九牛二虎之力
+　　三兩下就能快速變出一桌無敵美味又精緻的菜色
+　　★不可不知！「快速料理」就藏在這些「懶」方法中！
+　　◎一周一次採買，買對便宜耐放食材：
+　　醃製品、蛋類、花椰菜、番茄、香菇等都很容易保鮮，
+　　利用周末採買，下班回家後可以直接下廚，不必再奔波到菜市場或超市了。
+　　◎前置作業不費心，就買現成食材：
+　　備料是最耗時間的，可以請商家幫你切好或買那些加工好的，
+　　對零刀工不好或懶得切的人，絕對是一個好方法。
+　　◎烹調要方便，蒸、燉、烤、涼拌最簡單：
+　　不必死守在廚房中，熟了就可以直接關火，
+　　加上些許調味料調味，就成了一道可口料理。
+　　◎善用廚具，加倍省力：
+　　懶得掌握火候、時間以及受熱是否均勻，
+　　找對專攻此問題的鍋具，如燉排骨用壓力鍋、炸薯條用氣炸鍋，相對省事許多。
+　　◎現成複合調味料，調味更方便：
+　　料理要好吃的，關鍵在「調味」，
+　　買些現成調味料，如咖哩、雞湯塊、麻醬、肉醬等，
+　　或是已有味道的食材，如蝦米、海帶、剁椒等，省去調味的麻煩。
+　　★食材輕鬆組合，做出151道營養‧吃不膩的料理！
+　　每道食譜都搭配步驟圖、烹調祕笈以及烹煮時間和難度，
+　　甚至連現代人最重視的養生，也有標示營養成分。
+　　做法簡單易學，5~30分鐘就可以將美味又健康的菜色上桌！
+　　◎超對味下飯菜》&gt;甜酒糟炒臘肉、洋蔥炒冬粉、蒜薹肉末、醬香排骨……
+　　◎飽足主食》&gt;海鮮炒烏龍麵、肉絲炒餅、紫莧菜蒜蓉炒飯、香菇肉醬飯……
+　　◎爽口涼拌》&gt;金針菇拌菠菜、尖椒馬鈴薯絲、涼拌木耳馬鈴薯絲……
+　　◎暖心湯品》&gt;鹹蛋豆腐羹、冬瓜酥肉湯、菠菜生薑魚頭湯、海帶燉牛尾……
+　　◎烤箱料理》孜然沙茶烤魷魚須、烤茄子、香腸烤時疏、烤花蛤……
+　　做菜並沒有想像中的困難，只要加以活用「快速料理的大絕招」，為自己做料理超EASY!
+本書特色
+　　◎一學就會！151道無敵懶料理
+　　超詳細的圖解步驟，料理新手也能成功上手。
+　　◎快速省時！大廚沒教的做菜「偷吃步」
+　　聰明運用現成醃製品及蒸、燉、涼拌，事半功倍變出一桌好菜。
+　　◎貼心指示！打造完美的料理組合
+　　清楚標示所需時間、難易度和營養成分，讓你隨心所欲做搭配。
+　　◎停不了口！好吃又下飯的美味祕訣
+　　掌握入鍋順序、調味料比例，在家也能享受五星級料理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專業美食作者、營養師。前IT界精英，而後進入傳媒產業，先後擔任多家知名美食生活月刊的主編，堅持做最好的美食雜誌與叢書。
+　　曾出版50餘本暢銷美食叢書，更著有以美食為題材的小說及散文集。現在成立個人的美食工作室「薩巴廚房」，向大眾傳播她的美食理念與生活。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在家做點心，是件愉快又輕鬆的工作，只要利用最基本的食材，不需靠太多添加物，就可以輕鬆做出美味又健康的點心，卻能帶來溫馨與幸福的甜蜜滋味。
+　　本書是紀錄作者多年旅遊、學習所得的私房點心，有留學期間跟著英國房東太太學習正統的酒香奶油麵包布丁、多年前的法文老師教做的法式魚派、住在雅典多年的好友提供的希臘巴克拉瓦千層派、兒時最渴望吃到的甜點焗雪山甜品…不同於市面上常見的點心書，沒有多餘的裝飾，卻有來自各地生活美味的記憶與傳承。
+　　全書精選多款甜鹹點，以圖解流程的方式，記載製作時的重點與注意事項，不只是基本的點心，連少見的限定點心，成功率都很高，嚴選的豐富美味，絕對值得愛動手做點心的朋友深入去品味，還有製作各種點心的有趣經驗與體驗也滿載其中，等著您來挖掘。
+本書特色
+　　甜蜜迷人的蛋糕與慕斯：美味的蛋糕總是能帶給人溫馨與幸福的甜蜜滋味，自己動手做，可以充分體驗製作樂趣，是外賣蛋糕無法取代的。
+　　樸實讓人滿足的塔與派：酥脆的塔皮加上內容豐富多變的內餡，總令人愛不嗜手。製作過程只需準備麵糰、準備內餡、再將兩者結合，最後送進烤箱，就能夠與家人、朋友一起分享。
+　　可以很簡單的居家小點：餅乾、煎餅、司康，簡單易學的過程和不算麻煩的製作過程，短時間就可以完成，成品容易讓人有成就感，是初學居家生活小點心的朋友很好的選擇。
+　　繽紛的凍飲與水果甜品：口感豐富、消暑又開胃的果凍、冰飲、布丁、沙拉，繽紛的色彩不但吸睛，嚐起來清爽又解膩，不用待在熱烘烘的廚房費心準備，又能避免太複雜的料理程序，你一定會喜歡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愛狗和貓的時尚淑女，現居台北。
+　　美食、美酒、旅遊專欄作家。
+　　熱情又開朗、夢幻又實際，但有點執著。
+　　特別愛吃美食，擁有精準敏銳舌尖，能在遇到美酒與美食時眼睛為之一亮，並研究烹調方式自己動手做。
+　　最愛與家人和朋友們分享到她的美食與快樂。
+　　已出版「寵愛老公的家常菜」、「新手調酒的第一本書」、「跟我一起情趣過生活」、「愛戀地中海美食」…等書。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大韓擠花蛋糕協會會長親自示範，
+　　收錄許多教學者不會輕易透露的擠花技法與訣竅，
+　　是初學者或專業人士想拿出來一再參考的實用書籍！
+　　快加入這波華麗的美味新潮流，
+　　不必花大錢，在家也能做出兼具視覺與味覺的好滋味！
+　　跟著本書發揮創意，製作出屬於自己夢想中的擠花蛋糕！
+本書特色
+　　☑以淺顯易懂的調色盤解說配色技巧，並舉範例說明調和色的概念，讓你隨時都能配出令人驚豔的絕佳顏色！
+　　☑完整收錄蛋糕體製作、奶油霜調味、調色和配色技巧、擠花花形訣竅、材料保存法，只要一本就可以學得各種擠花蛋糕的技法，實用度百分百！
+　　☑500張以上的詳盡步驟圖，搭配韓國擠花協會會長親自示範的QR CODE，即使是初學者，也能一看就會，讓擠花變得超簡單！
+　　☑不論是高貴的玫瑰、雅致的菊花、可愛的多肉植物，都能在不同的蛋糕體上活靈活現，擬真效果奇佳！
+　　☑針對不同年齡層、身分、性別和各種紀念日設計，讓你隨時都能送出讓對方心儀的蛋糕！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">現任大韓擠花蛋糕協會會長暨LA CRÈME學院代表。2013年創立韓國第一個擠花蛋糕協會，建立一般資格證制度，並將營運版圖跨足到海外，以香港為起點，進軍英、美及歐洲等地，致力推廣擠花蛋糕。她目前經營LA CRÈME學院，教授糕點烘焙、提供國內外甜點相關資訊，並撰寫雜誌專欄。
+　　作者自幼便喜歡美食與美麗的事物，就讀於慶熙大學餐飲學系時，更深深被「兼具美味與外觀的蛋糕」吸引。任職於Crown Bakery與Baskin Robbins期間，負責各項商品的企劃開發，之後在各大專門學校與企業講授烘焙課程，體驗教學的樂趣。她期望能透過烘焙與擠花蛋糕，和更多人相遇、相識，創造美好的人生。
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　6大人氣主題佈置、超過60款可自選難度親製的甜點教學，完美規劃派對的必備指南！
+　　從歐美流行而來的Candy Bar甜點桌旋風，隨著網路社群影像的強力播散，越來越多人也開始在結婚典禮、週歲生日等重要時刻，一舉多得地選用甜點桌來佈置空間同時款待賓客，創造出一幕幕令人難忘的回憶畫面。
+　　《創意甜點桌》由「G Cake Revolution」小綠老師，針對婚禮、週歲、節日及特殊主題等，以6種風格迥異的大型派對甜點桌，集結翻糖蛋糕、杯子蛋糕、棒棒糖蛋糕、巧克力、餅乾、奶凍及創意飲品…等，帶來各式精彩必學的甜點裝飾法，與精緻的佈置概念。除了裝飾技巧外，基礎食譜教學及製作技巧也一應俱全，由零開始學習也不擔心。從各式造型甜點到飲品的全方位甜點桌規劃，在你不論是想自己籌辦主題派對，或是為了創業多角化學習時，都可以在本書中找到靈感及實際執行的方法。
+　　甜點桌的最大魅力在於，每個親眼目睹的人都會忍不住由衷發出驚嘆，一個個像是藝術品卻又能食用的精彩甜點設計，是視覺享受也是味覺享受，組合成一種嶄新的生活體驗。歡迎一起走進如夢似幻的Candy Bar甜點桌世界，吸收種種絕對讓賓主盡歡的創意想法，運用書中的技巧，讓未來的每個紀念日都更加繽紛燦爛且獨一無二。
+本書特色
+　　1.人氣話題的主題甜點桌設計：
+　　宇宙銀河的星空效果、童話繽紛的奇幻歷險主題、恐怖趣味的萬聖節，各種關鍵元素交織，帶來滿滿的創意刺激。
+　　2.收錄最常用也最好用的基礎食譜：
+　　絕對必學的蛋糕及餅乾食譜教學，一種食譜多種用途的技巧延伸，變化出更多好運用的甜點形態。
+　　3.示範角度講究的超大圖解教學：
+　　一步一圖，講究細部製作看得明確，即便是新手跟著做都能加倍有信心。
+　　4.基礎裝飾技巧分別教授：
+　　不同的裝飾材料都有對應的實用技巧，在本書中一一說明，讓你更能善用材料做出想要的效果。
+　　5.基礎到進階難度自選建議：
+　　可選擇不同難度建議的甜點品項來製作，無論個人烘焙程度的高低，都能無壓力地參考。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">G Cake Revolution 小綠老師
+　　師資：
+　　英國PME蛋糕裝飾認證教師
+　　日本JSA糖霜餅乾認證講師
+　　蛋糕裝飾比賽經歷與相關展出：
+　　2016年
+　　英國Cake International 國際組A類比賽–金獎
+　　2016年
+　　英國Cake International 杯子蛋糕組O類比賽–銅獎
+　　2016年
+　　台北國際烘焙展與Quality Sprinkles合作展出作品
+　　2017年
+　　台北國際烘焙展與Quality Sprinkles合作展出作品
+　　蛋糕裝飾與烘焙相關證書：
+　　PME Sugar Flower Certificate (PME糖花證書)
+　　PME Royal Icing Certificate (PME皇室糖霜證書)
+　　PME Sugar Paste Module Certificate 
+　　(PME翻糖技巧運用證書)
+　　PME Master Certificate(PME傑出證書)
+　　Wilton Course 1 Certificate (Wilton擠花初階證書)
+　　Wilton Course 2 Certificate (Wilton擠花進階證書)
+　　烘焙食品麵包–丙級證書
+　　烘焙食品西點蛋糕–丙級證書
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">你是為了每天吃什麼而感到煩惱的上班族嗎？ 
+　　你是每天為了菜色變化而煩惱的家庭主婦嗎？
+　　你曾經是個對做菜感到困擾，卻不知從何開始的料理新手嗎？
+　　在自己家裡下廚做菜，不但可以省錢，做出自己喜歡的口味，又能解決蔬菜攝取不足的問題。
+　　但下班後已累了一天，下廚又很辛苦、很麻煩，要洗要切，準備一堆，浪費時間……怎麼辦呢？
+　　本書乃為忙碌的現代人所設計，以好吃、便宜、快速、省事、簡單、創意為原則，共分成主食、肉類、海鮮、蔬菜、湯品與甜點等六大單元，設計出100道料理，每道菜都有詳細圖解與MASA的體貼叮嚀，即使從來沒做過菜的人，只要擁有這本書，就能漸進式學會烹飪基礎，享受下廚做菜的樂趣。
+本書特色
+　　◎100道菜以step by step方式呈現＋超過1000張超詳細步驟圖＋MASA互動式貼心提醒
+　　＝料理新手踏入廚房的第一本書
+　　◎使用器具簡單＋材料隨手可得＋別出心裁與超級創意的100道食譜
+　　＝超Easy＋零失敗＋成就感，料理新手的最佳選擇
+　　◎MASA20年專業廚師經驗＋食譜設計簡單易學＋來自部落格、facebook世界各國粉絲應援團的支持與肯定！！
+　　＝下廚做菜不再累、麻煩、辛苦，而是變成「好玩＋快樂＋幸福」的事
+　　◎感受MASA的魅力，歡迎來MASA的廚房，與我們共享料理世界的幸福與樂趣！！
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本人MASA，是典型的宅男廚師。
+　　以前在日本是法國料理餐廳的廚師，後來在加拿大學英文與商業管理，也了開餐廳，六年前搬來台灣，開始在餐飲店當料理顧問。
+　　住在國外十幾年，MASA觀察到不管哪一國人都覺得，煮菜＝很累＋很辛苦＋很麻煩……
+　　所以他想要修正這個方程式，讓煮菜＝好玩＋快樂＋幸福！
+　　於是，他以20年的廚師經驗＋（初級的）超可愛中文，（so-so的）英語＋（一點點的）電腦知識＋（還好的）料理攝影技術，開始在部落格教導料理新手如何做菜。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渾圓飽滿，緊密地並排在一起的麵包，一個一個撕下來再送進嘴裡……這就是模樣可愛、讓人難以抗拒其魅力的「手撕麵包」。
+　　對於這款在台灣和日本都人氣高漲的麵包，大家是不是很想嘗試在家自己動手做做看呢？可是考慮到沒有烤箱或模具這些問題，又擔心自己沒有做麵包的經驗，一想到就覺得困難重重，往往還沒開始就放棄了。
+　　請大家安心！本書就是麵包新手的救星，所介紹的食譜都是不需要動用到烤箱，只用「平底鍋」就能完成烘製的「手撕麵包」。詳細標示麵糰的調配比例與揉麵步驟，還有48 款花式創意配方，即便是第一次製作麵包的人，也絕對能夠成功地烤出美味可口的手撕麵包！
+　　【本書重點】
+　　(1)烤箱、模型統統不需要。
+　　只要一只平底鍋就能烤出美味可口的手撕麵包！
+　　(2)發酵、烘烤都在平底鍋裡完成！
+　　簡化製作流程，麵包新手也沒問題。
+　　(3)從揉麵到起鍋，七十分鐘左右就能搞定！
+　　製作麵包通常需要花上兩、三個小時，
+　　採用書中介紹的方法，製作時間至少可以縮短一半。
+　　(4)48 款花式創意配方
+　　口感鬆軟Q彈，口味變化多端，讓人每天都吃不膩！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料理研究家。葡萄酒侍酒師。從日常菜餚，到佐酒小菜，以讓人看了就想一再地烹調製作的食譜最富人氣。以書籍、雜誌、廣告為主，廣泛地參與活動中。近著有《ほんとうにおいしいスムージーＢＯＯＫ》（成美堂出版）等。熱衷於研究與透過每天的試做，完成初學者也不失敗的《平底鍋手撕麵包》一書。認為越製作越能夠提昇能量，以「潛能無限」為座右銘，深入鑽研料理。最喜歡「鹽奶油風味」的手撕麵包。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忙碌時，每天花不到10分鐘，就可以在家享受美好的Brunch！下午想和姊妹們相聚時，也可以簡單第做出花卉裝飾在甜點上，增添視覺的美味口感。假日時，大小朋友可以親自動手做，品嘗自己喜愛的點心。出外探訪朋友時，自己做的點心可是健康又有誠意伴手禮！歡樂聚會時，不用花大錢，只要花點時間，就可以增進家人和朋友的親密感情。一台鬆餅機，輕鬆解決製作點心的所有問題！六大單元，100道美味食譜，享受自在的美好生活，就從這本書開始！
+　　延續《日本最風行每家必備的鬆餅機食譜：烘焙新手必學100道不用烤箱也能即時享用的超人氣美味小點心》，作者費盡心思，再度研發出100道可口美味、賞心悅目的小點心。不管鬆餅、煎餅、三明治、蛋糕、貝果、漢堡、餅乾、鹹點、塔、派與各式甜品等，讓人絕對意想不到的各式美味，只要一台鬆餅機與不同造型的烤盤，就能完全搞定！免烤箱，免技術，只要10分鐘，您也能輕易變化出屬於完全您自己的100道創意點心食譜！
+本書特色
+　　★免烤箱！免技術，只要一台鬆餅機和不同造型的烤盤，每天花不到10分鐘，就能變化出100道各式各樣食譜。
+　　★六大主題，內容豐富完整，您可依不同需求挑選適合自己的小點心，無論是鬆餅、煎餅、三明治、蛋糕、貝果、漢堡、餅乾、鹹點、塔、派與各式甜品等，都能輕易完成。
+　　★每道料理都由作者實際操作，1500張照片超詳細圖解，加上正確的材料與完整的步驟，讓您事半功倍。
+　　★從為自己家人做點心為出發點，書中每道點心都有作者的心情小筆記，與您一起分享做點心的心得與注意事項。
+　　★書後附有各種烤模食譜索引，讓您能以自己的需求，快速找尋到自己想做的點心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現任
+　　․Home-Cake〈烘焙課〉北大社區烘焙老師
+　　經歷
+　　․八大電視《娛樂百分百》美廚娘甜點老師
+　　․八大電視《生活一級棒》甜點達人
+　　․親親文化自然研習〈好吃的點心〉授課老師
+　　․長庚大學繁星計畫烘焙指導老師
+　　․臺科大推廣教育中心烘焙老師
+　　․真理大學推廣教育烘焙老師
+　　證照
+　　․中華穀類食品工業技術研究所結業
+　　․烘焙丙級技術士麵包類檢定及格
+　　․烘焙乙級技術士西點、蛋糕、麵包類檢定及格
+　　․中餐烹調葷食丙級技術士檢定及格
+　　․2016年日本JSA 花卉蛋糕講師資格
+　　著作
+　　․《日本最風行每家必備的鬆餅機食譜2：免烤箱，免技術，新手必學，全新100道即時享用的創意美味小點心》
+　　․《想吃就吃！只用平底鍋就能做出100道中西日式糕點心》
+　　․《自己做！網友最愛，秒殺團購名點&amp;伴手禮Top100：全台最Hot，100款新手也不會失敗的美味配方，1000張照片完全圖解！》
+　　․《日本最風行每家必備的鬆餅機食譜：烘焙新手必學100道不用烤箱也能即時享用的超人氣美味小點心》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8大類、34道麵包，包括法國麵包、歐式麵包、可頌麵包、吐司、台式甜麵包、星野酵母麵包、貝果、冠軍麵包等
+　　900餘張照片，解說詳盡
+　　獻給每一個喜歡吃麵包、做麵包的你
+　　只要你愛麵包，這本書就適合你
+　　一塊麵包，像是一座森林、一座海洋，每一回探索做出好味麵包的過程，都像是一次尋寶歷險，終於尋獲藏寶時，心中充盈著喜悅和滿足，那份悸動豐沛巨大到只想與人分享。
+─吳寶春
+本書特色
+　　1.第一次：千呼萬喚始出來，台灣麵包師傅之光吳寶春的第一本麵包食譜書。
+　　2.應有盡有：34道麵包食譜，5種老麵的製作方式，12種麵包餡料的做法。
+　　3.烘焙界的聖經：最詳細的做法與圖解，降低失敗的風險；並有吳寶春不藏私的「叮嚀」，提供做出麵包最受用的祕訣。
+　　4.最佳賞味期：教你吃出麵包的最佳風味，讓你了解延長麵包美味期限的訣竅。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一九七○年生，十五歲開始到台北當麵包學徒，二十多年來埋首在傳統麵包與新式麵包的世界，堅持好還要更好，對美味鍥而不捨，期許自己能做出幸福的味道。製作麵包時極度講究食材，時常會親自跑到食材產地挑選、研究，感受農民們的用心，共同分享自己利用當地食材製作出來的麵包。
+　　二○○五年，組隊參加素有「麵包界奧林匹克」美譽的「樂斯福麵包大賽」，一路從台灣冠軍征戰到亞洲區冠軍；二○○八年，用台南縣東山鄉的古法煙燻龍眼乾、精心培養的老麵、香醇的紅酒烘焙出「酒釀桂圓」麵包，獲得世界盃銀牌；二○一○年，「荔枝玫瑰」麵包再次以台灣在地荔枝乾、埔里有機玫瑰等食材，打敗世界各國重量級麵包師傅，奪得「世界麵包大師賽」冠軍！不僅成功把台灣土地孕育出來的食材推向國際，也從此找到麵包世界的無限可能。
+　　二○一○年十一月在高雄開設第一家「吳寶春麵包店」，秉持著貼心服務的態度，將近三年後在台北開設第二家店。
+　　著有：《柔軟成就不凡：奧林匹克麵包師吳寶春》（寶瓶文化出版）、《吳寶春的味覺悸動》、《吳寶春嚴選 感心好食材》、《吳寶春按讚 健康優土產》（以上時報出版）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●經期保養
+　　●孕期保養
+　　●坐月子保養
+　　●產後身形恢復及保養
+　　共60道精選食譜，為每一位新手媽咪提供最整全的食補方案
+　　雯婷的文字親切真摯，讀之有如喝了一碗她推薦的養生湯品，不只暖胃舒心，更讓人由衷地想好好呵護自己與親愛的家人。
+　　願此書能到達所有追求美好事物、由內而外散發光彩的女性手中。
+　　——《簡單‧豐盛‧美好：祖宜的中西家常菜》作者 莊祖宜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真名楊黎，國際註冊高級營養師，擅長並熱衷於製作美白養顏瘦身的健康餐、孕媽媽食譜、月子餐及產後美體修復食療，深度鑽研美食且迷戀影像和文字的雙魚座。
+　　被媒體稱為將廚房當成工作室、將煮菜當成創作的食品藝術家，因愛而與美食結緣，也因夢想而堅持自己的家庭廚房創作，深刻體會到料理是品味人生幸福的第一課，希望讀者因而啟程並有所收穫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　每當站在玻璃櫃前，看著一個個宛如藝術品的法式小蛋糕，內心便會泛起一股無法言喻的幸福感。小巧精緻的蛋糕盛在盤子裡，完全就是屬於一個人獨享的美味。這些只有在甜點專賣店看得到的可口小蛋糕，其實也可以在家輕鬆做出！
+　　本書是由曾赴巴黎學藝，並在日本多間知名甜點店任職過的熊谷裕子所撰寫的食譜。書中透過大量的照片詳述分蛋海綿蛋糕、甜塔、裝飾巧克力的基本作法，並以簡單易懂的方式說明擠花、披覆鏡面淋醬、利用新鮮水果裝飾的專業技法。只要學會這些技巧，想要做出師傅級的法式小蛋糕一點都不難！
+　　【本書精彩內容】
+　　法式小蛋糕  4種模具與4種裝飾技巧
+　　即使僅使用4種模具，只要多花點巧思，一樣可以製作出豐富的法式小蛋糕。
+　　以下將介紹可以讓法式小蛋糕的外觀更加精緻美麗的4種裝飾技巧。
+　　1 側面
+　　因為是一人一份，所以法式小蛋糕會盛放在小盤子中端上桌。由於想要同時強調這款蛋糕正面與側面的視覺效果，因此側面也是裝飾重點。改變造型的時候，可以多加留意側面呈現的效果，將不同材料層層重疊，或是利用水果與巧克力加以裝飾。
+　　【成品】爽口乳酪慕斯 × 春之慕斯 × 柳橙巧克力慕斯
+　　2 立體感
+　　想要在盤子上展現出華麗的存在感，不妨為小蛋糕加上更生動的立體裝飾吧。例如將水果立起擺放，或是將鮮奶油朝上擠花。裝飾的時候只要不斷留意要「往上再往上」，即使是小巧的蛋糕，同樣能夠呈現華麗的一面。
+　　【成品】卡布奇諾蛋糕 × 覆盆子開心果芭芭羅瓦凍 × 巧克力塔
+　　3 光澤感
+　　光澤亮麗的裝飾手法能讓完成的蛋糕看起來更加專業。利用巧克力鏡面淋醬讓表面呈現如同絲綢般的光澤，或用鏡面果膠增添視覺效果，方法可說是琳琅滿目。如果想利用水果呈現新鮮的光澤感，可以切開蛋糕露出切面，水潤的光澤感會更加吸引人。
+　　【成品】焦糖香蕉半圓球蛋糕 × 紅色鏡面果膠與白巧克力半圓球蛋糕 × 焦糖蘋果蛋糕
+　　4 季節感
+　　不管是什麼樣的料理，只要稍微留意“季節感”，不僅可以讓餐桌更加華麗，話題也會變得更豐富。而法式小蛋糕只要使用當季水果，或是運用會讓人聯想到四季的色彩來裝飾整體，就能夠充分展現出春夏秋冬的氣息。
+　　【成品】白巧克力奶油莓果塔 × 焦糖西洋梨塔 × 芒果葡萄柚慕斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1973年出生於日本神奈川縣。青山學院大學法文學系就讀期間曾在巴黎里茲．愛斯克菲爾廚藝學院（The Ecole Ritz Escoffier）研修甜點課程。畢業後，先後在葉山「ILE DE ST. LOUIS」、橫濱「Region」、世田谷「Le Patissier Takagi」等甜點店任職，2002年於神奈川縣中央林間創設甜點教室「craive sweets kitchen」。2011年在文京區的千石開辦「Atelier Lekado」講座。採實習體驗的小班制方式上課，在撰寫糕點書籍與雜誌書方面亦十分活躍。近期著作有《特別日子的裝飾蛋糕與小甜點》（暫譯，日本河出書房新社），另有中文譯作《終於發現秘訣！巧克力甜點完美製作技巧》（瑞昇出版）、《究極蛋糕甜點裝飾技法：菓子職人的PRO技》（邦聯文化）。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1848,6 +3712,28 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF232323"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF232323"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1874,7 +3760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1894,6 +3780,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2197,7 +4089,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2207,8 +4099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2227,7 +4119,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2245,2910 +4137,3315 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="H1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="I1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H2" s="4">
         <v>43098</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="E3" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="F3" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="G3" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H3" s="4">
         <v>43084</v>
       </c>
       <c r="I3" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E4" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="F4" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="G4" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H4" s="4">
         <v>43067</v>
       </c>
       <c r="I4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D5" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="E5" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F5" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G5" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H5" s="4">
         <v>38169</v>
       </c>
       <c r="I5" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="E6" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="F6" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G6" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H6" s="4">
         <v>43096</v>
       </c>
       <c r="I6" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="E7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="F7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G7" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H7" s="4">
         <v>43189</v>
       </c>
       <c r="I7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="E8" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="F8" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="G8" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H8" s="4">
         <v>43187</v>
       </c>
       <c r="I8" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="B9" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C9" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F9" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G9" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H9" s="4">
         <v>43096</v>
       </c>
       <c r="I9" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="E10" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="F10" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="G10" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H10" s="4">
         <v>42977</v>
       </c>
       <c r="I10" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D11" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="E11" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="F11" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G11" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H11" s="4">
         <v>43048</v>
       </c>
       <c r="I11" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="E12" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="F12" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G12" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H12" s="4">
         <v>41549</v>
       </c>
       <c r="I12" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="E13" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="F13" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G13" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H13" s="4">
         <v>43189</v>
       </c>
       <c r="I13" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="E14" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="F14" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G14" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H14" s="4">
         <v>43141</v>
       </c>
       <c r="I14" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="E15" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="F15" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="G15" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H15" s="4">
         <v>38169</v>
       </c>
       <c r="I15" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B16" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C16" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="D16" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="E16" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="F16" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G16" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H16" s="4">
         <v>38169</v>
       </c>
       <c r="I16" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="E17" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="F17" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="G17" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H17" s="4">
         <v>43084</v>
       </c>
       <c r="I17" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="E18" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="F18" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G18" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H18" s="4">
         <v>43131</v>
       </c>
       <c r="I18" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="D19" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="E19" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="F19" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="G19" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H19" s="4">
         <v>41165</v>
       </c>
       <c r="I19" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="E20" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F20" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G20" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="H20" s="4">
         <v>42795</v>
       </c>
       <c r="I20" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="D21" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="E21" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F21" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G21" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H21" s="4">
         <v>43141</v>
       </c>
       <c r="I21" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
+        <v>549</v>
+      </c>
+      <c r="E22" t="s">
+        <v>550</v>
       </c>
       <c r="F22" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="G22" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H22" s="4">
         <v>43084</v>
       </c>
       <c r="I22" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>551</v>
+      </c>
+      <c r="E23" t="s">
+        <v>552</v>
       </c>
       <c r="F23" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="G23" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H23" s="4">
         <v>43131</v>
       </c>
       <c r="I23" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>175</v>
+        <v>553</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
+      <c r="C24" t="s">
+        <v>554</v>
+      </c>
+      <c r="D24" t="s">
+        <v>555</v>
+      </c>
+      <c r="E24" t="s">
+        <v>556</v>
+      </c>
       <c r="G24" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H24" s="4">
         <v>43160</v>
       </c>
       <c r="I24" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="25.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="D25" t="s">
+        <v>557</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>558</v>
       </c>
       <c r="F25" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G25" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H25" s="4">
         <v>43167</v>
       </c>
       <c r="I25" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="D26" t="s">
+        <v>559</v>
+      </c>
+      <c r="E26" t="s">
+        <v>560</v>
       </c>
       <c r="F26" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G26" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H26" s="4">
         <v>42887</v>
       </c>
       <c r="I26" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="D27" t="s">
+        <v>561</v>
+      </c>
+      <c r="E27" t="s">
+        <v>562</v>
       </c>
       <c r="F27" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="G27" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H27" s="4">
         <v>43047</v>
       </c>
       <c r="I27" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
+        <v>563</v>
+      </c>
+      <c r="E28" t="s">
+        <v>564</v>
       </c>
       <c r="F28" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G28" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H28" s="4">
         <v>43200</v>
       </c>
       <c r="I28" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G29" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H29" s="4">
         <v>43217</v>
       </c>
       <c r="I29" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="E30" t="s">
+        <v>566</v>
       </c>
       <c r="F30" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G30" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H30" s="4">
         <v>42489</v>
       </c>
       <c r="I30" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
+        <v>567</v>
+      </c>
+      <c r="E31" t="s">
+        <v>568</v>
       </c>
       <c r="F31" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="G31" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="H31" s="4">
         <v>43216</v>
       </c>
       <c r="I31" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="D32" t="s">
+        <v>569</v>
       </c>
       <c r="F32" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="G32" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H32" s="4">
         <v>43070</v>
       </c>
       <c r="I32" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>570</v>
+      </c>
+      <c r="E33" t="s">
+        <v>571</v>
       </c>
       <c r="F33" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G33" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H33" s="4">
         <v>38169</v>
       </c>
       <c r="I33" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="D34" t="s">
+        <v>572</v>
       </c>
       <c r="F34" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G34" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H34" s="4">
         <v>43175</v>
       </c>
       <c r="I34" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>177</v>
+        <v>573</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
+      <c r="D35" t="s">
+        <v>574</v>
+      </c>
+      <c r="E35" t="s">
+        <v>575</v>
+      </c>
       <c r="F35" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="G35" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H35" s="4">
         <v>43040</v>
       </c>
       <c r="I35" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="D36" t="s">
+        <v>576</v>
+      </c>
+      <c r="E36" t="s">
+        <v>577</v>
       </c>
       <c r="F36" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="G36" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H36" s="4">
         <v>39264</v>
       </c>
       <c r="I36" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="D37" t="s">
+        <v>579</v>
+      </c>
+      <c r="E37" t="s">
+        <v>578</v>
       </c>
       <c r="F37" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G37" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H37" s="4">
         <v>43075</v>
       </c>
       <c r="I37" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="28.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>583</v>
       </c>
       <c r="F38" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="G38" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H38" s="4">
         <v>43243</v>
       </c>
       <c r="I38" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="42.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>584</v>
       </c>
       <c r="F39" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G39" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H39" s="4">
         <v>42279</v>
       </c>
       <c r="I39" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="25.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>178</v>
+        <v>586</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
+      <c r="C40" t="s">
+        <v>587</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>589</v>
+      </c>
       <c r="F40" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G40" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H40" s="4">
         <v>43125</v>
       </c>
       <c r="I40" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="36.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>590</v>
       </c>
       <c r="F41" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G41" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H41" s="4">
         <v>43187</v>
       </c>
       <c r="I41" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G42" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H42" s="4">
         <v>43122</v>
       </c>
       <c r="I42" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="26.25" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>592</v>
       </c>
       <c r="F43" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G43" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H43" s="4">
         <v>38169</v>
       </c>
       <c r="I43" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F44" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="G44" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H44" s="4">
         <v>41709</v>
       </c>
       <c r="I44" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="31.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>594</v>
       </c>
       <c r="F45" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G45" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H45" s="4">
         <v>43201</v>
       </c>
       <c r="I45" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="31.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>596</v>
       </c>
       <c r="F46" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="G46" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H46" s="4">
         <v>42740</v>
       </c>
       <c r="I46" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="46.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>597</v>
       </c>
       <c r="F47" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="G47" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H47" s="4">
         <v>38169</v>
       </c>
       <c r="I47" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="26.25" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>599</v>
       </c>
       <c r="F48" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G48" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H48" s="4">
         <v>42203</v>
       </c>
       <c r="I48" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="22.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
+      <c r="C49" t="s">
+        <v>603</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>601</v>
+      </c>
       <c r="F49" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="G49" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H49" s="4">
         <v>42522</v>
       </c>
       <c r="I49" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="21.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>605</v>
       </c>
       <c r="G50" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H50" s="4">
         <v>42865</v>
       </c>
       <c r="I50" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
       </c>
       <c r="F51" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="G51" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H51" s="4">
         <v>40793</v>
       </c>
       <c r="I51" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="24.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>606</v>
       </c>
       <c r="F52" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G52" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="H52" s="4">
         <v>42262</v>
       </c>
       <c r="I52" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="28.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>227</v>
+        <v>608</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>609</v>
       </c>
       <c r="F53" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G53" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H53" s="4">
         <v>43158</v>
       </c>
       <c r="I53" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="19.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>611</v>
       </c>
       <c r="F54" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="G54" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H54" s="4">
         <v>42475</v>
       </c>
       <c r="I54" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F55" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G55" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="H55" s="4">
         <v>42795</v>
       </c>
       <c r="I55" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="24.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>139</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>613</v>
       </c>
       <c r="F56" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G56" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H56" s="4">
         <v>42874</v>
       </c>
       <c r="I56" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
       <c r="F57" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="G57" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H57" s="4">
         <v>43075</v>
       </c>
       <c r="I57" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="23.25" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>140</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>615</v>
       </c>
       <c r="F58" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G58" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H58" s="4">
         <v>43103</v>
       </c>
       <c r="I58" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
       <c r="F59" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G59" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H59" s="4">
         <v>42370</v>
       </c>
       <c r="I59" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="28.5" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>617</v>
       </c>
       <c r="F60" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G60" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H60" s="4">
         <v>42993</v>
       </c>
       <c r="I60" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="28.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>619</v>
       </c>
       <c r="F61" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="G61" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H61" s="4">
         <v>42103</v>
       </c>
       <c r="I61" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="27.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>621</v>
       </c>
       <c r="F62" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="G62" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H62" s="4">
         <v>42522</v>
       </c>
       <c r="I62" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="20.25" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>623</v>
       </c>
       <c r="F63" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="G63" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H63" s="4">
         <v>43096</v>
       </c>
       <c r="I63" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="18.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>625</v>
       </c>
       <c r="F64" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="G64" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H64" s="4">
         <v>43124</v>
       </c>
       <c r="I64" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>627</v>
       </c>
       <c r="F65" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G65" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H65" s="4">
         <v>42550</v>
       </c>
       <c r="I65" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="17.25" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>629</v>
       </c>
       <c r="F66" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G66" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H66" s="4">
         <v>42783</v>
       </c>
       <c r="I66" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
       <c r="F67" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G67" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H67" s="4">
         <v>43189</v>
       </c>
       <c r="I67" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="28.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>149</v>
+        <v>147</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>631</v>
       </c>
       <c r="F68" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="G68" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H68" s="4">
         <v>43117</v>
       </c>
       <c r="I68" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="23.25" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>633</v>
       </c>
       <c r="F69" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G69" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H69" s="4">
         <v>43005</v>
       </c>
       <c r="I69" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
       <c r="F70" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G70" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H70" s="4">
         <v>43193</v>
       </c>
       <c r="I70" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="27.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>635</v>
       </c>
       <c r="F71" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G71" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="H71" s="4">
         <v>40534</v>
       </c>
       <c r="I71" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="19.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>637</v>
       </c>
       <c r="F72" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G72" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H72" s="4">
         <v>43067</v>
       </c>
       <c r="I72" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="24.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>639</v>
       </c>
       <c r="F73" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="G73" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H73" s="4">
         <v>40793</v>
       </c>
       <c r="I73" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="23.25" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>151</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>641</v>
       </c>
       <c r="F74" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G74" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H74" s="4">
         <v>42130</v>
       </c>
       <c r="I74" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="28.5" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>643</v>
       </c>
       <c r="F75" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G75" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H75" s="4">
         <v>42767</v>
       </c>
       <c r="I75" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="26.25" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>644</v>
       </c>
       <c r="F76" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="G76" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H76" s="4">
         <v>43175</v>
       </c>
       <c r="I76" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="28.5" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>156</v>
+        <v>648</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>646</v>
       </c>
       <c r="F77" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G77" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H77" s="4">
         <v>43187</v>
       </c>
       <c r="I77" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="21.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>650</v>
       </c>
       <c r="C78" t="s">
-        <v>157</v>
+        <v>651</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>649</v>
       </c>
       <c r="F78" t="s">
+        <v>475</v>
+      </c>
+      <c r="G78" t="s">
         <v>484</v>
-      </c>
-      <c r="G78" t="s">
-        <v>493</v>
       </c>
       <c r="H78" s="4">
         <v>39112</v>
       </c>
       <c r="I78" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="26.25" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="C79" t="s">
+        <v>653</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>655</v>
       </c>
       <c r="F79" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G79" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H79" s="4">
         <v>42886</v>
       </c>
       <c r="I79" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>666</v>
       </c>
       <c r="F80" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="G80" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H80" s="4">
         <v>42586</v>
       </c>
       <c r="I80" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81" t="s">
-        <v>141</v>
-      </c>
-      <c r="F81" t="s">
-        <v>476</v>
+        <v>80</v>
       </c>
       <c r="G81" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H81" s="4">
         <v>42669</v>
       </c>
       <c r="I81" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="20.25" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>158</v>
+        <v>139</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>656</v>
       </c>
       <c r="F82" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="G82" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H82" s="4">
         <v>42368</v>
       </c>
       <c r="I82" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="18.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>159</v>
+        <v>154</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>658</v>
       </c>
       <c r="F83" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="G83" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H83" s="4">
         <v>42795</v>
       </c>
       <c r="I83" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="24.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>660</v>
       </c>
       <c r="F84" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
       <c r="G84" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H84" s="4">
         <v>41918</v>
       </c>
       <c r="I84" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="20.25" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>662</v>
       </c>
       <c r="F85" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="G85" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="H85" s="4">
         <v>43157</v>
       </c>
       <c r="I85" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="31.5" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>162</v>
+        <v>157</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>664</v>
       </c>
       <c r="F86" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="G86" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H86" s="4">
         <v>43193</v>
       </c>
       <c r="I86" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="22.5" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>163</v>
+        <v>158</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>667</v>
       </c>
       <c r="F87" t="s">
-        <v>486</v>
+        <v>448</v>
       </c>
       <c r="G87" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H87" s="4">
         <v>43192</v>
       </c>
       <c r="I87" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>669</v>
       </c>
       <c r="F88" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="G88" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H88" s="4">
         <v>43203</v>
       </c>
       <c r="I88" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="19.5" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>165</v>
+        <v>160</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>671</v>
       </c>
       <c r="F89" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="G89" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="H89" s="4">
         <v>42795</v>
       </c>
       <c r="I89" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="33.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>166</v>
+        <v>161</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>673</v>
       </c>
       <c r="F90" t="s">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="G90" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H90" s="4">
         <v>38169</v>
       </c>
       <c r="I90" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="21.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>167</v>
+        <v>162</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>675</v>
       </c>
       <c r="F91" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="G91" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H91" s="4">
         <v>41249</v>
       </c>
       <c r="I91" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="25.5" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>168</v>
+        <v>163</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>677</v>
       </c>
       <c r="F92" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="G92" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="H92" s="4">
         <v>42795</v>
       </c>
       <c r="I92" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="20.25" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>169</v>
+        <v>164</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>679</v>
       </c>
       <c r="F93" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="G93" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H93" s="4">
         <v>42825</v>
       </c>
       <c r="I93" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="26.25" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="F94" t="s">
+        <v>464</v>
       </c>
       <c r="G94" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H94" s="4">
         <v>43189</v>
       </c>
       <c r="I94" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
-      </c>
-      <c r="C95" t="s">
-        <v>170</v>
-      </c>
-      <c r="F95" t="s">
-        <v>445</v>
+        <v>94</v>
       </c>
       <c r="G95" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H95" s="4">
         <v>41088</v>
       </c>
       <c r="I95" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>171</v>
+        <v>166</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>683</v>
       </c>
       <c r="F96" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="G96" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="H96" s="4">
         <v>42641</v>
       </c>
       <c r="I96" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="22.5" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>172</v>
+        <v>167</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>685</v>
       </c>
       <c r="F97" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="G97" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H97" s="4">
         <v>42641</v>
       </c>
       <c r="I97" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="28.5" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>137</v>
+        <v>168</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>687</v>
       </c>
       <c r="F98" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="G98" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H98" s="4">
         <v>43160</v>
       </c>
       <c r="I98" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="24.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>135</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>689</v>
       </c>
       <c r="F99" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="G99" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H99" s="4">
         <v>43186</v>
       </c>
       <c r="I99" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
-      </c>
-      <c r="C100" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="F100" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="G100" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H100" s="4">
         <v>43168</v>
       </c>
       <c r="I100" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>169</v>
+      </c>
+      <c r="D101" t="s">
+        <v>580</v>
+      </c>
+      <c r="E101" t="s">
+        <v>581</v>
+      </c>
+      <c r="F101" t="s">
+        <v>439</v>
       </c>
       <c r="G101" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H101" s="4">
         <v>43173</v>
       </c>
       <c r="I101" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
